--- a/data/summary/28_28_40.xlsx
+++ b/data/summary/28_28_40.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="3100" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="avg_plaquette" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="mminus_mass" sheetId="3" r:id="rId3"/>
     <sheet name="flux_re_energy" sheetId="4" r:id="rId4"/>
     <sheet name="flux_im_energy" sheetId="5" r:id="rId5"/>
+    <sheet name="flux_abs_energy" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="12">
   <si>
     <t>Sample Number</t>
   </si>
@@ -124,8 +125,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -153,19 +156,21 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,7 +503,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D27"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1026,31 +1031,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.49981855863826602</v>
+        <v>1.1379692371708601</v>
       </c>
       <c r="C3">
-        <v>5.2662385120406899E-2</v>
+        <v>-0.27836518596374799</v>
       </c>
       <c r="D3">
-        <v>0.94697473215612504</v>
+        <v>2.5543036603054601</v>
       </c>
       <c r="E3">
-        <v>0.87003523972756402</v>
+        <v>0.93167780354113705</v>
       </c>
       <c r="F3">
-        <v>6.0855492376896803E-2</v>
+        <v>-0.29914161930126199</v>
       </c>
       <c r="G3">
-        <v>1.67921498707823</v>
+        <v>2.16249722638354</v>
       </c>
       <c r="H3">
-        <v>9.9516704034275302E-2</v>
+        <v>0.81409350163951499</v>
       </c>
       <c r="I3">
-        <v>-0.21420379899095399</v>
+        <v>-3.7248512780365899</v>
       </c>
       <c r="J3">
-        <v>0.41323720705950501</v>
+        <v>5.3530382813156203</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1058,31 +1063,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.16637111117682399</v>
+        <v>0.56899725536007395</v>
       </c>
       <c r="C4">
-        <v>-0.17628948913467599</v>
+        <v>-3.5079064837455198</v>
       </c>
       <c r="D4">
-        <v>0.50903171148832405</v>
+        <v>4.6459009944656602</v>
       </c>
       <c r="E4">
-        <v>1.7920488085958599</v>
+        <v>1.86448439302067</v>
       </c>
       <c r="F4">
-        <v>-3.2909160346373101</v>
+        <v>-9.0854161446674802</v>
       </c>
       <c r="G4">
-        <v>6.8750136518290299</v>
+        <v>12.814384930708799</v>
       </c>
       <c r="H4">
-        <v>-3.7005520900089003E-2</v>
+        <v>7.4095250662424696</v>
       </c>
       <c r="I4">
-        <v>-0.510796016796494</v>
+        <v>-6150.4138496020096</v>
       </c>
       <c r="J4">
-        <v>0.43678497499631602</v>
+        <v>6165.2328997345003</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1090,31 +1095,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.38191641270028898</v>
+        <v>0.99942617809414103</v>
       </c>
       <c r="C5">
-        <v>4.59883452858477E-2</v>
+        <v>-0.42521461424857099</v>
       </c>
       <c r="D5">
-        <v>0.71784448011473101</v>
+        <v>2.4240669704368498</v>
       </c>
       <c r="E5">
-        <v>8.0410559354830902</v>
+        <v>8.4944935085996995</v>
       </c>
       <c r="F5">
-        <v>-2593.3958093603001</v>
+        <v>-7559.2122838253299</v>
       </c>
       <c r="G5">
-        <v>2609.4779212312601</v>
+        <v>7576.20127084253</v>
       </c>
       <c r="H5">
-        <v>0.33542971364119201</v>
+        <v>0.64955597343411298</v>
       </c>
       <c r="I5">
-        <v>8.4359250675679801E-2</v>
+        <v>-1.8151323850724901</v>
       </c>
       <c r="J5">
-        <v>0.58650017660670495</v>
+        <v>3.11424433194072</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1122,31 +1127,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.34758456655700198</v>
+        <v>0.80818491250189295</v>
       </c>
       <c r="C6">
-        <v>-6.5658717806693301E-2</v>
+        <v>-0.91628868361226701</v>
       </c>
       <c r="D6">
-        <v>0.76082785092069605</v>
+        <v>2.5326585086160498</v>
       </c>
       <c r="E6">
-        <v>0.22110031451058801</v>
+        <v>7.8940682663737203</v>
       </c>
       <c r="F6">
-        <v>-0.29023982588833003</v>
+        <v>-8457.0808545943601</v>
       </c>
       <c r="G6">
-        <v>0.73244045490950505</v>
+        <v>8472.8689911270994</v>
       </c>
       <c r="H6">
-        <v>0.25132010614420902</v>
+        <v>0.89638057950391803</v>
       </c>
       <c r="I6">
-        <v>-0.13537053404039401</v>
+        <v>-2.51265701639274</v>
       </c>
       <c r="J6">
-        <v>0.63801074632881205</v>
+        <v>4.3054181754005798</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1154,31 +1159,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.35078295242032298</v>
+        <v>0.64779625092505699</v>
       </c>
       <c r="C7">
-        <v>3.1668914424064401E-2</v>
+        <v>-1.2655389842870099</v>
       </c>
       <c r="D7">
-        <v>0.66989699041658102</v>
+        <v>2.5611314861371199</v>
       </c>
       <c r="E7">
-        <v>0.97969677778264497</v>
+        <v>1.05597674670681</v>
       </c>
       <c r="F7">
-        <v>1.74975852431083E-2</v>
+        <v>-1.4078070465488799</v>
       </c>
       <c r="G7">
-        <v>1.9418959703221801</v>
+        <v>3.51976053996251</v>
       </c>
       <c r="H7">
-        <v>0.53564343130347403</v>
+        <v>0.77124443378498897</v>
       </c>
       <c r="I7">
-        <v>-0.102137874366277</v>
+        <v>-2.3879388112139899</v>
       </c>
       <c r="J7">
-        <v>1.17342473697323</v>
+        <v>3.9304276787839698</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1186,31 +1191,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.0836052493218595</v>
+        <v>8.1222127653332397</v>
       </c>
       <c r="C8">
-        <v>-1768.72052828441</v>
+        <v>-7423.4999661442798</v>
       </c>
       <c r="D8">
-        <v>1784.8877387830501</v>
+        <v>7439.7443916749498</v>
       </c>
       <c r="E8">
-        <v>4.3423633487775903E-3</v>
+        <v>7.5811836718668797</v>
       </c>
       <c r="F8">
-        <v>-0.37696855593578199</v>
+        <v>-5872.2188853882299</v>
       </c>
       <c r="G8">
-        <v>0.38565328263333798</v>
+        <v>5887.3812527319697</v>
       </c>
       <c r="H8">
-        <v>1.34858099146166</v>
+        <v>1.4236547273408799</v>
       </c>
       <c r="I8">
-        <v>-0.92999044185476698</v>
+        <v>-2.7745143935483698</v>
       </c>
       <c r="J8">
-        <v>3.6271524247780902</v>
+        <v>5.6218238482301297</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1218,31 +1223,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.23730284193346399</v>
+        <v>0.80742198256905495</v>
       </c>
       <c r="C9">
-        <v>-0.133804907192315</v>
+        <v>-0.48905364581944999</v>
       </c>
       <c r="D9">
-        <v>0.608410591059243</v>
+        <v>2.10389761095756</v>
       </c>
       <c r="E9">
-        <v>0.262582322931948</v>
+        <v>0.83159854747480799</v>
       </c>
       <c r="F9">
-        <v>-0.22400933318457</v>
+        <v>-5.2701955357089796</v>
       </c>
       <c r="G9">
-        <v>0.74917397904846605</v>
+        <v>6.9333926306585996</v>
       </c>
       <c r="H9">
-        <v>0.23550073307170799</v>
+        <v>1.9247109072467401</v>
       </c>
       <c r="I9">
-        <v>-0.155261383620794</v>
+        <v>-11.3140354679543</v>
       </c>
       <c r="J9">
-        <v>0.62626284976420998</v>
+        <v>15.1634572824478</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1250,31 +1255,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.80870838514987797</v>
+        <v>2.4543559038929299</v>
       </c>
       <c r="C10">
-        <v>-0.156479655751565</v>
+        <v>-26.373283834828701</v>
       </c>
       <c r="D10">
-        <v>1.7738964260513199</v>
+        <v>31.2819956426146</v>
       </c>
       <c r="E10">
-        <v>0.29362100526164497</v>
+        <v>1.88575566389993</v>
       </c>
       <c r="F10">
-        <v>-0.100736105425307</v>
+        <v>-4.7526761515429703</v>
       </c>
       <c r="G10">
-        <v>0.68797811594859604</v>
+        <v>8.5241874793428192</v>
       </c>
       <c r="H10">
-        <v>0.21844401480030201</v>
+        <v>0.285766022470829</v>
       </c>
       <c r="I10">
-        <v>-0.12747055153350201</v>
+        <v>-4.1996393624709301</v>
       </c>
       <c r="J10">
-        <v>0.56435858113410697</v>
+        <v>4.7711714074125799</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1282,31 +1287,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.44859072291614199</v>
+        <v>0.63683592571791203</v>
       </c>
       <c r="C11">
-        <v>3.4871322613575999E-2</v>
+        <v>-2.2965008061448402</v>
       </c>
       <c r="D11">
-        <v>0.86231012321870903</v>
+        <v>3.57017265758066</v>
       </c>
       <c r="E11">
-        <v>0.205021597450739</v>
+        <v>1.2601367260812899</v>
       </c>
       <c r="F11">
-        <v>-0.21877412736598401</v>
+        <v>-4.3222929956991401</v>
       </c>
       <c r="G11">
-        <v>0.62881732226746101</v>
+        <v>6.8425664478617199</v>
       </c>
       <c r="H11">
-        <v>0.39683316767150401</v>
+        <v>0.77439592834437598</v>
       </c>
       <c r="I11">
-        <v>-0.216425617074471</v>
+        <v>-0.72635579869320199</v>
       </c>
       <c r="J11">
-        <v>1.0100919524174801</v>
+        <v>2.2751476553819501</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1314,31 +1319,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.230219483415459</v>
+        <v>2.3511975406394998</v>
       </c>
       <c r="C12">
-        <v>-4.43220717653144E-2</v>
+        <v>-5.7453444689913402</v>
       </c>
       <c r="D12">
-        <v>0.504761038596233</v>
+        <v>10.447739550270301</v>
       </c>
       <c r="E12">
-        <v>0.50520136664465698</v>
+        <v>0.80698517600249398</v>
       </c>
       <c r="F12">
-        <v>-8.4112655904944697E-2</v>
+        <v>-2.6289847728951101</v>
       </c>
       <c r="G12">
-        <v>1.0945153891942601</v>
+        <v>4.2429551249001003</v>
       </c>
       <c r="H12">
-        <v>0.46098357956681302</v>
+        <v>1.1180182068836899</v>
       </c>
       <c r="I12">
-        <v>3.1944473212495897E-2</v>
+        <v>-1.30748455583737</v>
       </c>
       <c r="J12">
-        <v>0.89002268592112999</v>
+        <v>3.5435209696047498</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1346,31 +1351,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.77294852497592703</v>
+        <v>0.958218246979187</v>
       </c>
       <c r="C13">
-        <v>-0.21826050454283599</v>
+        <v>-1.26999953128569</v>
       </c>
       <c r="D13">
-        <v>1.7641575544946899</v>
+        <v>3.1864360252440602</v>
       </c>
       <c r="E13">
-        <v>0.77755835902836601</v>
+        <v>1.2620720662009599</v>
       </c>
       <c r="F13">
-        <v>-0.448282553000735</v>
+        <v>-9.7334269531696496</v>
       </c>
       <c r="G13">
-        <v>2.0033992710574702</v>
+        <v>12.2575710855716</v>
       </c>
       <c r="H13">
-        <v>0.70662711373495501</v>
+        <v>1.50317514513805</v>
       </c>
       <c r="I13">
-        <v>-0.55581397376900499</v>
+        <v>-2.1435385886233802</v>
       </c>
       <c r="J13">
-        <v>1.96906820123891</v>
+        <v>5.1498888788994899</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1378,31 +1383,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.23984566661877799</v>
+        <v>1.9168567014299001</v>
       </c>
       <c r="C14">
-        <v>-0.102662999391353</v>
+        <v>0.79627129851362799</v>
       </c>
       <c r="D14">
-        <v>0.58235433262890801</v>
+        <v>3.0374421043461699</v>
       </c>
       <c r="E14">
-        <v>0.173655867896894</v>
+        <v>6.8989776806024103</v>
       </c>
       <c r="F14">
-        <v>-5.5963003685562701E-2</v>
+        <v>-1637.4424791312999</v>
       </c>
       <c r="G14">
-        <v>0.40327473947935</v>
+        <v>1651.2404344925001</v>
       </c>
       <c r="H14">
-        <v>0.40262520540997498</v>
+        <v>0.98015382470137802</v>
       </c>
       <c r="I14">
-        <v>-0.23154982339383101</v>
+        <v>8.8881432983774405E-2</v>
       </c>
       <c r="J14">
-        <v>1.0368002342137801</v>
+        <v>1.8714262164189801</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1410,31 +1415,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.460421109758055</v>
+        <v>2.62492219661282</v>
       </c>
       <c r="C15">
-        <v>-0.21207864411449501</v>
+        <v>-4.2189361674121697</v>
       </c>
       <c r="D15">
-        <v>1.1329208636306001</v>
+        <v>9.4687805606378106</v>
       </c>
       <c r="E15">
-        <v>0.15755807167461799</v>
+        <v>3.4933259542565902</v>
       </c>
       <c r="F15">
-        <v>-0.21366034875631401</v>
+        <v>-18.818247992650701</v>
       </c>
       <c r="G15">
-        <v>0.528776492105551</v>
+        <v>25.8048999011638</v>
       </c>
       <c r="H15">
-        <v>0.11537221952410399</v>
+        <v>0.77316388282891702</v>
       </c>
       <c r="I15">
-        <v>-0.16272063169040299</v>
+        <v>-3.6060293169731099</v>
       </c>
       <c r="J15">
-        <v>0.39346507073860998</v>
+        <v>5.1523570826309504</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1442,31 +1447,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.86621481288037305</v>
+        <v>2.7049947276901198</v>
       </c>
       <c r="C16">
-        <v>-0.38653088302613797</v>
+        <v>-23.038819012076399</v>
       </c>
       <c r="D16">
-        <v>2.1189605087868801</v>
+        <v>28.448808467456601</v>
       </c>
       <c r="E16">
-        <v>0.27597134998553402</v>
+        <v>1.00273175046076</v>
       </c>
       <c r="F16">
-        <v>-0.18765458413830299</v>
+        <v>-2.1221913095143501</v>
       </c>
       <c r="G16">
-        <v>0.73959728410937098</v>
+        <v>4.1276548104358701</v>
       </c>
       <c r="H16">
-        <v>-7.1433630983089996E-2</v>
+        <v>0.75256008600746405</v>
       </c>
       <c r="I16">
-        <v>-0.31507382556192998</v>
+        <v>-3.30143341943795</v>
       </c>
       <c r="J16">
-        <v>0.17220656359575001</v>
+        <v>4.8065535914528796</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1474,31 +1479,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.118863639719671</v>
+        <v>0.97035547466942595</v>
       </c>
       <c r="C17">
-        <v>-0.13267008616210599</v>
+        <v>-1.35371817212669</v>
       </c>
       <c r="D17">
-        <v>0.37039736560144798</v>
+        <v>3.2944291214655399</v>
       </c>
       <c r="E17">
-        <v>0.20357325797537301</v>
+        <v>7.9757805016947003</v>
       </c>
       <c r="F17">
-        <v>-9.7955242566013807E-3</v>
+        <v>-6584.97501012455</v>
       </c>
       <c r="G17">
-        <v>0.41694204020734799</v>
+        <v>6600.9265711279404</v>
       </c>
       <c r="H17">
-        <v>0.10545327403728399</v>
+        <v>7.6165336089870603</v>
       </c>
       <c r="I17">
-        <v>-0.233903808125002</v>
+        <v>-10145.5776778865</v>
       </c>
       <c r="J17">
-        <v>0.44481035619956999</v>
+        <v>10160.8107451045</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1506,31 +1511,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.245624979968395</v>
+        <v>1.16097942420031</v>
       </c>
       <c r="C18">
-        <v>-7.9855475181356994E-2</v>
+        <v>-1.2964142749157099</v>
       </c>
       <c r="D18">
-        <v>0.57110543511814804</v>
+        <v>3.6183731233163301</v>
       </c>
       <c r="E18">
-        <v>0.22897304274518801</v>
+        <v>7.0756514515293301</v>
       </c>
       <c r="F18">
-        <v>-9.7318821263760499E-2</v>
+        <v>-3196.0251428615102</v>
       </c>
       <c r="G18">
-        <v>0.55526490675413698</v>
+        <v>3210.17644576457</v>
       </c>
       <c r="H18">
-        <v>0.39782777003586101</v>
+        <v>1.75684031170139</v>
       </c>
       <c r="I18">
-        <v>-0.191981370675369</v>
+        <v>-3.6099891113156102</v>
       </c>
       <c r="J18">
-        <v>0.98763691074709103</v>
+        <v>7.1236697347183897</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1538,31 +1543,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.19707842693670299</v>
+        <v>0.64042448290663601</v>
       </c>
       <c r="C19">
-        <v>-0.120933144030917</v>
+        <v>-5.4865585518552997</v>
       </c>
       <c r="D19">
-        <v>0.51508999790432297</v>
+        <v>6.7674075176685697</v>
       </c>
       <c r="E19">
-        <v>0.11276896171298301</v>
+        <v>8.7023832676989592</v>
       </c>
       <c r="F19">
-        <v>-0.28952248154362797</v>
+        <v>-17073.107899411301</v>
       </c>
       <c r="G19">
-        <v>0.51506040496959304</v>
+        <v>17090.512665946699</v>
       </c>
       <c r="H19">
-        <v>0.22051606788539599</v>
+        <v>1.1886843272327099</v>
       </c>
       <c r="I19">
-        <v>-3.3884329956282502E-2</v>
+        <v>-1.8683727041669</v>
       </c>
       <c r="J19">
-        <v>0.47491646572707502</v>
+        <v>4.2457413586323298</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1570,31 +1575,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.216469066412183</v>
+        <v>9.0023281979530392</v>
       </c>
       <c r="C20">
-        <v>-0.210884405696351</v>
+        <v>-16777.158671509402</v>
       </c>
       <c r="D20">
-        <v>0.64382253852071702</v>
+        <v>16795.163327905299</v>
       </c>
       <c r="E20">
-        <v>9.6137761799615307E-2</v>
+        <v>0.52326399566123005</v>
       </c>
       <c r="F20">
-        <v>-0.26864719750807398</v>
+        <v>-3.1569192757386699</v>
       </c>
       <c r="G20">
-        <v>0.46092272110730398</v>
+        <v>4.2034472670611303</v>
       </c>
       <c r="H20">
-        <v>0.68213474454511802</v>
+        <v>0.82971345419576703</v>
       </c>
       <c r="I20">
-        <v>-0.31179651121335</v>
+        <v>-2.2610194874724199</v>
       </c>
       <c r="J20">
-        <v>1.6760660003035901</v>
+        <v>3.9204463958639599</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1602,31 +1607,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.93828134097744398</v>
+        <v>1.0926378928521101</v>
       </c>
       <c r="C21">
-        <v>-0.50969055921488904</v>
+        <v>0.16076230434042599</v>
       </c>
       <c r="D21">
-        <v>2.3862532411697801</v>
+        <v>2.0245134813637899</v>
       </c>
       <c r="E21">
-        <v>0.40437785755382</v>
+        <v>0.94764705405994998</v>
       </c>
       <c r="F21">
-        <v>-0.220227556805834</v>
+        <v>-2.4571486240470102</v>
       </c>
       <c r="G21">
-        <v>1.0289832719134699</v>
+        <v>4.3524427321669101</v>
       </c>
       <c r="H21">
-        <v>0.71672322905846797</v>
+        <v>0.84224678004453402</v>
       </c>
       <c r="I21">
-        <v>-0.36440803478716299</v>
+        <v>-2.6720985018792902</v>
       </c>
       <c r="J21">
-        <v>1.7978544929041</v>
+        <v>4.3565920619683602</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1634,31 +1639,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.82698813570603502</v>
+        <v>1.2309125787444299</v>
       </c>
       <c r="C22">
-        <v>-0.13097775301252201</v>
+        <v>-0.63089248930415498</v>
       </c>
       <c r="D22">
-        <v>1.7849540244245901</v>
+        <v>3.09271764679302</v>
       </c>
       <c r="E22">
-        <v>0.40159848599294801</v>
+        <v>0.73244174182021804</v>
       </c>
       <c r="F22">
-        <v>-3.42067313757995E-2</v>
+        <v>-0.58505245489083302</v>
       </c>
       <c r="G22">
-        <v>0.83740370336169501</v>
+        <v>2.0499359385312701</v>
       </c>
       <c r="H22">
-        <v>0.29043612324527002</v>
+        <v>1.69813584956342</v>
       </c>
       <c r="I22">
-        <v>-0.14112874091416999</v>
+        <v>-1.0504928145660499</v>
       </c>
       <c r="J22">
-        <v>0.72200098740471097</v>
+        <v>4.4467645136928899</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1666,31 +1671,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.17353941947766699</v>
+        <v>0.85185150071803695</v>
       </c>
       <c r="C23">
-        <v>-0.23314057768291299</v>
+        <v>-2.7054286097184601</v>
       </c>
       <c r="D23">
-        <v>0.58021941663824705</v>
+        <v>4.40913161115453</v>
       </c>
       <c r="E23">
-        <v>0.21447045178774299</v>
+        <v>7.8384840629811201</v>
       </c>
       <c r="F23">
-        <v>-0.25727074486558998</v>
+        <v>-3519.36560253588</v>
       </c>
       <c r="G23">
-        <v>0.68621164844107696</v>
+        <v>3535.0425706618498</v>
       </c>
       <c r="H23">
-        <v>0.30491707400811202</v>
+        <v>0.22139088838905599</v>
       </c>
       <c r="I23">
-        <v>-0.235881707997731</v>
+        <v>-4.0082742740019501</v>
       </c>
       <c r="J23">
-        <v>0.84571585601395505</v>
+        <v>4.4510560507800596</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1698,31 +1703,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.161696221117891</v>
+        <v>2.1119562627187101</v>
       </c>
       <c r="C24">
-        <v>-0.13111965771303799</v>
+        <v>-2.7041225426625801</v>
       </c>
       <c r="D24">
-        <v>0.45451209994882003</v>
+        <v>6.9280350680999998</v>
       </c>
       <c r="E24">
-        <v>0.30652636903067998</v>
+        <v>1.1760420349848899</v>
       </c>
       <c r="F24">
-        <v>-0.213036684828638</v>
+        <v>-9.8642668561469495</v>
       </c>
       <c r="G24">
-        <v>0.82608942288999798</v>
+        <v>12.2163509261167</v>
       </c>
       <c r="H24">
-        <v>0.17646966513109599</v>
+        <v>0.66651043526008202</v>
       </c>
       <c r="I24">
-        <v>-0.21116509357445601</v>
+        <v>-2.6796171555356798</v>
       </c>
       <c r="J24">
-        <v>0.56410442383664805</v>
+        <v>4.0126380260558401</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1730,31 +1735,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.91093156973853795</v>
+        <v>1.27712084122378</v>
       </c>
       <c r="C25">
-        <v>0.21155950634617399</v>
+        <v>-1.8844790769436199</v>
       </c>
       <c r="D25">
-        <v>1.6103036331309</v>
+        <v>4.4387207593911899</v>
       </c>
       <c r="E25">
-        <v>1.10282955647713</v>
+        <v>1.2677374039243601</v>
       </c>
       <c r="F25">
-        <v>0.37455353774946698</v>
+        <v>0.221743201021978</v>
       </c>
       <c r="G25">
-        <v>1.83110557520479</v>
+        <v>2.3137316068267499</v>
       </c>
       <c r="H25">
-        <v>0.67153094787402701</v>
+        <v>1.2534188756162501</v>
       </c>
       <c r="I25">
-        <v>-0.32953088591858998</v>
+        <v>-3.22230263806187</v>
       </c>
       <c r="J25">
-        <v>1.6725927816666399</v>
+        <v>5.7291403892943604</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1762,31 +1767,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.04692757250028</v>
+        <v>1.1229346810379901</v>
       </c>
       <c r="C26">
-        <v>-0.20483823704280199</v>
+        <v>7.9617049368944301E-2</v>
       </c>
       <c r="D26">
-        <v>2.2986933820433699</v>
+        <v>2.1662523127070301</v>
       </c>
       <c r="E26">
-        <v>0.25717667340503603</v>
+        <v>0.90605636704930603</v>
       </c>
       <c r="F26">
-        <v>-8.5534657501998998E-2</v>
+        <v>-7.6988318389148098</v>
       </c>
       <c r="G26">
-        <v>0.59988800431207101</v>
+        <v>9.5109445730134308</v>
       </c>
       <c r="H26">
-        <v>0.32670829743857199</v>
+        <v>1.10888089557392</v>
       </c>
       <c r="I26">
-        <v>-0.26045175085297601</v>
+        <v>-3.2196750320932699</v>
       </c>
       <c r="J26">
-        <v>0.91386834573011999</v>
+        <v>5.4374368232411099</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1794,31 +1799,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.14766151083578699</v>
+        <v>9.2290909276347399</v>
       </c>
       <c r="C27">
-        <v>-0.21133089035454999</v>
+        <v>-1901.3851798240701</v>
       </c>
       <c r="D27">
-        <v>0.50665391202612298</v>
+        <v>1919.84336167934</v>
       </c>
       <c r="E27">
-        <v>0.50482894087340402</v>
+        <v>0.87033065156249301</v>
       </c>
       <c r="F27">
-        <v>0.22994283920183001</v>
+        <v>-1.78502699859393</v>
       </c>
       <c r="G27">
-        <v>0.77971504254497903</v>
+        <v>3.5256883017189198</v>
       </c>
       <c r="H27">
-        <v>8.0416939416485506E-2</v>
+        <v>9.0085451620324495</v>
       </c>
       <c r="I27">
-        <v>-0.38286260962774998</v>
+        <v>-14493.481277454401</v>
       </c>
       <c r="J27">
-        <v>0.54369648846072105</v>
+        <v>14511.4983677784</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1827,19 +1832,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.75513569127412916</v>
+        <v>2.2171992835830356</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.73570842958707383</v>
+        <v>3.3311714595221891</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.3588628784462673</v>
+        <v>1.8506919549665581</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1850,19 +1855,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>1.5554521692190508</v>
+        <v>2.5647880128461495</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>1.5733456330859987</v>
+        <v>3.2015712858686589</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>0.30246310650656133</v>
+        <v>2.3721021079607234</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1893,19 +1898,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>0.87011994346113719</v>
+        <v>1.4347424143861363</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>0.88012954714830782</v>
+        <v>1.7909589773149279</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>0.16919786177977042</v>
+        <v>1.3269539191932287</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1991,31 +1996,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.42757092946408898</v>
+        <v>0.42396816454229203</v>
       </c>
       <c r="C3">
-        <v>0.23708870874518501</v>
+        <v>0.25081566769457803</v>
       </c>
       <c r="D3">
-        <v>0.61805315018299301</v>
+        <v>0.59712066139000697</v>
       </c>
       <c r="E3">
-        <v>0.23903395381824799</v>
+        <v>0.23721157050964001</v>
       </c>
       <c r="F3">
-        <v>0.13095058910500301</v>
+        <v>0.14034663984955401</v>
       </c>
       <c r="G3">
-        <v>0.34711731853149203</v>
+        <v>0.33407650116972698</v>
       </c>
       <c r="H3">
-        <v>0.35289999918127601</v>
+        <v>0.35381804692218599</v>
       </c>
       <c r="I3">
-        <v>0.249993677311351</v>
+        <v>0.26245237390487802</v>
       </c>
       <c r="J3">
-        <v>0.455806321051201</v>
+        <v>0.44518371993949402</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2023,31 +2028,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.36260509799962398</v>
+        <v>0.30800034003112797</v>
       </c>
       <c r="C4">
-        <v>-2.61811993010291E-2</v>
+        <v>-2.0145725498136601E-2</v>
       </c>
       <c r="D4">
-        <v>0.75139139530027799</v>
+        <v>0.63614640556039304</v>
       </c>
       <c r="E4">
-        <v>0.26270285390864201</v>
+        <v>0.27056598093586398</v>
       </c>
       <c r="F4">
-        <v>0.18581592136066</v>
+        <v>0.19119073736391901</v>
       </c>
       <c r="G4">
-        <v>0.33958978645662402</v>
+        <v>0.34994122450780801</v>
       </c>
       <c r="H4">
-        <v>0.453847684711573</v>
+        <v>0.44878763582152698</v>
       </c>
       <c r="I4">
-        <v>0.14152553362442</v>
+        <v>0.167439269861762</v>
       </c>
       <c r="J4">
-        <v>0.76616983579872699</v>
+        <v>0.73013600178129201</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2055,31 +2060,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.66504199830511601</v>
+        <v>0.49759126435881101</v>
       </c>
       <c r="C5">
-        <v>0.39521826978402602</v>
+        <v>0.31531049007390799</v>
       </c>
       <c r="D5">
-        <v>0.93486572682620594</v>
+        <v>0.67987203864371404</v>
       </c>
       <c r="E5">
-        <v>0.29402838956067001</v>
+        <v>0.27067086416409097</v>
       </c>
       <c r="F5">
-        <v>8.6442459285618806E-2</v>
+        <v>7.8773552541174005E-2</v>
       </c>
       <c r="G5">
-        <v>0.50161431983572102</v>
+        <v>0.46256817578700699</v>
       </c>
       <c r="H5">
-        <v>0.60546974126515896</v>
+        <v>0.58453894030670595</v>
       </c>
       <c r="I5">
-        <v>0.42821723514667898</v>
+        <v>0.42774482152605298</v>
       </c>
       <c r="J5">
-        <v>0.78272224738363905</v>
+        <v>0.74133305908735903</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2087,31 +2092,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.44414584512051403</v>
+        <v>0.43639628215917298</v>
       </c>
       <c r="C6">
-        <v>0.24549132327644099</v>
+        <v>0.24970898853062201</v>
       </c>
       <c r="D6">
-        <v>0.64280036696458698</v>
+        <v>0.623083575787723</v>
       </c>
       <c r="E6">
-        <v>0.232396720051989</v>
+        <v>0.15954882347377899</v>
       </c>
       <c r="F6">
-        <v>0.145678748980788</v>
+        <v>7.8587740439094403E-2</v>
       </c>
       <c r="G6">
-        <v>0.31911469112319102</v>
+        <v>0.24050990650846399</v>
       </c>
       <c r="H6">
-        <v>0.40468202287096899</v>
+        <v>0.39415798607755997</v>
       </c>
       <c r="I6">
-        <v>0.26023811423941101</v>
+        <v>0.23401100541018399</v>
       </c>
       <c r="J6">
-        <v>0.54912593150252698</v>
+        <v>0.55430496674493601</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2119,31 +2124,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.92628998790536199</v>
+        <v>0.92476253277171905</v>
       </c>
       <c r="C7">
-        <v>0.114815302329312</v>
+        <v>0.134890424611846</v>
       </c>
       <c r="D7">
-        <v>1.7377646734814101</v>
+        <v>1.71463464093159</v>
       </c>
       <c r="E7">
-        <v>0.46694104492108002</v>
+        <v>0.46256010148927001</v>
       </c>
       <c r="F7">
-        <v>0.27005558274022301</v>
+        <v>0.28138036818043299</v>
       </c>
       <c r="G7">
-        <v>0.66382650710193802</v>
+        <v>0.64373983479810704</v>
       </c>
       <c r="H7">
-        <v>0.72227399158980099</v>
+        <v>0.72166540986000904</v>
       </c>
       <c r="I7">
-        <v>0.29937182978069798</v>
+        <v>0.34152736152522301</v>
       </c>
       <c r="J7">
-        <v>1.1451761533989</v>
+        <v>1.10180345819479</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2151,31 +2156,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.50480287841532201</v>
+        <v>0.50465305741895605</v>
       </c>
       <c r="C8">
-        <v>0.37472945457610501</v>
+        <v>0.38774265684120601</v>
       </c>
       <c r="D8">
-        <v>0.63487630225453895</v>
+        <v>0.62156345799670598</v>
       </c>
       <c r="E8">
-        <v>0.48869044885284102</v>
+        <v>0.48530409793183799</v>
       </c>
       <c r="F8">
-        <v>0.29851138089785101</v>
+        <v>0.31058945362752199</v>
       </c>
       <c r="G8">
-        <v>0.67886951680783103</v>
+        <v>0.66001874223615398</v>
       </c>
       <c r="H8">
-        <v>0.327436849278888</v>
+        <v>0.33075035482222298</v>
       </c>
       <c r="I8">
-        <v>0.18454789483773201</v>
+        <v>0.201839303571788</v>
       </c>
       <c r="J8">
-        <v>0.47032580372004301</v>
+        <v>0.45966140607265898</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2183,31 +2188,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.56323047973572504</v>
+        <v>0.55334774077409299</v>
       </c>
       <c r="C9">
-        <v>0.208939492780637</v>
+        <v>0.20191882917222001</v>
       </c>
       <c r="D9">
-        <v>0.91752146669081303</v>
+        <v>0.90477665237596505</v>
       </c>
       <c r="E9">
-        <v>0.415690402162537</v>
+        <v>0.33692021540700101</v>
       </c>
       <c r="F9">
-        <v>0.33663338975194201</v>
+        <v>0.27739492483902101</v>
       </c>
       <c r="G9">
-        <v>0.49474741457313298</v>
+        <v>0.39644550597498002</v>
       </c>
       <c r="H9">
-        <v>0.22348177121240001</v>
+        <v>0.210196867583889</v>
       </c>
       <c r="I9">
-        <v>9.3698715633242599E-2</v>
+        <v>0.107213208494202</v>
       </c>
       <c r="J9">
-        <v>0.35326482679155702</v>
+        <v>0.31318052667357699</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2215,31 +2220,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.68231427244394105</v>
+        <v>0.34038043071294199</v>
       </c>
       <c r="C10">
-        <v>0.50588548948909395</v>
+        <v>0.16377658471951501</v>
       </c>
       <c r="D10">
-        <v>0.85874305539878903</v>
+        <v>0.51698427670636904</v>
       </c>
       <c r="E10">
-        <v>0.55221157248068098</v>
+        <v>0.54477741142151703</v>
       </c>
       <c r="F10">
-        <v>0.43190227845557599</v>
+        <v>0.36586054431708898</v>
       </c>
       <c r="G10">
-        <v>0.67252086650578702</v>
+        <v>0.72369427852594503</v>
       </c>
       <c r="H10">
-        <v>0.39574570685548799</v>
+        <v>0.39748667068844201</v>
       </c>
       <c r="I10">
-        <v>0.26838838499987999</v>
+        <v>0.28263111182935902</v>
       </c>
       <c r="J10">
-        <v>0.52310302871109704</v>
+        <v>0.51234222954752495</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2247,31 +2252,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.34486183552257399</v>
+        <v>7.35816335130898E-2</v>
       </c>
       <c r="C11">
-        <v>-0.301324870877759</v>
+        <v>-0.23728664433413499</v>
       </c>
       <c r="D11">
-        <v>0.99104854192290703</v>
+        <v>0.38444991136031498</v>
       </c>
       <c r="E11">
-        <v>0.240296662734272</v>
+        <v>0.222624246547939</v>
       </c>
       <c r="F11">
-        <v>6.1475548178602901E-2</v>
+        <v>7.8156212837429101E-2</v>
       </c>
       <c r="G11">
-        <v>0.41911777728994098</v>
+        <v>0.36709228025844798</v>
       </c>
       <c r="H11">
-        <v>9.0875962249569397E-2</v>
+        <v>-6.14476852907024E-3</v>
       </c>
       <c r="I11">
-        <v>-0.35107277536113901</v>
+        <v>-0.32075696195946402</v>
       </c>
       <c r="J11">
-        <v>0.53282469986027803</v>
+        <v>0.30846742490132301</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2279,31 +2284,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.35986234309389997</v>
+        <v>0.34713428141304598</v>
       </c>
       <c r="C12">
-        <v>0.206869087797621</v>
+        <v>0.21454336619359701</v>
       </c>
       <c r="D12">
-        <v>0.51285559839017902</v>
+        <v>0.47972519663249602</v>
       </c>
       <c r="E12">
-        <v>0.95995270157625201</v>
+        <v>0.43712427247671798</v>
       </c>
       <c r="F12">
-        <v>9.8918509039621599E-2</v>
+        <v>3.2589715418752101E-2</v>
       </c>
       <c r="G12">
-        <v>1.82098689411288</v>
+        <v>0.84165882953468396</v>
       </c>
       <c r="H12">
-        <v>0.348082184278032</v>
+        <v>0.329955673353095</v>
       </c>
       <c r="I12">
-        <v>0.26885814660670398</v>
+        <v>0.26709459512059303</v>
       </c>
       <c r="J12">
-        <v>0.42730622194936102</v>
+        <v>0.39281675158559698</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2311,31 +2316,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.33011440744792298</v>
+        <v>0.32400649511650298</v>
       </c>
       <c r="C13">
-        <v>0.173793742118558</v>
+        <v>0.18293508829581201</v>
       </c>
       <c r="D13">
-        <v>0.48643507277728798</v>
+        <v>0.465077901937195</v>
       </c>
       <c r="E13">
-        <v>0.363744096051902</v>
+        <v>0.291376026831352</v>
       </c>
       <c r="F13">
-        <v>0.27394869736010802</v>
+        <v>0.23237341280598101</v>
       </c>
       <c r="G13">
-        <v>0.45353949474369498</v>
+        <v>0.35037864085672299</v>
       </c>
       <c r="H13">
-        <v>0.352677842869009</v>
+        <v>0.34007875748153998</v>
       </c>
       <c r="I13">
-        <v>0.19556601359795101</v>
+        <v>0.17923783639183299</v>
       </c>
       <c r="J13">
-        <v>0.50978967214006599</v>
+        <v>0.50091967857124697</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2343,31 +2348,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.51327779680920604</v>
+        <v>0.50307195548258199</v>
       </c>
       <c r="C14">
-        <v>0.37462770271981699</v>
+        <v>0.30921174381429001</v>
       </c>
       <c r="D14">
-        <v>0.65192789089859604</v>
+        <v>0.69693216715087403</v>
       </c>
       <c r="E14">
-        <v>0.53223355801404604</v>
+        <v>0.51629728143665299</v>
       </c>
       <c r="F14">
-        <v>0.173454390692491</v>
+        <v>0.13764455706241699</v>
       </c>
       <c r="G14">
-        <v>0.89101272533560105</v>
+        <v>0.89495000581089001</v>
       </c>
       <c r="H14">
-        <v>0.487005886593463</v>
+        <v>0.30897108706561899</v>
       </c>
       <c r="I14">
-        <v>1.99959018383613E-2</v>
+        <v>4.4797139182355797E-2</v>
       </c>
       <c r="J14">
-        <v>0.95401587134856503</v>
+        <v>0.57314503494888103</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2375,31 +2380,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.42167635261162401</v>
+        <v>0.41457313056420098</v>
       </c>
       <c r="C15">
-        <v>0.31795162434094798</v>
+        <v>0.30109468565707498</v>
       </c>
       <c r="D15">
-        <v>0.52540108088229998</v>
+        <v>0.52805157547132597</v>
       </c>
       <c r="E15">
-        <v>0.362808461543348</v>
+        <v>0.322757983349021</v>
       </c>
       <c r="F15">
-        <v>0.23725711908861299</v>
+        <v>0.21496298490693599</v>
       </c>
       <c r="G15">
-        <v>0.48835980399808299</v>
+        <v>0.43055298179110502</v>
       </c>
       <c r="H15">
-        <v>0.25890880636362701</v>
+        <v>0.23135113801680701</v>
       </c>
       <c r="I15">
-        <v>0.17627577756058399</v>
+        <v>0.158382113545706</v>
       </c>
       <c r="J15">
-        <v>0.34154183516667003</v>
+        <v>0.304320162487908</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2407,31 +2412,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.46780945761265003</v>
+        <v>0.40455886431058702</v>
       </c>
       <c r="C16">
-        <v>-3.61214172134212E-2</v>
+        <v>-0.10509754479279899</v>
       </c>
       <c r="D16">
-        <v>0.97174033243872104</v>
+        <v>0.91421527341397402</v>
       </c>
       <c r="E16">
-        <v>0.33183725303023498</v>
+        <v>0.33495201110292699</v>
       </c>
       <c r="F16">
-        <v>0.25892906857978998</v>
+        <v>0.26759667703732698</v>
       </c>
       <c r="G16">
-        <v>0.40474543748067998</v>
+        <v>0.40230734516852701</v>
       </c>
       <c r="H16">
-        <v>0.16359679661694501</v>
+        <v>0.15035546352144999</v>
       </c>
       <c r="I16">
-        <v>1.30332050683687E-3</v>
+        <v>2.90137567791421E-2</v>
       </c>
       <c r="J16">
-        <v>0.32589027272705301</v>
+        <v>0.271697170263757</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2439,31 +2444,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.53923073882223904</v>
+        <v>0.38283611143360202</v>
       </c>
       <c r="C17">
-        <v>0.44686020665313197</v>
+        <v>0.27586481666007401</v>
       </c>
       <c r="D17">
-        <v>0.631601270991346</v>
+        <v>0.48980740620712898</v>
       </c>
       <c r="E17">
-        <v>0.284090865307708</v>
+        <v>0.23406936411038301</v>
       </c>
       <c r="F17">
-        <v>0.185874563723675</v>
+        <v>0.16831311821838599</v>
       </c>
       <c r="G17">
-        <v>0.38230716689174099</v>
+        <v>0.29982561000238001</v>
       </c>
       <c r="H17">
-        <v>0.23769289041000399</v>
+        <v>0.23576291826417101</v>
       </c>
       <c r="I17">
-        <v>0.13126056159576899</v>
+        <v>0.139935166961486</v>
       </c>
       <c r="J17">
-        <v>0.344125219224239</v>
+        <v>0.33159066956685701</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2471,31 +2476,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.391973792132985</v>
+        <v>0.391885177247773</v>
       </c>
       <c r="C18">
-        <v>0.32042295182654301</v>
+        <v>0.32595898980856802</v>
       </c>
       <c r="D18">
-        <v>0.46352463243942799</v>
+        <v>0.45781136468697697</v>
       </c>
       <c r="E18">
-        <v>0.29412704813700902</v>
+        <v>0.26194116402069001</v>
       </c>
       <c r="F18">
-        <v>0.20179161175010299</v>
+        <v>0.19538004271934201</v>
       </c>
       <c r="G18">
-        <v>0.38646248452391602</v>
+        <v>0.32850228532203901</v>
       </c>
       <c r="H18">
-        <v>0.42254190695659</v>
+        <v>0.41349274267585301</v>
       </c>
       <c r="I18">
-        <v>0.36491964073693101</v>
+        <v>0.31461038005367098</v>
       </c>
       <c r="J18">
-        <v>0.48016417317624799</v>
+        <v>0.51237510529803498</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2503,31 +2508,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.39577984770928998</v>
+        <v>0.39492225100563899</v>
       </c>
       <c r="C19">
-        <v>0.19145097072395301</v>
+        <v>0.21379124945167599</v>
       </c>
       <c r="D19">
-        <v>0.60010872469462795</v>
+        <v>0.57605325255960205</v>
       </c>
       <c r="E19">
-        <v>0.422728737345478</v>
+        <v>0.40595739591778501</v>
       </c>
       <c r="F19">
-        <v>0.27605690732756699</v>
+        <v>0.29143368797935698</v>
       </c>
       <c r="G19">
-        <v>0.56940056736338795</v>
+        <v>0.52048110385621404</v>
       </c>
       <c r="H19">
-        <v>0.39443545008782499</v>
+        <v>0.384537423047844</v>
       </c>
       <c r="I19">
-        <v>0.260220588542108</v>
+        <v>0.27012846757523301</v>
       </c>
       <c r="J19">
-        <v>0.52865031163354104</v>
+        <v>0.49894637852045398</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2535,31 +2540,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.75057805748137196</v>
+        <v>0.74825972073270397</v>
       </c>
       <c r="C20">
-        <v>0.415146248057635</v>
+        <v>0.39390774705965498</v>
       </c>
       <c r="D20">
-        <v>1.0860098669051099</v>
+        <v>1.10261169440575</v>
       </c>
       <c r="E20">
-        <v>0.35771976621065998</v>
+        <v>0.34969816310398399</v>
       </c>
       <c r="F20">
-        <v>0.22459088907262401</v>
+        <v>0.22377407639736099</v>
       </c>
       <c r="G20">
-        <v>0.49084864334869699</v>
+        <v>0.47562224981060602</v>
       </c>
       <c r="H20">
-        <v>0.30759594452268901</v>
+        <v>0.30487224638935501</v>
       </c>
       <c r="I20">
-        <v>0.13281744898944201</v>
+        <v>0.15218549189181699</v>
       </c>
       <c r="J20">
-        <v>0.48237444005593599</v>
+        <v>0.457559000886894</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2567,31 +2572,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.407846255625334</v>
+        <v>0.35316440011140199</v>
       </c>
       <c r="C21">
-        <v>0.26870624407569998</v>
+        <v>0.26212541815902002</v>
       </c>
       <c r="D21">
-        <v>0.54698626717496801</v>
+        <v>0.44420338206378401</v>
       </c>
       <c r="E21">
-        <v>3.9269572689322402E-3</v>
+        <v>-3.1551897887832803E-2</v>
       </c>
       <c r="F21">
-        <v>-0.32950065213639701</v>
+        <v>-0.281518548838813</v>
       </c>
       <c r="G21">
-        <v>0.337354566674262</v>
+        <v>0.218414753063147</v>
       </c>
       <c r="H21">
-        <v>0.34130476678006599</v>
+        <v>0.30036339030456399</v>
       </c>
       <c r="I21">
-        <v>0.18456007177511399</v>
+        <v>0.19832556278424099</v>
       </c>
       <c r="J21">
-        <v>0.49804946178501802</v>
+        <v>0.40240121782488802</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2599,31 +2604,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.47882657315669502</v>
+        <v>0.478970145502985</v>
       </c>
       <c r="C22">
-        <v>0.378005808490118</v>
+        <v>0.38885060540258298</v>
       </c>
       <c r="D22">
-        <v>0.57964733782327105</v>
+        <v>0.56908968560338702</v>
       </c>
       <c r="E22">
-        <v>0.25005789430214098</v>
+        <v>0.19445667929379201</v>
       </c>
       <c r="F22">
-        <v>0.172024589231075</v>
+        <v>0.12706958994442299</v>
       </c>
       <c r="G22">
-        <v>0.32809119937320702</v>
+        <v>0.26184376864316</v>
       </c>
       <c r="H22">
-        <v>0.18152271485499799</v>
+        <v>0.16860662394971099</v>
       </c>
       <c r="I22">
-        <v>5.7103794434473797E-2</v>
+        <v>6.5726439799258199E-2</v>
       </c>
       <c r="J22">
-        <v>0.30594163527552298</v>
+        <v>0.27148680810016301</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2631,31 +2636,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.26869035627704502</v>
+        <v>0.25312657954758599</v>
       </c>
       <c r="C23">
-        <v>0.125899319438917</v>
+        <v>0.138577523580907</v>
       </c>
       <c r="D23">
-        <v>0.41148139311517301</v>
+        <v>0.36767563551426602</v>
       </c>
       <c r="E23">
-        <v>0.43768007939145998</v>
+        <v>0.43446078317122999</v>
       </c>
       <c r="F23">
-        <v>0.29519562213630701</v>
+        <v>0.30975192227960102</v>
       </c>
       <c r="G23">
-        <v>0.58016453664661305</v>
+        <v>0.55916964406285796</v>
       </c>
       <c r="H23">
-        <v>0.24949350160000799</v>
+        <v>0.25263557877431903</v>
       </c>
       <c r="I23">
-        <v>0.150554715468842</v>
+        <v>0.16522627827927699</v>
       </c>
       <c r="J23">
-        <v>0.34843228773117402</v>
+        <v>0.340044879269361</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2663,31 +2668,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.65845316856695202</v>
+        <v>0.65110421234957505</v>
       </c>
       <c r="C24">
-        <v>0.239167457506306</v>
+        <v>0.17664284536765301</v>
       </c>
       <c r="D24">
-        <v>1.0777388796276</v>
+        <v>1.1255655793315</v>
       </c>
       <c r="E24">
-        <v>0.25341410792042401</v>
+        <v>0.22110913361536999</v>
       </c>
       <c r="F24">
-        <v>0.133900797086623</v>
+        <v>0.13759383542818501</v>
       </c>
       <c r="G24">
-        <v>0.37292741875422503</v>
+        <v>0.30462443180255599</v>
       </c>
       <c r="H24">
-        <v>0.14530245024578101</v>
+        <v>0.13322509223689699</v>
       </c>
       <c r="I24">
-        <v>-1.9732761153202001E-2</v>
+        <v>6.8329199098379201E-3</v>
       </c>
       <c r="J24">
-        <v>0.31033766164476401</v>
+        <v>0.25961726456395601</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2695,31 +2700,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.51171900214166699</v>
+        <v>0.50140478619469198</v>
       </c>
       <c r="C25">
-        <v>0.21409011017143301</v>
+        <v>0.200454262135946</v>
       </c>
       <c r="D25">
-        <v>0.809347894111901</v>
+        <v>0.80235531025343798</v>
       </c>
       <c r="E25">
-        <v>0.39377464885510299</v>
+        <v>0.37776580648199298</v>
       </c>
       <c r="F25">
-        <v>0.28088860952398798</v>
+        <v>0.21750876975297301</v>
       </c>
       <c r="G25">
-        <v>0.50666068818621801</v>
+        <v>0.53802284321101301</v>
       </c>
       <c r="H25">
-        <v>0.54313208244936195</v>
+        <v>0.49449291631639097</v>
       </c>
       <c r="I25">
-        <v>0.37579607634386403</v>
+        <v>0.35333106565488298</v>
       </c>
       <c r="J25">
-        <v>0.71046808855485999</v>
+        <v>0.63565476697789802</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2727,31 +2732,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.25294223062514998</v>
+        <v>0.199606240582543</v>
       </c>
       <c r="C26">
-        <v>9.9664993798160503E-2</v>
+        <v>8.6424848063993406E-2</v>
       </c>
       <c r="D26">
-        <v>0.40621946745213899</v>
+        <v>0.31278763310109398</v>
       </c>
       <c r="E26">
-        <v>0.21398218932427801</v>
+        <v>0.22469596235480199</v>
       </c>
       <c r="F26">
-        <v>8.3525958275528306E-2</v>
+        <v>0.100204272217937</v>
       </c>
       <c r="G26">
-        <v>0.34443842037302802</v>
+        <v>0.349187652491667</v>
       </c>
       <c r="H26">
-        <v>0.34266951719811301</v>
+        <v>0.266253007407253</v>
       </c>
       <c r="I26">
-        <v>0.26319645951360998</v>
+        <v>0.220326562556318</v>
       </c>
       <c r="J26">
-        <v>0.42214257488261597</v>
+        <v>0.31217945225818799</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2759,31 +2764,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.91600310057318501</v>
+        <v>0.31768269293095303</v>
       </c>
       <c r="C27">
-        <v>0.61871323298844805</v>
+        <v>9.9022148068388202E-2</v>
       </c>
       <c r="D27">
-        <v>1.2132929681579201</v>
+        <v>0.536343237793518</v>
       </c>
       <c r="E27">
-        <v>-4.54103715405152E-2</v>
+        <v>2.2819864007854299E-2</v>
       </c>
       <c r="F27">
-        <v>-0.30031820130296599</v>
+        <v>-0.225461862781932</v>
       </c>
       <c r="G27">
-        <v>0.20949745822193599</v>
+        <v>0.27110159079764001</v>
       </c>
       <c r="H27">
-        <v>0.39280331030399601</v>
+        <v>0.27426574728741998</v>
       </c>
       <c r="I27">
-        <v>0.16289336388077399</v>
+        <v>0.123106048482754</v>
       </c>
       <c r="J27">
-        <v>0.622713256727219</v>
+        <v>0.42542544609208699</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2792,19 +2797,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.50342587222397928</v>
+        <v>0.4291595396323431</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.3443464016491769</v>
+        <v>0.3035245322107063</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.34981919125382532</v>
+        <v>0.32097907798583036</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2815,19 +2820,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>0.17815389875197463</v>
+        <v>0.17199160589547224</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>0.1902340067679501</v>
+        <v>0.14052353023553857</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>0.14527422666254189</v>
+        <v>0.14926447840399812</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2858,19 +2863,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>9.9659290961854607E-2</v>
+        <v>9.6212104337927179E-2</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>0.1064169033859913</v>
+        <v>7.8608862813760283E-2</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>8.1266402395025944E-2</v>
+        <v>8.3498549219196555E-2</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2895,7 +2900,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J27"/>
+      <selection activeCell="J27" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2955,31 +2960,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.13602023154690099</v>
+        <v>0.125756222686455</v>
       </c>
       <c r="C3">
-        <v>-0.169212124435169</v>
+        <v>-0.73568913901528699</v>
       </c>
       <c r="D3">
-        <v>0.44125258752897201</v>
+        <v>0.98720158438819705</v>
       </c>
       <c r="E3">
-        <v>6.2003033972648303E-3</v>
+        <v>1.44097171855043</v>
       </c>
       <c r="F3">
-        <v>-0.44214926365014401</v>
+        <v>-2.6967111214500901</v>
       </c>
       <c r="G3">
-        <v>0.45454987044467399</v>
+        <v>5.5786545585509399</v>
       </c>
       <c r="H3">
-        <v>2.15867030966806</v>
+        <v>2.1572060809997602</v>
       </c>
       <c r="I3">
-        <v>-2.4633398855249</v>
+        <v>-2.5986129383389698</v>
       </c>
       <c r="J3">
-        <v>6.7806805048610101</v>
+        <v>6.9130251003385004</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2987,31 +2992,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.15271706047495801</v>
+        <v>0.55565290069039697</v>
       </c>
       <c r="C4">
-        <v>-0.186100661024726</v>
+        <v>-0.84683174966028196</v>
       </c>
       <c r="D4">
-        <v>0.49153478197464201</v>
+        <v>1.9581375510410799</v>
       </c>
       <c r="E4">
-        <v>0.60262991585900905</v>
+        <v>0.63454916924546001</v>
       </c>
       <c r="F4">
-        <v>-6.4537443247203494E-2</v>
+        <v>4.0477032520015901E-2</v>
       </c>
       <c r="G4">
-        <v>1.26979727496522</v>
+        <v>1.2286213059708999</v>
       </c>
       <c r="H4">
-        <v>0.53037172328129301</v>
+        <v>0.57716058730379705</v>
       </c>
       <c r="I4">
-        <v>-0.11611125875592999</v>
+        <v>1.28109617052585E-2</v>
       </c>
       <c r="J4">
-        <v>1.1768547053185201</v>
+        <v>1.14151021290233</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3019,31 +3024,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.4594086141845098E-2</v>
+        <v>0.27207495900220002</v>
       </c>
       <c r="C5">
-        <v>-0.350854125046624</v>
+        <v>-1.09510117814721</v>
       </c>
       <c r="D5">
-        <v>0.46004229733031399</v>
+        <v>1.63925109615161</v>
       </c>
       <c r="E5">
-        <v>1.7015058494588899</v>
+        <v>1.7015345574142899</v>
       </c>
       <c r="F5">
-        <v>-1.2939750710253799</v>
+        <v>-1.7189094783497201</v>
       </c>
       <c r="G5">
-        <v>4.6969867699431704</v>
+        <v>5.1219785931783104</v>
       </c>
       <c r="H5">
-        <v>0.23910075553430299</v>
+        <v>0.30590892310029</v>
       </c>
       <c r="I5">
-        <v>-1.3403921299376001E-2</v>
+        <v>0.130663029149339</v>
       </c>
       <c r="J5">
-        <v>0.49160543236798299</v>
+        <v>0.48115481705124002</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3051,31 +3056,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.177111750745265</v>
+        <v>0.28816557199690801</v>
       </c>
       <c r="C6">
-        <v>-2.0870275153967301E-2</v>
+        <v>-0.62418654638447002</v>
       </c>
       <c r="D6">
-        <v>0.375093776644498</v>
+        <v>1.2005176903782899</v>
       </c>
       <c r="E6">
-        <v>1.2121249417887201</v>
+        <v>1.21317335592274</v>
       </c>
       <c r="F6">
-        <v>-0.67353481686274397</v>
+        <v>-0.70013524144401296</v>
       </c>
       <c r="G6">
-        <v>3.0977847004401902</v>
+        <v>3.1264819532894901</v>
       </c>
       <c r="H6">
-        <v>0.45581662657285199</v>
+        <v>0.49293633419025601</v>
       </c>
       <c r="I6">
-        <v>-0.14056752389900701</v>
+        <v>-0.22258148532028699</v>
       </c>
       <c r="J6">
-        <v>1.0522007770447099</v>
+        <v>1.2084541537008</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3083,31 +3088,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.18303982992210499</v>
+        <v>0.14563947461028801</v>
       </c>
       <c r="C7">
-        <v>-0.25395315304838301</v>
+        <v>-0.84909315723481804</v>
       </c>
       <c r="D7">
-        <v>0.62003281289259404</v>
+        <v>1.14037210645539</v>
       </c>
       <c r="E7">
-        <v>0.23059398024928199</v>
+        <v>0.28535308608195697</v>
       </c>
       <c r="F7">
-        <v>-6.5206204475877202E-2</v>
+        <v>-3.8883283107527797E-2</v>
       </c>
       <c r="G7">
-        <v>0.52639416497444103</v>
+        <v>0.60958945527144104</v>
       </c>
       <c r="H7">
-        <v>0.68915497298786399</v>
+        <v>0.71460473820872095</v>
       </c>
       <c r="I7">
-        <v>-0.20530881729234199</v>
+        <v>-0.18734085322373101</v>
       </c>
       <c r="J7">
-        <v>1.5836187632680701</v>
+        <v>1.6165503296411701</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3115,31 +3120,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.6403043772973998E-2</v>
+        <v>0.19608007368616601</v>
       </c>
       <c r="C8">
-        <v>-0.50202672650770896</v>
+        <v>-1.4244747853281901</v>
       </c>
       <c r="D8">
-        <v>0.55483281405365703</v>
+        <v>1.81663493270052</v>
       </c>
       <c r="E8">
-        <v>0.340932538498392</v>
+        <v>0.41563652811295998</v>
       </c>
       <c r="F8">
-        <v>-9.59774363252201E-2</v>
+        <v>-0.101457305746041</v>
       </c>
       <c r="G8">
-        <v>0.77784251332200505</v>
+        <v>0.93273036197196102</v>
       </c>
       <c r="H8">
-        <v>0.17546423770226999</v>
+        <v>0.297478069176491</v>
       </c>
       <c r="I8">
-        <v>-0.193416395420559</v>
+        <v>-0.17311187132179401</v>
       </c>
       <c r="J8">
-        <v>0.54434487082509897</v>
+        <v>0.76806800967477695</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3147,31 +3152,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.3468617339706199E-2</v>
+        <v>0.32412387714003799</v>
       </c>
       <c r="C9">
-        <v>-0.126890555310326</v>
+        <v>-0.60916411973354101</v>
       </c>
       <c r="D9">
-        <v>0.25382778998973798</v>
+        <v>1.25741187401362</v>
       </c>
       <c r="E9">
-        <v>0.15700896399137501</v>
+        <v>0.90306195856775295</v>
       </c>
       <c r="F9">
-        <v>-0.30568076282315398</v>
+        <v>-0.78841846973487595</v>
       </c>
       <c r="G9">
-        <v>0.61969869080590401</v>
+        <v>2.5945423868703799</v>
       </c>
       <c r="H9">
-        <v>0.31877158398851402</v>
+        <v>0.40347931167738299</v>
       </c>
       <c r="I9">
-        <v>-0.159020584539944</v>
+        <v>-0.16302234309921501</v>
       </c>
       <c r="J9">
-        <v>0.79656375251697198</v>
+        <v>0.96998096645398102</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3179,31 +3184,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.2873073289817495E-2</v>
+        <v>0.47561148827265298</v>
       </c>
       <c r="C10">
-        <v>-0.283662862363459</v>
+        <v>-0.62196892437134499</v>
       </c>
       <c r="D10">
-        <v>0.44940900894309399</v>
+        <v>1.57319190091665</v>
       </c>
       <c r="E10">
-        <v>0.30797471793884701</v>
+        <v>0.48665226662941502</v>
       </c>
       <c r="F10">
-        <v>-0.140623750975783</v>
+        <v>-0.34849427566355501</v>
       </c>
       <c r="G10">
-        <v>0.75657318685347597</v>
+        <v>1.32179880892239</v>
       </c>
       <c r="H10">
-        <v>0.30251979607201401</v>
+        <v>0.54641364719149899</v>
       </c>
       <c r="I10">
-        <v>0.118138586605749</v>
+        <v>0.155117944959381</v>
       </c>
       <c r="J10">
-        <v>0.48690100553827897</v>
+        <v>0.93770934942361805</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3211,31 +3216,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.130983567451435</v>
+        <v>0.17643995235044499</v>
       </c>
       <c r="C11">
-        <v>-0.30267059041261002</v>
+        <v>-1.00328149866889</v>
       </c>
       <c r="D11">
-        <v>0.56463772531547995</v>
+        <v>1.35616140336978</v>
       </c>
       <c r="E11">
-        <v>0.29324388894683701</v>
+        <v>0.28913488149064998</v>
       </c>
       <c r="F11">
-        <v>-0.10621525364751599</v>
+        <v>-0.182093709409993</v>
       </c>
       <c r="G11">
-        <v>0.69270303154118995</v>
+        <v>0.76036347239129298</v>
       </c>
       <c r="H11">
-        <v>0.34075325348298802</v>
+        <v>0.35316444684446102</v>
       </c>
       <c r="I11">
-        <v>1.2909957917543E-2</v>
+        <v>-3.8171373784831701E-2</v>
       </c>
       <c r="J11">
-        <v>0.66859654904843302</v>
+        <v>0.74450026747375397</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3243,31 +3248,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.11074752642560901</v>
+        <v>-8.5695928888227507E-3</v>
       </c>
       <c r="C12">
-        <v>-0.424064935913606</v>
+        <v>-0.819825628887904</v>
       </c>
       <c r="D12">
-        <v>0.20256988306238899</v>
+        <v>0.80268644311025805</v>
       </c>
       <c r="E12">
-        <v>0.42538034019577903</v>
+        <v>0.47849748329575098</v>
       </c>
       <c r="F12">
-        <v>-5.8398532533876397E-2</v>
+        <v>-5.6355666586588603E-2</v>
       </c>
       <c r="G12">
-        <v>0.909159212925435</v>
+        <v>1.0133506331780899</v>
       </c>
       <c r="H12">
-        <v>0.66285621724827803</v>
+        <v>0.66411152313326105</v>
       </c>
       <c r="I12">
-        <v>-0.259774891696605</v>
+        <v>-0.39497886624820699</v>
       </c>
       <c r="J12">
-        <v>1.5854873261931599</v>
+        <v>1.72320191251473</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3275,31 +3280,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.41071624801354401</v>
+        <v>0.66554368737358005</v>
       </c>
       <c r="C13">
-        <v>-8.7361727758288304E-3</v>
+        <v>-0.47138112810681099</v>
       </c>
       <c r="D13">
-        <v>0.83016866880291595</v>
+        <v>1.80246850285397</v>
       </c>
       <c r="E13">
-        <v>2.1085570833280798</v>
+        <v>3.1484156383658499</v>
       </c>
       <c r="F13">
-        <v>-2.7273479461296599</v>
+        <v>-10.295563769531499</v>
       </c>
       <c r="G13">
-        <v>6.9444621127858204</v>
+        <v>16.592395046263199</v>
       </c>
       <c r="H13">
-        <v>0.363175390086588</v>
+        <v>0.40446087030836803</v>
       </c>
       <c r="I13">
-        <v>-1.76700084580661E-2</v>
+        <v>-4.2384141437427199E-2</v>
       </c>
       <c r="J13">
-        <v>0.74402078863124199</v>
+        <v>0.85130588205416202</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3307,31 +3312,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.5685579663620601E-2</v>
+        <v>-0.78541048917252498</v>
       </c>
       <c r="C14">
-        <v>-0.398871660388469</v>
+        <v>-2.9592491473176099</v>
       </c>
       <c r="D14">
-        <v>0.367500501061228</v>
+        <v>1.3884281689725599</v>
       </c>
       <c r="E14">
-        <v>0.14059394828772401</v>
+        <v>0.20537310114326501</v>
       </c>
       <c r="F14">
-        <v>-0.21565868693846699</v>
+        <v>-0.289882352685779</v>
       </c>
       <c r="G14">
-        <v>0.49684658351391398</v>
+        <v>0.70062855497230803</v>
       </c>
       <c r="H14">
-        <v>1.0321459907508399</v>
+        <v>1.0348649958870899</v>
       </c>
       <c r="I14">
-        <v>0.16754833585954301</v>
+        <v>0.31613173701816999</v>
       </c>
       <c r="J14">
-        <v>1.89674364564214</v>
+        <v>1.7535982547560001</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3339,31 +3344,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.0746334019936503E-2</v>
+        <v>0.274602680551919</v>
       </c>
       <c r="C15">
-        <v>-0.262238326835116</v>
+        <v>-0.60851330150135097</v>
       </c>
       <c r="D15">
-        <v>0.38373099487498902</v>
+        <v>1.1577186626051901</v>
       </c>
       <c r="E15">
-        <v>0.26037521778797801</v>
+        <v>0.51827788056753599</v>
       </c>
       <c r="F15">
-        <v>-2.0655175449975399E-2</v>
+        <v>-0.206345999927632</v>
       </c>
       <c r="G15">
-        <v>0.54140561102593199</v>
+        <v>1.2429017610627</v>
       </c>
       <c r="H15">
-        <v>0.337029648237409</v>
+        <v>0.336118402859379</v>
       </c>
       <c r="I15">
-        <v>4.1713947111914597E-2</v>
+        <v>-1.0969885502778901E-2</v>
       </c>
       <c r="J15">
-        <v>0.63234534936290299</v>
+        <v>0.68320669122153699</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3371,31 +3376,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.2636304399454996E-2</v>
+        <v>0.25507717295611898</v>
       </c>
       <c r="C16">
-        <v>-0.27967502034796599</v>
+        <v>-0.73318984583262004</v>
       </c>
       <c r="D16">
-        <v>0.424947629146876</v>
+        <v>1.24334419174486</v>
       </c>
       <c r="E16">
-        <v>0.45066138023768498</v>
+        <v>0.98048017298120704</v>
       </c>
       <c r="F16">
-        <v>-6.4902996970712806E-2</v>
+        <v>-0.35692902381531499</v>
       </c>
       <c r="G16">
-        <v>0.96622575744608197</v>
+        <v>2.3178893697777299</v>
       </c>
       <c r="H16">
-        <v>0.27710805066099797</v>
+        <v>0.37692897585780999</v>
       </c>
       <c r="I16">
-        <v>5.7738605070645199E-4</v>
+        <v>-7.8617814313060003E-2</v>
       </c>
       <c r="J16">
-        <v>0.55363871527129005</v>
+        <v>0.83247576602868001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3403,31 +3408,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-2.3544460771281198E-2</v>
+        <v>-0.13746041263101499</v>
       </c>
       <c r="C17">
-        <v>-0.345691471215477</v>
+        <v>-1.11787220146861</v>
       </c>
       <c r="D17">
-        <v>0.298602549672915</v>
+        <v>0.84295137620657901</v>
       </c>
       <c r="E17">
-        <v>0.46973132121667799</v>
+        <v>0.53022553701721897</v>
       </c>
       <c r="F17">
-        <v>-0.113003377391067</v>
+        <v>-0.13988808001012401</v>
       </c>
       <c r="G17">
-        <v>1.05246601982442</v>
+        <v>1.20033915404456</v>
       </c>
       <c r="H17">
-        <v>0.31886712730785</v>
+        <v>0.37315154074564599</v>
       </c>
       <c r="I17">
-        <v>-3.69699560901249E-3</v>
+        <v>3.7023289092203801E-2</v>
       </c>
       <c r="J17">
-        <v>0.64143125022471303</v>
+        <v>0.709279792399089</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3435,31 +3440,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.5577410866986601E-3</v>
+        <v>8.8063064612631706E-2</v>
       </c>
       <c r="C18">
-        <v>-0.29631659157015899</v>
+        <v>-0.90126951094392804</v>
       </c>
       <c r="D18">
-        <v>0.30943207374355602</v>
+        <v>1.07739564016919</v>
       </c>
       <c r="E18">
-        <v>0.32759957350075303</v>
+        <v>0.37025753957833502</v>
       </c>
       <c r="F18">
-        <v>-8.6305913182922606E-2</v>
+        <v>-0.14858822438807301</v>
       </c>
       <c r="G18">
-        <v>0.74150506018442996</v>
+        <v>0.88910330354474298</v>
       </c>
       <c r="H18">
-        <v>0.55522337377608499</v>
+        <v>0.55574177906069999</v>
       </c>
       <c r="I18">
-        <v>0.13786869138652399</v>
+        <v>7.5989816754515396E-2</v>
       </c>
       <c r="J18">
-        <v>0.97257805616564696</v>
+        <v>1.0354937413668801</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3467,31 +3472,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.9670725350303197E-2</v>
+        <v>0.31261353490892602</v>
       </c>
       <c r="C19">
-        <v>-0.24544858245312401</v>
+        <v>-0.62184376385181095</v>
       </c>
       <c r="D19">
-        <v>0.36479003315372999</v>
+        <v>1.2470708336696601</v>
       </c>
       <c r="E19">
-        <v>0.36999572571992601</v>
+        <v>0.44877329661260601</v>
       </c>
       <c r="F19">
-        <v>-0.24876049265932501</v>
+        <v>-0.35431280835159301</v>
       </c>
       <c r="G19">
-        <v>0.98875194409917599</v>
+        <v>1.2518594015768101</v>
       </c>
       <c r="H19">
-        <v>0.100717099495471</v>
+        <v>0.117872584201708</v>
       </c>
       <c r="I19">
-        <v>-0.140677012932789</v>
+        <v>-0.20299602041459</v>
       </c>
       <c r="J19">
-        <v>0.34211121192373001</v>
+        <v>0.438741188818005</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3499,31 +3504,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.106589907648999</v>
+        <v>7.3233880714059202E-2</v>
       </c>
       <c r="C20">
-        <v>-0.27331227692547599</v>
+        <v>-0.833732020837883</v>
       </c>
       <c r="D20">
-        <v>0.486492092223475</v>
+        <v>0.98019978226600102</v>
       </c>
       <c r="E20">
-        <v>0.74224110986622505</v>
+        <v>0.77309045310612501</v>
       </c>
       <c r="F20">
-        <v>-0.35290492133880402</v>
+        <v>-1.9450350878100299E-2</v>
       </c>
       <c r="G20">
-        <v>1.8373871410712499</v>
+        <v>1.5656312570903499</v>
       </c>
       <c r="H20">
-        <v>0.38579615318360999</v>
+        <v>0.64547803495664802</v>
       </c>
       <c r="I20">
-        <v>-1.43563300519011E-2</v>
+        <v>-0.162241937221202</v>
       </c>
       <c r="J20">
-        <v>0.78594863641912105</v>
+        <v>1.4531980071345001</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3531,31 +3536,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.0577572651345397E-2</v>
+        <v>0.35161558849219998</v>
       </c>
       <c r="C21">
-        <v>-0.22198341196312901</v>
+        <v>-0.50365589480841799</v>
       </c>
       <c r="D21">
-        <v>0.34313855726581899</v>
+        <v>1.20688707179282</v>
       </c>
       <c r="E21">
-        <v>0.24091490859353101</v>
+        <v>0.28964063105083099</v>
       </c>
       <c r="F21">
-        <v>-1.80729640587683E-2</v>
+        <v>6.5366158543712603E-3</v>
       </c>
       <c r="G21">
-        <v>0.49990278124582899</v>
+        <v>0.57274464624729005</v>
       </c>
       <c r="H21">
-        <v>1.31301776985812</v>
+        <v>1.3172953366889999</v>
       </c>
       <c r="I21">
-        <v>-0.20359540635618301</v>
+        <v>-0.42233601058912301</v>
       </c>
       <c r="J21">
-        <v>2.8296309460724198</v>
+        <v>3.0569266839671299</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3563,31 +3568,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-1.6643326920814501E-2</v>
+        <v>-8.0530610046877907E-2</v>
       </c>
       <c r="C22">
-        <v>-0.28551125158863999</v>
+        <v>-0.70955400524529399</v>
       </c>
       <c r="D22">
-        <v>0.252224597747011</v>
+        <v>0.54849278515153799</v>
       </c>
       <c r="E22">
-        <v>0.245707072337014</v>
+        <v>0.342247261896025</v>
       </c>
       <c r="F22">
-        <v>-0.195531426706442</v>
+        <v>-0.29644699059157398</v>
       </c>
       <c r="G22">
-        <v>0.68694557138046997</v>
+        <v>0.98094151438362398</v>
       </c>
       <c r="H22">
-        <v>0.80204730986510397</v>
+        <v>0.81190021435414195</v>
       </c>
       <c r="I22">
-        <v>-0.32771067505107199</v>
+        <v>-0.43002464488665898</v>
       </c>
       <c r="J22">
-        <v>1.93180529478128</v>
+        <v>2.0538250735949402</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3595,31 +3600,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-3.4129505778885898E-2</v>
+        <v>0.13385122175216499</v>
       </c>
       <c r="C23">
-        <v>-0.30830957385237401</v>
+        <v>-0.58301598215641504</v>
       </c>
       <c r="D23">
-        <v>0.240050562294602</v>
+        <v>0.85071842566074496</v>
       </c>
       <c r="E23">
-        <v>0.64800263716790796</v>
+        <v>0.65703702468151004</v>
       </c>
       <c r="F23">
-        <v>-0.212830086728311</v>
+        <v>-0.333954196136652</v>
       </c>
       <c r="G23">
-        <v>1.5088353610641301</v>
+        <v>1.64802824549967</v>
       </c>
       <c r="H23">
-        <v>0.94941513291547097</v>
+        <v>0.96052301599615397</v>
       </c>
       <c r="I23">
-        <v>-0.79310584235121895</v>
+        <v>-0.53747119573515301</v>
       </c>
       <c r="J23">
-        <v>2.6919361081821598</v>
+        <v>2.4585172277274601</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3627,31 +3632,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-3.2984692733692901E-2</v>
+        <v>-0.23779111751125301</v>
       </c>
       <c r="C24">
-        <v>-0.34268721267782198</v>
+        <v>-1.31977305323696</v>
       </c>
       <c r="D24">
-        <v>0.27671782721043597</v>
+        <v>0.84419081821445396</v>
       </c>
       <c r="E24">
-        <v>0.292382455529617</v>
+        <v>0.41448642625627702</v>
       </c>
       <c r="F24">
-        <v>8.2597152392531098E-2</v>
+        <v>6.7667695031544406E-2</v>
       </c>
       <c r="G24">
-        <v>0.50216775866670205</v>
+        <v>0.76130515748101002</v>
       </c>
       <c r="H24">
-        <v>0.90026839358885802</v>
+        <v>0.90775981639621595</v>
       </c>
       <c r="I24">
-        <v>-0.18307137186942599</v>
+        <v>3.5962304431502397E-2</v>
       </c>
       <c r="J24">
-        <v>1.9836081590471399</v>
+        <v>1.7795573283609301</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3659,31 +3664,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.15057339182507701</v>
+        <v>0.51662155609996496</v>
       </c>
       <c r="C25">
-        <v>-7.2184099566467499E-2</v>
+        <v>-0.58574449116500804</v>
       </c>
       <c r="D25">
-        <v>0.373330883216621</v>
+        <v>1.61898760336494</v>
       </c>
       <c r="E25">
-        <v>0.21503483673621601</v>
+        <v>0.28128903777104403</v>
       </c>
       <c r="F25">
-        <v>-0.14031055098352199</v>
+        <v>-0.115727070255358</v>
       </c>
       <c r="G25">
-        <v>0.57038022445595504</v>
+        <v>0.67830514579744605</v>
       </c>
       <c r="H25">
-        <v>0.16824439286503201</v>
+        <v>0.24138905567148</v>
       </c>
       <c r="I25">
-        <v>-0.21457543950098801</v>
+        <v>-0.29197502659574598</v>
       </c>
       <c r="J25">
-        <v>0.55106422523105203</v>
+        <v>0.77475313793870704</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3691,31 +3696,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6.4129915848100599E-2</v>
+        <v>-0.25847433604262998</v>
       </c>
       <c r="C26">
-        <v>-0.26643175840236899</v>
+        <v>-1.2910463215202801</v>
       </c>
       <c r="D26">
-        <v>0.39469159009857002</v>
+        <v>0.77409764943501802</v>
       </c>
       <c r="E26">
-        <v>0.14296734696552199</v>
+        <v>0.17576323404390501</v>
       </c>
       <c r="F26">
-        <v>-0.13128943145464</v>
+        <v>-0.32597772921861501</v>
       </c>
       <c r="G26">
-        <v>0.41722412538568399</v>
+        <v>0.67750419730642597</v>
       </c>
       <c r="H26">
-        <v>0.265106404109823</v>
+        <v>0.40379931720009299</v>
       </c>
       <c r="I26">
-        <v>-0.14358072046296799</v>
+        <v>-0.133852174422391</v>
       </c>
       <c r="J26">
-        <v>0.673793528682614</v>
+        <v>0.94145080882257604</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3723,31 +3728,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.22182372783467899</v>
+        <v>0.419113283994001</v>
       </c>
       <c r="C27">
-        <v>-0.120782220770182</v>
+        <v>-0.43047688361230202</v>
       </c>
       <c r="D27">
-        <v>0.56442967643953901</v>
+        <v>1.2687034516003</v>
       </c>
       <c r="E27">
-        <v>0.35069390807009898</v>
+        <v>0.38988893053734702</v>
       </c>
       <c r="F27">
-        <v>-5.8687419514466301E-2</v>
+        <v>-0.10068513004766701</v>
       </c>
       <c r="G27">
-        <v>0.76007523565466295</v>
+        <v>0.88046299112236104</v>
       </c>
       <c r="H27">
-        <v>0.30119348344651597</v>
+        <v>0.45271249666107699</v>
       </c>
       <c r="I27">
-        <v>-6.2135159108648898E-3</v>
+        <v>-9.9724743720361206E-2</v>
       </c>
       <c r="J27">
-        <v>0.608600482803896</v>
+        <v>1.00514973704251</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3756,19 +3761,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>7.9499921482769617E-2</v>
+        <v>0.16566574534391973</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.49132215862677397</v>
+        <v>0.69495244683681945</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.5577134078674485</v>
+        <v>0.61809840394685711</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3779,19 +3784,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>0.10573066437257284</v>
+        <v>0.306974343843396</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>0.49220650872915728</v>
+        <v>0.64095238270220389</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>0.45227825180409198</v>
+        <v>0.42494746264494931</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3822,19 +3827,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>5.9145733650017254E-2</v>
+        <v>0.17172144794599573</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>0.27534032098309058</v>
+        <v>0.35854876288361287</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>0.25300445405920907</v>
+        <v>0.23771561060358465</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3858,7 +3863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
@@ -4799,6 +4804,971 @@
       <c r="H31" s="1">
         <f>H30*H29/5</f>
         <v>6.6968844841813119E-2</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="B3:J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2"/>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.19751218716331601</v>
+      </c>
+      <c r="C3">
+        <v>-0.408019908924385</v>
+      </c>
+      <c r="D3">
+        <v>0.80304428325101596</v>
+      </c>
+      <c r="E3">
+        <v>0.126068254819166</v>
+      </c>
+      <c r="F3">
+        <v>-0.38393412383195802</v>
+      </c>
+      <c r="G3">
+        <v>0.63607063347028903</v>
+      </c>
+      <c r="H3">
+        <v>0.92910415225624898</v>
+      </c>
+      <c r="I3">
+        <v>-0.99349954238621396</v>
+      </c>
+      <c r="J3">
+        <v>2.85170784689871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.69012999997413904</v>
+      </c>
+      <c r="C4">
+        <v>-1.0877990762438801</v>
+      </c>
+      <c r="D4">
+        <v>2.4680590761921501</v>
+      </c>
+      <c r="E4">
+        <v>0.225483095588044</v>
+      </c>
+      <c r="F4">
+        <v>-9.2835206183554106E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.54380139735964195</v>
+      </c>
+      <c r="H4">
+        <v>0.63916549702534597</v>
+      </c>
+      <c r="I4">
+        <v>-5.77294971839383E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.3360604912346301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.123405104244868</v>
+      </c>
+      <c r="C5">
+        <v>-0.35646055603829402</v>
+      </c>
+      <c r="D5">
+        <v>0.60327076452802897</v>
+      </c>
+      <c r="E5">
+        <v>0.62690326677692998</v>
+      </c>
+      <c r="F5">
+        <v>-9.1059941754544696E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.3448664753084001</v>
+      </c>
+      <c r="H5">
+        <v>0.27915192307855402</v>
+      </c>
+      <c r="I5">
+        <v>-0.12957087945484</v>
+      </c>
+      <c r="J5">
+        <v>0.68787472561194796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4.2368970627205002E-2</v>
+      </c>
+      <c r="C6">
+        <v>-0.361200256584639</v>
+      </c>
+      <c r="D6">
+        <v>0.44593819783904898</v>
+      </c>
+      <c r="E6">
+        <v>0.269253034984065</v>
+      </c>
+      <c r="F6">
+        <v>-0.17793333663663199</v>
+      </c>
+      <c r="G6">
+        <v>0.71643940660476102</v>
+      </c>
+      <c r="H6">
+        <v>0.299258424557103</v>
+      </c>
+      <c r="I6">
+        <v>-0.154211270015775</v>
+      </c>
+      <c r="J6">
+        <v>0.75272811912998205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-2.6858334560083599E-2</v>
+      </c>
+      <c r="C7">
+        <v>-0.60601348136611899</v>
+      </c>
+      <c r="D7">
+        <v>0.55229681224595195</v>
+      </c>
+      <c r="E7">
+        <v>0.22752359323301299</v>
+      </c>
+      <c r="F7">
+        <v>-6.2321161612643602E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.51736834807866905</v>
+      </c>
+      <c r="H7">
+        <v>0.508145647965631</v>
+      </c>
+      <c r="I7">
+        <v>-0.16223127309354901</v>
+      </c>
+      <c r="J7">
+        <v>1.17852256902481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5.84537901560509E-2</v>
+      </c>
+      <c r="C8">
+        <v>-0.69884002636947795</v>
+      </c>
+      <c r="D8">
+        <v>0.81574760668157997</v>
+      </c>
+      <c r="E8">
+        <v>0.142579085791466</v>
+      </c>
+      <c r="F8">
+        <v>-0.309901972737057</v>
+      </c>
+      <c r="G8">
+        <v>0.59506014431998899</v>
+      </c>
+      <c r="H8">
+        <v>0.314018896419194</v>
+      </c>
+      <c r="I8">
+        <v>-0.28867140224704402</v>
+      </c>
+      <c r="J8">
+        <v>0.91670919508543203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.23717492143094901</v>
+      </c>
+      <c r="C9">
+        <v>-0.17319888785485099</v>
+      </c>
+      <c r="D9">
+        <v>0.64754873071674801</v>
+      </c>
+      <c r="E9">
+        <v>0.32581507806284499</v>
+      </c>
+      <c r="F9">
+        <v>-0.256398615046662</v>
+      </c>
+      <c r="G9">
+        <v>0.90802877117235203</v>
+      </c>
+      <c r="H9">
+        <v>0.328708548138887</v>
+      </c>
+      <c r="I9">
+        <v>-0.18272894516866101</v>
+      </c>
+      <c r="J9">
+        <v>0.84014604144643601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.19021790226945101</v>
+      </c>
+      <c r="C10">
+        <v>-0.40139019594498399</v>
+      </c>
+      <c r="D10">
+        <v>0.78182600048388595</v>
+      </c>
+      <c r="E10">
+        <v>-1.17491764962085E-2</v>
+      </c>
+      <c r="F10">
+        <v>-0.36024362603311699</v>
+      </c>
+      <c r="G10">
+        <v>0.33674527304070001</v>
+      </c>
+      <c r="H10">
+        <v>0.390374650070478</v>
+      </c>
+      <c r="I10">
+        <v>-9.9362841732601404E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.88011214187355802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.12559061877458799</v>
+      </c>
+      <c r="C11">
+        <v>-0.44348056160676702</v>
+      </c>
+      <c r="D11">
+        <v>0.69466179915594295</v>
+      </c>
+      <c r="E11">
+        <v>0.25657400524510998</v>
+      </c>
+      <c r="F11">
+        <v>-0.12778806462160799</v>
+      </c>
+      <c r="G11">
+        <v>0.64093607511182704</v>
+      </c>
+      <c r="H11">
+        <v>0.24799097062915401</v>
+      </c>
+      <c r="I11">
+        <v>-0.1198960456645</v>
+      </c>
+      <c r="J11">
+        <v>0.61587798692280904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.53075025979536194</v>
+      </c>
+      <c r="C12">
+        <v>-7.4392536454568003E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.13589305604529</v>
+      </c>
+      <c r="E12">
+        <v>0.13650424876240999</v>
+      </c>
+      <c r="F12">
+        <v>-0.254311576454198</v>
+      </c>
+      <c r="G12">
+        <v>0.52732007397901803</v>
+      </c>
+      <c r="H12">
+        <v>0.52341231033916502</v>
+      </c>
+      <c r="I12">
+        <v>-0.31195461574951799</v>
+      </c>
+      <c r="J12">
+        <v>1.3587792364278499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.54905204681962405</v>
+      </c>
+      <c r="C13">
+        <v>0.21960489365595501</v>
+      </c>
+      <c r="D13">
+        <v>0.87849919998329296</v>
+      </c>
+      <c r="E13">
+        <v>0.45070768317639398</v>
+      </c>
+      <c r="F13">
+        <v>-0.20099093260355699</v>
+      </c>
+      <c r="G13">
+        <v>1.1024062989563499</v>
+      </c>
+      <c r="H13">
+        <v>1.04813138757756</v>
+      </c>
+      <c r="I13">
+        <v>-0.748180588191657</v>
+      </c>
+      <c r="J13">
+        <v>2.8444433633467798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2.1865710558557801E-2</v>
+      </c>
+      <c r="C14">
+        <v>-0.69439099374719404</v>
+      </c>
+      <c r="D14">
+        <v>0.73812241486430996</v>
+      </c>
+      <c r="E14">
+        <v>0.34292220995644401</v>
+      </c>
+      <c r="F14">
+        <v>-0.207006735172717</v>
+      </c>
+      <c r="G14">
+        <v>0.89285115508560597</v>
+      </c>
+      <c r="H14">
+        <v>0.58692843090166502</v>
+      </c>
+      <c r="I14">
+        <v>-0.12541482749442601</v>
+      </c>
+      <c r="J14">
+        <v>1.29927168929776</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.22256032539984399</v>
+      </c>
+      <c r="C15">
+        <v>-0.11715151651087501</v>
+      </c>
+      <c r="D15">
+        <v>0.56227216731056295</v>
+      </c>
+      <c r="E15">
+        <v>0.14116358110968899</v>
+      </c>
+      <c r="F15">
+        <v>-0.363504903937859</v>
+      </c>
+      <c r="G15">
+        <v>0.64583206615723698</v>
+      </c>
+      <c r="H15">
+        <v>0.48502328195453798</v>
+      </c>
+      <c r="I15">
+        <v>-0.34105291047223202</v>
+      </c>
+      <c r="J15">
+        <v>1.31109947438131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.22754535439638099</v>
+      </c>
+      <c r="C16">
+        <v>-0.31740381802899598</v>
+      </c>
+      <c r="D16">
+        <v>0.77249452682175801</v>
+      </c>
+      <c r="E16">
+        <v>0.47718936664959299</v>
+      </c>
+      <c r="F16">
+        <v>-0.28026367543557401</v>
+      </c>
+      <c r="G16">
+        <v>1.2346424087347601</v>
+      </c>
+      <c r="H16">
+        <v>0.296475905039704</v>
+      </c>
+      <c r="I16">
+        <v>-9.5937226298594899E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.68888903637800203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>5.2542434204689202E-2</v>
+      </c>
+      <c r="C17">
+        <v>-0.28882850231194501</v>
+      </c>
+      <c r="D17">
+        <v>0.39391337072132299</v>
+      </c>
+      <c r="E17">
+        <v>2.1362206898329998</v>
+      </c>
+      <c r="F17">
+        <v>-5.2045637760212102</v>
+      </c>
+      <c r="G17">
+        <v>9.4770051556872108</v>
+      </c>
+      <c r="H17">
+        <v>0.46386979188847799</v>
+      </c>
+      <c r="I17">
+        <v>0.14021312951787401</v>
+      </c>
+      <c r="J17">
+        <v>0.78752645425908296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-1.9864961757901499E-2</v>
+      </c>
+      <c r="C18">
+        <v>-0.102755214821336</v>
+      </c>
+      <c r="D18">
+        <v>6.3025291305532596E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.162935569930862</v>
+      </c>
+      <c r="F18">
+        <v>-0.35385389568728698</v>
+      </c>
+      <c r="G18">
+        <v>0.67972503554901198</v>
+      </c>
+      <c r="H18">
+        <v>0.54656845467333703</v>
+      </c>
+      <c r="I18">
+        <v>-4.1491450053133698E-2</v>
+      </c>
+      <c r="J18">
+        <v>1.1346283593998101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>7.8513317023542695E-2</v>
+      </c>
+      <c r="C19">
+        <v>-0.27725728245508202</v>
+      </c>
+      <c r="D19">
+        <v>0.43428391650216802</v>
+      </c>
+      <c r="E19">
+        <v>0.11117033785048699</v>
+      </c>
+      <c r="F19">
+        <v>-0.135092618187998</v>
+      </c>
+      <c r="G19">
+        <v>0.35743329388897099</v>
+      </c>
+      <c r="H19">
+        <v>0.17222586871225701</v>
+      </c>
+      <c r="I19">
+        <v>-8.9772202021500103E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.43422393944601401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.16692607672292001</v>
+      </c>
+      <c r="C20">
+        <v>-0.51903365610129903</v>
+      </c>
+      <c r="D20">
+        <v>0.852885809547139</v>
+      </c>
+      <c r="E20">
+        <v>0.456693794864513</v>
+      </c>
+      <c r="F20">
+        <v>-8.4794009925450595E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.99818159965447695</v>
+      </c>
+      <c r="H20">
+        <v>0.711424776223053</v>
+      </c>
+      <c r="I20">
+        <v>-0.201200612784318</v>
+      </c>
+      <c r="J20">
+        <v>1.62405016523042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.15215112060506999</v>
+      </c>
+      <c r="C21">
+        <v>-0.35797001630094699</v>
+      </c>
+      <c r="D21">
+        <v>0.66227225751108798</v>
+      </c>
+      <c r="E21">
+        <v>0.258678972458456</v>
+      </c>
+      <c r="F21">
+        <v>7.7695077243974703E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.439662867672936</v>
+      </c>
+      <c r="H21">
+        <v>1.31404992463242</v>
+      </c>
+      <c r="I21">
+        <v>-1.3603551662038</v>
+      </c>
+      <c r="J21">
+        <v>3.98845501546865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>-1.36998666966252E-2</v>
+      </c>
+      <c r="C22">
+        <v>-0.76328118955546798</v>
+      </c>
+      <c r="D22">
+        <v>0.73588145616221801</v>
+      </c>
+      <c r="E22">
+        <v>0.132429081524404</v>
+      </c>
+      <c r="F22">
+        <v>-0.25322997752080101</v>
+      </c>
+      <c r="G22">
+        <v>0.51808814056960995</v>
+      </c>
+      <c r="H22">
+        <v>0.45491728633518702</v>
+      </c>
+      <c r="I22">
+        <v>-0.177302981079282</v>
+      </c>
+      <c r="J22">
+        <v>1.0871375537496599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.113963976580491</v>
+      </c>
+      <c r="C23">
+        <v>-0.42188617208282903</v>
+      </c>
+      <c r="D23">
+        <v>0.64981412524381199</v>
+      </c>
+      <c r="E23">
+        <v>0.26756154995188502</v>
+      </c>
+      <c r="F23">
+        <v>-0.114602581098506</v>
+      </c>
+      <c r="G23">
+        <v>0.64972568100227601</v>
+      </c>
+      <c r="H23">
+        <v>0.67628917276193401</v>
+      </c>
+      <c r="I23">
+        <v>-0.19665840089584</v>
+      </c>
+      <c r="J23">
+        <v>1.5492367464197101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>-0.135782826561963</v>
+      </c>
+      <c r="C24">
+        <v>-0.77889246883588903</v>
+      </c>
+      <c r="D24">
+        <v>0.50732681571196203</v>
+      </c>
+      <c r="E24">
+        <v>0.254856954012468</v>
+      </c>
+      <c r="F24">
+        <v>-0.16655193856685299</v>
+      </c>
+      <c r="G24">
+        <v>0.67626584659178901</v>
+      </c>
+      <c r="H24">
+        <v>0.83523643977015105</v>
+      </c>
+      <c r="I24">
+        <v>-6.9936700059292894E-2</v>
+      </c>
+      <c r="J24">
+        <v>1.7404095795996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.19121135132233399</v>
+      </c>
+      <c r="C25">
+        <v>-0.50057458627975204</v>
+      </c>
+      <c r="D25">
+        <v>0.88299728892442098</v>
+      </c>
+      <c r="E25">
+        <v>0.115225148505211</v>
+      </c>
+      <c r="F25">
+        <v>-0.282606627876479</v>
+      </c>
+      <c r="G25">
+        <v>0.51305692488690202</v>
+      </c>
+      <c r="H25">
+        <v>0.193107067809283</v>
+      </c>
+      <c r="I25">
+        <v>-0.352320424216362</v>
+      </c>
+      <c r="J25">
+        <v>0.738534559834927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>-0.18430930389553499</v>
+      </c>
+      <c r="C26">
+        <v>-1.1372063760992599</v>
+      </c>
+      <c r="D26">
+        <v>0.76858776830819397</v>
+      </c>
+      <c r="E26">
+        <v>-2.00689046125813E-2</v>
+      </c>
+      <c r="F26">
+        <v>-0.32954512660639501</v>
+      </c>
+      <c r="G26">
+        <v>0.28940731738123199</v>
+      </c>
+      <c r="H26">
+        <v>0.33105650543106302</v>
+      </c>
+      <c r="I26">
+        <v>-0.14697117312499899</v>
+      </c>
+      <c r="J26">
+        <v>0.80908418398712501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.43051245266558802</v>
+      </c>
+      <c r="C27">
+        <v>-0.80339883529844403</v>
+      </c>
+      <c r="D27">
+        <v>1.6644237406296201</v>
+      </c>
+      <c r="E27">
+        <v>0.17907465085979599</v>
+      </c>
+      <c r="F27">
+        <v>-0.178392950124487</v>
+      </c>
+      <c r="G27">
+        <v>0.536542251844079</v>
+      </c>
+      <c r="H27">
+        <v>0.32921472371952798</v>
+      </c>
+      <c r="I27">
+        <v>-0.142349963896022</v>
+      </c>
+      <c r="J27">
+        <v>0.80077941133507902</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <f>AVERAGE(B3:B27)</f>
+        <v>0.16087730509051451</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <f>AVERAGE(E3:E27)</f>
+        <v>0.3116686069134984</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1">
+        <f>AVERAGE(H3:H27)</f>
+        <v>0.51615400151639657</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <f>STDEV(B3:B27)</f>
+        <v>0.20720198595709688</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>STDEV(E3:E27)</f>
+        <v>0.40889517283839799</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1">
+        <f>STDEV(H3:H27)</f>
+        <v>0.28073120868464185</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1">
+        <f>B30*B29/5</f>
+        <v>0.11590879094440001</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <f>E30*E29/5</f>
+        <v>0.22873595968579985</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1">
+        <f>H30*H29/5</f>
+        <v>0.15704103813818865</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>

--- a/data/summary/28_28_40.xlsx
+++ b/data/summary/28_28_40.xlsx
@@ -4829,7 +4829,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="B3:J27"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5016,9 +5016,6 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>-2.6858334560083599E-2</v>
-      </c>
       <c r="C7">
         <v>-0.60601348136611899</v>
       </c>
@@ -5121,9 +5118,6 @@
       <c r="D10">
         <v>0.78182600048388595</v>
       </c>
-      <c r="E10">
-        <v>-1.17491764962085E-2</v>
-      </c>
       <c r="F10">
         <v>-0.36024362603311699</v>
       </c>
@@ -5368,9 +5362,6 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>-1.9864961757901499E-2</v>
-      </c>
       <c r="C18">
         <v>-0.102755214821336</v>
       </c>
@@ -5496,9 +5487,6 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>-1.36998666966252E-2</v>
-      </c>
       <c r="C22">
         <v>-0.76328118955546798</v>
       </c>
@@ -5560,9 +5548,6 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>-0.135782826561963</v>
-      </c>
       <c r="C24">
         <v>-0.77889246883588903</v>
       </c>
@@ -5624,17 +5609,11 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>-0.18430930389553499</v>
-      </c>
       <c r="C26">
         <v>-1.1372063760992599</v>
       </c>
       <c r="D26">
         <v>0.76858776830819397</v>
-      </c>
-      <c r="E26">
-        <v>-2.00689046125813E-2</v>
       </c>
       <c r="F26">
         <v>-0.32954512660639501</v>
@@ -5690,13 +5669,13 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.16087730509051451</v>
+        <v>0.22012239603674857</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.3116686069134984</v>
+        <v>0.34015361973679353</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -5713,13 +5692,13 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>0.20720198595709688</v>
+        <v>0.18561897029582081</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>0.40889517283839799</v>
+        <v>0.41447531732279974</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -5735,12 +5714,12 @@
         <v>10</v>
       </c>
       <c r="B30" s="1">
-        <v>2.7970000000000002</v>
+        <v>2.8610000000000002</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
-        <v>2.7970000000000002</v>
+        <v>2.819</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -5756,13 +5735,13 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>0.11590879094440001</v>
+        <v>0.10621117480326867</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>0.22873595968579985</v>
+        <v>0.23368118390659448</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>

--- a/data/summary/28_28_40.xlsx
+++ b/data/summary/28_28_40.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="13">
   <si>
     <t>Sample Number</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>plus / minus</t>
+  </si>
+  <si>
+    <t>\0</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -539,13 +542,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.80610099999999996</v>
+        <v>0.80589500000000003</v>
       </c>
       <c r="C3">
-        <v>0.82944099999999998</v>
+        <v>0.82946699999999995</v>
       </c>
       <c r="D3">
-        <v>0.838669</v>
+        <v>0.83867899999999995</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -553,13 +556,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.80611600000000005</v>
+        <v>0.80607200000000001</v>
       </c>
       <c r="C4">
-        <v>0.82932799999999995</v>
+        <v>0.82943999999999996</v>
       </c>
       <c r="D4">
-        <v>0.83872500000000005</v>
+        <v>0.83871499999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -567,13 +570,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.80600799999999995</v>
+        <v>0.805979</v>
       </c>
       <c r="C5">
-        <v>0.82952800000000004</v>
+        <v>0.82938599999999996</v>
       </c>
       <c r="D5">
-        <v>0.83869400000000005</v>
+        <v>0.83885299999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -581,13 +584,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.80600099999999997</v>
+        <v>0.80599500000000002</v>
       </c>
       <c r="C6">
-        <v>0.82941900000000002</v>
+        <v>0.82932799999999995</v>
       </c>
       <c r="D6">
-        <v>0.83867499999999995</v>
+        <v>0.83857700000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -595,13 +598,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.80593700000000001</v>
+        <v>0.80591199999999996</v>
       </c>
       <c r="C7">
-        <v>0.829426</v>
+        <v>0.829677</v>
       </c>
       <c r="D7">
-        <v>0.83869000000000005</v>
+        <v>0.83872400000000003</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -609,13 +612,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.80598199999999998</v>
+        <v>0.80604500000000001</v>
       </c>
       <c r="C8">
-        <v>0.829484</v>
+        <v>0.82945100000000005</v>
       </c>
       <c r="D8">
-        <v>0.83871700000000005</v>
+        <v>0.83856600000000003</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -623,13 +626,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.80595799999999995</v>
+        <v>0.80592699999999995</v>
       </c>
       <c r="C9">
-        <v>0.82937499999999997</v>
+        <v>0.82943500000000003</v>
       </c>
       <c r="D9">
-        <v>0.83867700000000001</v>
+        <v>0.83871600000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -637,13 +640,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.806002</v>
+        <v>0.80592600000000003</v>
       </c>
       <c r="C10">
-        <v>0.82950199999999996</v>
+        <v>0.829426</v>
       </c>
       <c r="D10">
-        <v>0.83878799999999998</v>
+        <v>0.83866300000000005</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -651,13 +654,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.80602499999999999</v>
+        <v>0.80585700000000005</v>
       </c>
       <c r="C11">
-        <v>0.82951900000000001</v>
+        <v>0.82945800000000003</v>
       </c>
       <c r="D11">
-        <v>0.83889400000000003</v>
+        <v>0.83866799999999997</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -665,13 +668,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.80604699999999996</v>
+        <v>0.80593700000000001</v>
       </c>
       <c r="C12">
-        <v>0.82953100000000002</v>
+        <v>0.82954099999999997</v>
       </c>
       <c r="D12">
-        <v>0.83867100000000006</v>
+        <v>0.83872599999999997</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -679,13 +682,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.80604699999999996</v>
+        <v>0.80607600000000001</v>
       </c>
       <c r="C13">
-        <v>0.82947899999999997</v>
+        <v>0.82948299999999997</v>
       </c>
       <c r="D13">
-        <v>0.83860800000000002</v>
+        <v>0.83890100000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -693,13 +696,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.80585300000000004</v>
+        <v>0.80604699999999996</v>
       </c>
       <c r="C14">
-        <v>0.82936200000000004</v>
+        <v>0.82955599999999996</v>
       </c>
       <c r="D14">
-        <v>0.83870500000000003</v>
+        <v>0.83886499999999997</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -707,13 +710,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.80585899999999999</v>
+        <v>0.806172</v>
       </c>
       <c r="C15">
-        <v>0.82949899999999999</v>
+        <v>0.82962000000000002</v>
       </c>
       <c r="D15">
-        <v>0.83867800000000003</v>
+        <v>0.83877400000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -721,13 +724,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.805871</v>
+        <v>0.80597099999999999</v>
       </c>
       <c r="C16">
-        <v>0.82944600000000002</v>
+        <v>0.82940899999999995</v>
       </c>
       <c r="D16">
-        <v>0.83855800000000003</v>
+        <v>0.83868500000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -735,13 +738,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.80578099999999997</v>
+        <v>0.80591999999999997</v>
       </c>
       <c r="C17">
-        <v>0.829461</v>
+        <v>0.82947000000000004</v>
       </c>
       <c r="D17">
-        <v>0.83869000000000005</v>
+        <v>0.83857199999999998</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -749,13 +752,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.80601299999999998</v>
+        <v>0.80599299999999996</v>
       </c>
       <c r="C18">
-        <v>0.82967999999999997</v>
+        <v>0.82960400000000001</v>
       </c>
       <c r="D18">
-        <v>0.83875599999999995</v>
+        <v>0.83855500000000005</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -763,13 +766,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.80615700000000001</v>
+        <v>0.80595000000000006</v>
       </c>
       <c r="C19">
-        <v>0.82943999999999996</v>
+        <v>0.82930999999999999</v>
       </c>
       <c r="D19">
-        <v>0.83871899999999999</v>
+        <v>0.83863600000000005</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -777,13 +780,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.80589</v>
+        <v>0.80603199999999997</v>
       </c>
       <c r="C20">
-        <v>0.82936799999999999</v>
+        <v>0.82938699999999999</v>
       </c>
       <c r="D20">
-        <v>0.83874800000000005</v>
+        <v>0.83866399999999997</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -791,13 +794,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.80582100000000001</v>
+        <v>0.80597300000000005</v>
       </c>
       <c r="C21">
-        <v>0.82942400000000005</v>
+        <v>0.82950599999999997</v>
       </c>
       <c r="D21">
-        <v>0.83871899999999999</v>
+        <v>0.83863100000000002</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -805,13 +808,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.80581999999999998</v>
+        <v>0.80608500000000005</v>
       </c>
       <c r="C22">
-        <v>0.82952300000000001</v>
+        <v>0.82942099999999996</v>
       </c>
       <c r="D22">
-        <v>0.83891700000000002</v>
+        <v>0.83868699999999996</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -819,13 +822,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.80621500000000001</v>
+        <v>0.80603400000000003</v>
       </c>
       <c r="C23">
-        <v>0.82932700000000004</v>
+        <v>0.82928900000000005</v>
       </c>
       <c r="D23">
-        <v>0.83873799999999998</v>
+        <v>0.83877400000000002</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -833,13 +836,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.80589900000000003</v>
+        <v>0.80589699999999997</v>
       </c>
       <c r="C24">
-        <v>0.829349</v>
+        <v>0.829538</v>
       </c>
       <c r="D24">
-        <v>0.83884000000000003</v>
+        <v>0.83870199999999995</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -847,13 +850,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.80606999999999995</v>
+        <v>0.80588700000000002</v>
       </c>
       <c r="C25">
-        <v>0.82929699999999995</v>
+        <v>0.82945400000000002</v>
       </c>
       <c r="D25">
-        <v>0.83885299999999996</v>
+        <v>0.83890100000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -861,13 +864,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.806091</v>
+        <v>0.80605000000000004</v>
       </c>
       <c r="C26">
-        <v>0.829152</v>
+        <v>0.82954000000000006</v>
       </c>
       <c r="D26">
-        <v>0.83872100000000005</v>
+        <v>0.83866600000000002</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -875,13 +878,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.80576000000000003</v>
+        <v>0.805952</v>
       </c>
       <c r="C27">
-        <v>0.82927799999999996</v>
+        <v>0.82963600000000004</v>
       </c>
       <c r="D27">
-        <v>0.83879000000000004</v>
+        <v>0.83884700000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -890,15 +893,15 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.80597295999999996</v>
+        <v>0.80598336000000004</v>
       </c>
       <c r="C28" s="1">
         <f>AVERAGE(C3:C27)</f>
-        <v>0.82942552000000003</v>
+        <v>0.82947327999999998</v>
       </c>
       <c r="D28" s="1">
         <f>AVERAGE(D3:D27)</f>
-        <v>0.83872960000000008</v>
+        <v>0.83870988000000002</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -907,15 +910,15 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>1.2096916962597935E-4</v>
+        <v>7.6490674812905066E-5</v>
       </c>
       <c r="C29" s="1">
         <f>STDEV(C3:C27)</f>
-        <v>1.0653447016498406E-4</v>
+        <v>9.9465454639627822E-5</v>
       </c>
       <c r="D29" s="1">
         <f>STDEV(D3:D27)</f>
-        <v>8.2402467600587809E-5</v>
+        <v>1.0171951631815027E-4</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -938,15 +941,15 @@
       </c>
       <c r="B31" s="1">
         <f xml:space="preserve"> B30*B29/5</f>
-        <v>6.767015348877286E-5</v>
+        <v>4.2788883490339099E-5</v>
       </c>
       <c r="C31" s="1">
         <f xml:space="preserve"> C30*C29/5</f>
-        <v>5.9595382610292083E-5</v>
+        <v>5.5640975325407801E-5</v>
       </c>
       <c r="D31" s="1">
         <f xml:space="preserve"> D30*D29/5</f>
-        <v>4.6095940375768823E-5</v>
+        <v>5.6901897428373262E-5</v>
       </c>
     </row>
   </sheetData>
@@ -1030,32 +1033,32 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.1379692371708601</v>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>-0.27836518596374799</v>
+        <v>1.02019429535504</v>
       </c>
       <c r="D3">
-        <v>2.5543036603054601</v>
+        <v>2.6212243442421999</v>
       </c>
       <c r="E3">
-        <v>0.93167780354113705</v>
+        <v>1.8256774246046501</v>
       </c>
       <c r="F3">
-        <v>-0.29914161930126199</v>
+        <v>0.89554352530528103</v>
       </c>
       <c r="G3">
-        <v>2.16249722638354</v>
+        <v>2.7558113239040098</v>
       </c>
       <c r="H3">
-        <v>0.81409350163951499</v>
+        <v>1.8402155807546901</v>
       </c>
       <c r="I3">
-        <v>-3.7248512780365899</v>
+        <v>0.623859440864998</v>
       </c>
       <c r="J3">
-        <v>5.3530382813156203</v>
+        <v>3.0565717206443801</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1063,31 +1066,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.56899725536007395</v>
+        <v>1.44105116165963</v>
       </c>
       <c r="C4">
-        <v>-3.5079064837455198</v>
+        <v>0.73969715421492599</v>
       </c>
       <c r="D4">
-        <v>4.6459009944656602</v>
+        <v>2.1424051691043302</v>
       </c>
       <c r="E4">
-        <v>1.86448439302067</v>
+        <v>8.5858405600714001</v>
       </c>
       <c r="F4">
-        <v>-9.0854161446674802</v>
+        <v>-804.65313488494905</v>
       </c>
       <c r="G4">
-        <v>12.814384930708799</v>
+        <v>821.82481600509095</v>
       </c>
       <c r="H4">
-        <v>7.4095250662424696</v>
+        <v>2.7981117008688199</v>
       </c>
       <c r="I4">
-        <v>-6150.4138496020096</v>
+        <v>-1.7355349209289099</v>
       </c>
       <c r="J4">
-        <v>6165.2328997345003</v>
+        <v>7.3317583226665501</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1095,31 +1098,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.99942617809414103</v>
+        <v>1.5857141628658999</v>
       </c>
       <c r="C5">
-        <v>-0.42521461424857099</v>
+        <v>0.33733814767237302</v>
       </c>
       <c r="D5">
-        <v>2.4240669704368498</v>
+        <v>2.8340901780594301</v>
       </c>
       <c r="E5">
-        <v>8.4944935085996995</v>
+        <v>2.6725635482346499</v>
       </c>
       <c r="F5">
-        <v>-7559.2122838253299</v>
+        <v>0.162305311088417</v>
       </c>
       <c r="G5">
-        <v>7576.20127084253</v>
+        <v>5.1828217853808702</v>
       </c>
       <c r="H5">
-        <v>0.64955597343411298</v>
+        <v>1.5652977974776201</v>
       </c>
       <c r="I5">
-        <v>-1.8151323850724901</v>
+        <v>0.959992069138906</v>
       </c>
       <c r="J5">
-        <v>3.11424433194072</v>
+        <v>2.1706035258163401</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1127,31 +1130,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.80818491250189295</v>
+        <v>1.6056368870989299</v>
       </c>
       <c r="C6">
-        <v>-0.91628868361226701</v>
+        <v>0.383692301449088</v>
       </c>
       <c r="D6">
-        <v>2.5326585086160498</v>
+        <v>2.82758147274878</v>
       </c>
       <c r="E6">
-        <v>7.8940682663737203</v>
+        <v>1.9965440800088801</v>
       </c>
       <c r="F6">
-        <v>-8457.0808545943601</v>
+        <v>1.2356499495143201</v>
       </c>
       <c r="G6">
-        <v>8472.8689911270994</v>
+        <v>2.7574382105034401</v>
       </c>
       <c r="H6">
-        <v>0.89638057950391803</v>
+        <v>1.8602831655788299</v>
       </c>
       <c r="I6">
-        <v>-2.51265701639274</v>
+        <v>0.59088849714833502</v>
       </c>
       <c r="J6">
-        <v>4.3054181754005798</v>
+        <v>3.1296778340093199</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1159,31 +1162,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.64779625092505699</v>
+        <v>1.73494549350107</v>
       </c>
       <c r="C7">
-        <v>-1.2655389842870099</v>
+        <v>0.79392597550033095</v>
       </c>
       <c r="D7">
-        <v>2.5611314861371199</v>
+        <v>2.6759650115018201</v>
       </c>
       <c r="E7">
-        <v>1.05597674670681</v>
+        <v>2.06485349868273</v>
       </c>
       <c r="F7">
-        <v>-1.4078070465488799</v>
+        <v>0.73359292293266598</v>
       </c>
       <c r="G7">
-        <v>3.51976053996251</v>
+        <v>3.39611407443279</v>
       </c>
       <c r="H7">
-        <v>0.77124443378498897</v>
+        <v>2.0260963841424999</v>
       </c>
       <c r="I7">
-        <v>-2.3879388112139899</v>
+        <v>5.6228930117936803E-2</v>
       </c>
       <c r="J7">
-        <v>3.9304276787839698</v>
+        <v>3.9959638381670701</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1191,31 +1194,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.1222127653332397</v>
+        <v>2.0253543629059401</v>
       </c>
       <c r="C8">
-        <v>-7423.4999661442798</v>
+        <v>1.3293955388398599</v>
       </c>
       <c r="D8">
-        <v>7439.7443916749498</v>
+        <v>2.7213131869720302</v>
       </c>
       <c r="E8">
-        <v>7.5811836718668797</v>
+        <v>1.9474077501432301</v>
       </c>
       <c r="F8">
-        <v>-5872.2188853882299</v>
+        <v>1.21031399051503</v>
       </c>
       <c r="G8">
-        <v>5887.3812527319697</v>
+        <v>2.6845015097714202</v>
       </c>
       <c r="H8">
-        <v>1.4236547273408799</v>
+        <v>1.8329541432294201</v>
       </c>
       <c r="I8">
-        <v>-2.7745143935483698</v>
+        <v>-0.81386037266884304</v>
       </c>
       <c r="J8">
-        <v>5.6218238482301297</v>
+        <v>4.4797686591276902</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1223,31 +1226,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.80742198256905495</v>
+        <v>1.78139798812943</v>
       </c>
       <c r="C9">
-        <v>-0.48905364581944999</v>
+        <v>1.29343666970107</v>
       </c>
       <c r="D9">
-        <v>2.10389761095756</v>
+        <v>2.2693593065577802</v>
       </c>
       <c r="E9">
-        <v>0.83159854747480799</v>
+        <v>1.99648934699303</v>
       </c>
       <c r="F9">
-        <v>-5.2701955357089796</v>
+        <v>1.61937321252167</v>
       </c>
       <c r="G9">
-        <v>6.9333926306585996</v>
+        <v>2.3736054814643901</v>
       </c>
       <c r="H9">
-        <v>1.9247109072467401</v>
+        <v>1.88764123780785</v>
       </c>
       <c r="I9">
-        <v>-11.3140354679543</v>
+        <v>-0.27029913889103002</v>
       </c>
       <c r="J9">
-        <v>15.1634572824478</v>
+        <v>4.0455816145067196</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1255,31 +1258,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.4543559038929299</v>
+        <v>2.1552934355064099</v>
       </c>
       <c r="C10">
-        <v>-26.373283834828701</v>
+        <v>0.53581625131797905</v>
       </c>
       <c r="D10">
-        <v>31.2819956426146</v>
+        <v>3.7747706196948401</v>
       </c>
       <c r="E10">
-        <v>1.88575566389993</v>
+        <v>2.1008655811825401</v>
       </c>
       <c r="F10">
-        <v>-4.7526761515429703</v>
+        <v>0.81626092221108404</v>
       </c>
       <c r="G10">
-        <v>8.5241874793428192</v>
+        <v>3.3854702401539898</v>
       </c>
       <c r="H10">
-        <v>0.285766022470829</v>
+        <v>2.0849795491479401</v>
       </c>
       <c r="I10">
-        <v>-4.1996393624709301</v>
+        <v>0.38556788168727402</v>
       </c>
       <c r="J10">
-        <v>4.7711714074125799</v>
+        <v>3.7843912166085998</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1287,31 +1290,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.63683592571791203</v>
+        <v>1.7766437027697899</v>
       </c>
       <c r="C11">
-        <v>-2.2965008061448402</v>
+        <v>1.03117641600182</v>
       </c>
       <c r="D11">
-        <v>3.57017265758066</v>
+        <v>2.5221109895377598</v>
       </c>
       <c r="E11">
-        <v>1.2601367260812899</v>
+        <v>1.89675511064446</v>
       </c>
       <c r="F11">
-        <v>-4.3222929956991401</v>
+        <v>0.63834240308840695</v>
       </c>
       <c r="G11">
-        <v>6.8425664478617199</v>
+        <v>3.1551678182005198</v>
       </c>
       <c r="H11">
-        <v>0.77439592834437598</v>
+        <v>1.0057628248058199</v>
       </c>
       <c r="I11">
-        <v>-0.72635579869320199</v>
+        <v>-0.24908364747928899</v>
       </c>
       <c r="J11">
-        <v>2.2751476553819501</v>
+        <v>2.2606092970909302</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1319,31 +1322,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.3511975406394998</v>
+        <v>1.68715767814794</v>
       </c>
       <c r="C12">
-        <v>-5.7453444689913402</v>
+        <v>0.61302291009300702</v>
       </c>
       <c r="D12">
-        <v>10.447739550270301</v>
+        <v>2.7612924462028801</v>
       </c>
       <c r="E12">
-        <v>0.80698517600249398</v>
+        <v>2.0739223042538</v>
       </c>
       <c r="F12">
-        <v>-2.6289847728951101</v>
+        <v>5.7391053479463501E-2</v>
       </c>
       <c r="G12">
-        <v>4.2429551249001003</v>
+        <v>4.09045355502814</v>
       </c>
       <c r="H12">
-        <v>1.1180182068836899</v>
+        <v>2.2063932489663101</v>
       </c>
       <c r="I12">
-        <v>-1.30748455583737</v>
+        <v>1.3543481200757199</v>
       </c>
       <c r="J12">
-        <v>3.5435209696047498</v>
+        <v>3.0584383778569002</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1351,31 +1354,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.958218246979187</v>
+        <v>1.6900324664381099</v>
       </c>
       <c r="C13">
-        <v>-1.26999953128569</v>
+        <v>0.73199313214935402</v>
       </c>
       <c r="D13">
-        <v>3.1864360252440602</v>
+        <v>2.6480718007268602</v>
       </c>
       <c r="E13">
-        <v>1.2620720662009599</v>
+        <v>2.35054179118992</v>
       </c>
       <c r="F13">
-        <v>-9.7334269531696496</v>
+        <v>0.34643072405963299</v>
       </c>
       <c r="G13">
-        <v>12.2575710855716</v>
+        <v>4.35465285832022</v>
       </c>
       <c r="H13">
-        <v>1.50317514513805</v>
+        <v>1.63415957962492</v>
       </c>
       <c r="I13">
-        <v>-2.1435385886233802</v>
+        <v>0.79994638820757602</v>
       </c>
       <c r="J13">
-        <v>5.1498888788994899</v>
+        <v>2.46837277104227</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1383,31 +1386,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.9168567014299001</v>
+        <v>1.5430694346084699</v>
       </c>
       <c r="C14">
-        <v>0.79627129851362799</v>
+        <v>1.09616214770897</v>
       </c>
       <c r="D14">
-        <v>3.0374421043461699</v>
+        <v>1.98997672150797</v>
       </c>
       <c r="E14">
-        <v>6.8989776806024103</v>
+        <v>2.10987715077815</v>
       </c>
       <c r="F14">
-        <v>-1637.4424791312999</v>
+        <v>1.69685162768896</v>
       </c>
       <c r="G14">
-        <v>1651.2404344925001</v>
+        <v>2.5229026738673501</v>
       </c>
       <c r="H14">
-        <v>0.98015382470137802</v>
+        <v>2.0468551946745399</v>
       </c>
       <c r="I14">
-        <v>8.8881432983774405E-2</v>
+        <v>0.31001354106145002</v>
       </c>
       <c r="J14">
-        <v>1.8714262164189801</v>
+        <v>3.7836968482876201</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1415,31 +1418,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.62492219661282</v>
+        <v>2.3065946248432501</v>
       </c>
       <c r="C15">
-        <v>-4.2189361674121697</v>
+        <v>0.92028736778172504</v>
       </c>
       <c r="D15">
-        <v>9.4687805606378106</v>
+        <v>3.6929018819047799</v>
       </c>
       <c r="E15">
-        <v>3.4933259542565902</v>
+        <v>1.81510048456614</v>
       </c>
       <c r="F15">
-        <v>-18.818247992650701</v>
+        <v>1.5842363851311401</v>
       </c>
       <c r="G15">
-        <v>25.8048999011638</v>
+        <v>2.0459645840011502</v>
       </c>
       <c r="H15">
-        <v>0.77316388282891702</v>
+        <v>3.6986305472840999</v>
       </c>
       <c r="I15">
-        <v>-3.6060293169731099</v>
+        <v>-9.4804900231803106</v>
       </c>
       <c r="J15">
-        <v>5.1523570826309504</v>
+        <v>16.877751117748499</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1447,31 +1450,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.7049947276901198</v>
+        <v>1.7600200083188799</v>
       </c>
       <c r="C16">
-        <v>-23.038819012076399</v>
+        <v>0.98488382156179499</v>
       </c>
       <c r="D16">
-        <v>28.448808467456601</v>
+        <v>2.53515619507596</v>
       </c>
       <c r="E16">
-        <v>1.00273175046076</v>
+        <v>1.73540494255422</v>
       </c>
       <c r="F16">
-        <v>-2.1221913095143501</v>
+        <v>1.0536773431058499</v>
       </c>
       <c r="G16">
-        <v>4.1276548104358701</v>
+        <v>2.4171325420026002</v>
       </c>
       <c r="H16">
-        <v>0.75256008600746405</v>
+        <v>2.22616780896813</v>
       </c>
       <c r="I16">
-        <v>-3.30143341943795</v>
+        <v>0.791580455397351</v>
       </c>
       <c r="J16">
-        <v>4.8065535914528796</v>
+        <v>3.6607551625389099</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1479,31 +1482,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.97035547466942595</v>
+        <v>2.0149290939640401</v>
       </c>
       <c r="C17">
-        <v>-1.35371817212669</v>
+        <v>0.53685586123797502</v>
       </c>
       <c r="D17">
-        <v>3.2944291214655399</v>
+        <v>3.4930023266901098</v>
       </c>
       <c r="E17">
-        <v>7.9757805016947003</v>
+        <v>1.74557944852283</v>
       </c>
       <c r="F17">
-        <v>-6584.97501012455</v>
+        <v>0.930491233842072</v>
       </c>
       <c r="G17">
-        <v>6600.9265711279404</v>
+        <v>2.5606676632035801</v>
       </c>
       <c r="H17">
-        <v>7.6165336089870603</v>
+        <v>1.64367186659258</v>
       </c>
       <c r="I17">
-        <v>-10145.5776778865</v>
+        <v>0.621493437073111</v>
       </c>
       <c r="J17">
-        <v>10160.8107451045</v>
+        <v>2.6658502961120401</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1511,31 +1514,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.16097942420031</v>
+        <v>1.7014605623322201</v>
       </c>
       <c r="C18">
-        <v>-1.2964142749157099</v>
+        <v>1.1882128913171</v>
       </c>
       <c r="D18">
-        <v>3.6183731233163301</v>
+        <v>2.2147082333473298</v>
       </c>
       <c r="E18">
-        <v>7.0756514515293301</v>
+        <v>1.9646587856490401</v>
       </c>
       <c r="F18">
-        <v>-3196.0251428615102</v>
+        <v>1.4189386715521299</v>
       </c>
       <c r="G18">
-        <v>3210.17644576457</v>
+        <v>2.51037889974595</v>
       </c>
       <c r="H18">
-        <v>1.75684031170139</v>
+        <v>1.84941428182094</v>
       </c>
       <c r="I18">
-        <v>-3.6099891113156102</v>
+        <v>0.19908825011648301</v>
       </c>
       <c r="J18">
-        <v>7.1236697347183897</v>
+        <v>3.4997403135253999</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1543,31 +1546,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.64042448290663601</v>
+        <v>1.74009964985203</v>
       </c>
       <c r="C19">
-        <v>-5.4865585518552997</v>
+        <v>-0.25612910905804898</v>
       </c>
       <c r="D19">
-        <v>6.7674075176685697</v>
+        <v>3.73632840876212</v>
       </c>
       <c r="E19">
-        <v>8.7023832676989592</v>
+        <v>2.9443847379580999</v>
       </c>
       <c r="F19">
-        <v>-17073.107899411301</v>
+        <v>0.57165162381844403</v>
       </c>
       <c r="G19">
-        <v>17090.512665946699</v>
+        <v>5.31711785209776</v>
       </c>
       <c r="H19">
-        <v>1.1886843272327099</v>
+        <v>2.0549396421186801</v>
       </c>
       <c r="I19">
-        <v>-1.8683727041669</v>
+        <v>1.9306443291714599</v>
       </c>
       <c r="J19">
-        <v>4.2457413586323298</v>
+        <v>2.17923495506591</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1575,31 +1578,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.0023281979530392</v>
+        <v>1.6619458516782399</v>
       </c>
       <c r="C20">
-        <v>-16777.158671509402</v>
+        <v>0.76249232488774099</v>
       </c>
       <c r="D20">
-        <v>16795.163327905299</v>
+        <v>2.5613993784687401</v>
       </c>
       <c r="E20">
-        <v>0.52326399566123005</v>
+        <v>1.8601381048780701</v>
       </c>
       <c r="F20">
-        <v>-3.1569192757386699</v>
+        <v>1.6513051835727599</v>
       </c>
       <c r="G20">
-        <v>4.2034472670611303</v>
+        <v>2.0689710261833798</v>
       </c>
       <c r="H20">
-        <v>0.82971345419576703</v>
+        <v>1.81691061825323</v>
       </c>
       <c r="I20">
-        <v>-2.2610194874724199</v>
+        <v>-0.31668528744582802</v>
       </c>
       <c r="J20">
-        <v>3.9204463958639599</v>
+        <v>3.9505065239522899</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1607,31 +1610,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.0926378928521101</v>
+        <v>2.16962695215615</v>
       </c>
       <c r="C21">
-        <v>0.16076230434042599</v>
+        <v>1.4744439796922399</v>
       </c>
       <c r="D21">
-        <v>2.0245134813637899</v>
+        <v>2.8648099246200598</v>
       </c>
       <c r="E21">
-        <v>0.94764705405994998</v>
+        <v>1.5437406316634901</v>
       </c>
       <c r="F21">
-        <v>-2.4571486240470102</v>
+        <v>-0.39004820089666697</v>
       </c>
       <c r="G21">
-        <v>4.3524427321669101</v>
+        <v>3.4775294642236401</v>
       </c>
       <c r="H21">
-        <v>0.84224678004453402</v>
+        <v>2.8741630460896799</v>
       </c>
       <c r="I21">
-        <v>-2.6720985018792902</v>
+        <v>-2.7215902372041101</v>
       </c>
       <c r="J21">
-        <v>4.3565920619683602</v>
+        <v>8.4699163293834694</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1639,31 +1642,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.2309125787444299</v>
+        <v>1.8172704957189001</v>
       </c>
       <c r="C22">
-        <v>-0.63089248930415498</v>
+        <v>1.61588098648983</v>
       </c>
       <c r="D22">
-        <v>3.09271764679302</v>
+        <v>2.0186600049479799</v>
       </c>
       <c r="E22">
-        <v>0.73244174182021804</v>
+        <v>1.90024043767991</v>
       </c>
       <c r="F22">
-        <v>-0.58505245489083302</v>
+        <v>1.39618079721028</v>
       </c>
       <c r="G22">
-        <v>2.0499359385312701</v>
+        <v>2.40430007814955</v>
       </c>
       <c r="H22">
-        <v>1.69813584956342</v>
+        <v>1.7478785821660301</v>
       </c>
       <c r="I22">
-        <v>-1.0504928145660499</v>
+        <v>0.71733597864334098</v>
       </c>
       <c r="J22">
-        <v>4.4467645136928899</v>
+        <v>2.7784211856887202</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1671,31 +1674,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.85185150071803695</v>
+        <v>1.77575184475611</v>
       </c>
       <c r="C23">
-        <v>-2.7054286097184601</v>
+        <v>0.56983011292030405</v>
       </c>
       <c r="D23">
-        <v>4.40913161115453</v>
+        <v>2.9816735765919198</v>
       </c>
       <c r="E23">
-        <v>7.8384840629811201</v>
+        <v>1.6770225256915601</v>
       </c>
       <c r="F23">
-        <v>-3519.36560253588</v>
+        <v>0.52784467457887896</v>
       </c>
       <c r="G23">
-        <v>3535.0425706618498</v>
+        <v>2.8262003768042399</v>
       </c>
       <c r="H23">
-        <v>0.22139088838905599</v>
+        <v>2.3233416404994398</v>
       </c>
       <c r="I23">
-        <v>-4.0082742740019501</v>
+        <v>6.5236239720144695E-2</v>
       </c>
       <c r="J23">
-        <v>4.4510560507800596</v>
+        <v>4.5814470412787403</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1703,31 +1706,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.1119562627187101</v>
+        <v>1.4263422720736401</v>
       </c>
       <c r="C24">
-        <v>-2.7041225426625801</v>
+        <v>1.02936426302575</v>
       </c>
       <c r="D24">
-        <v>6.9280350680999998</v>
+        <v>1.8233202811215301</v>
       </c>
       <c r="E24">
-        <v>1.1760420349848899</v>
+        <v>1.85946082202604</v>
       </c>
       <c r="F24">
-        <v>-9.8642668561469495</v>
+        <v>1.12574474044808</v>
       </c>
       <c r="G24">
-        <v>12.2163509261167</v>
+        <v>2.5931769036040002</v>
       </c>
       <c r="H24">
-        <v>0.66651043526008202</v>
+        <v>2.0116872243345401</v>
       </c>
       <c r="I24">
-        <v>-2.6796171555356798</v>
+        <v>1.2102724802840501</v>
       </c>
       <c r="J24">
-        <v>4.0126380260558401</v>
+        <v>2.8131019683850198</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1735,31 +1738,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.27712084122378</v>
+        <v>1.6791719574164901</v>
       </c>
       <c r="C25">
-        <v>-1.8844790769436199</v>
+        <v>0.84052576647743404</v>
       </c>
       <c r="D25">
-        <v>4.4387207593911899</v>
+        <v>2.5178181483555502</v>
       </c>
       <c r="E25">
-        <v>1.2677374039243601</v>
+        <v>2.0851874180163401</v>
       </c>
       <c r="F25">
-        <v>0.221743201021978</v>
+        <v>0.85738964234021997</v>
       </c>
       <c r="G25">
-        <v>2.3137316068267499</v>
+        <v>3.3129851936924699</v>
       </c>
       <c r="H25">
-        <v>1.2534188756162501</v>
+        <v>1.5472732175096899</v>
       </c>
       <c r="I25">
-        <v>-3.22230263806187</v>
+        <v>0.67812848270937798</v>
       </c>
       <c r="J25">
-        <v>5.7291403892943604</v>
+        <v>2.4164179523099998</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1767,31 +1770,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.1229346810379901</v>
+        <v>1.4623547921014199</v>
       </c>
       <c r="C26">
-        <v>7.9617049368944301E-2</v>
+        <v>0.99400289369668005</v>
       </c>
       <c r="D26">
-        <v>2.1662523127070301</v>
+        <v>1.9307066905061601</v>
       </c>
       <c r="E26">
-        <v>0.90605636704930603</v>
+        <v>2.2989354514923299</v>
       </c>
       <c r="F26">
-        <v>-7.6988318389148098</v>
+        <v>0.67812133224363302</v>
       </c>
       <c r="G26">
-        <v>9.5109445730134308</v>
+        <v>3.9197495707410202</v>
       </c>
       <c r="H26">
-        <v>1.10888089557392</v>
+        <v>1.64951126915693</v>
       </c>
       <c r="I26">
-        <v>-3.2196750320932699</v>
+        <v>0.801544731632025</v>
       </c>
       <c r="J26">
-        <v>5.4374368232411099</v>
+        <v>2.4974778066818399</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1799,31 +1802,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>9.2290909276347399</v>
+        <v>2.1807242695809599</v>
       </c>
       <c r="C27">
-        <v>-1901.3851798240701</v>
+        <v>0.86077306882984295</v>
       </c>
       <c r="D27">
-        <v>1919.84336167934</v>
+        <v>3.5006754703320699</v>
       </c>
       <c r="E27">
-        <v>0.87033065156249301</v>
+        <v>3.1942189546501298</v>
       </c>
       <c r="F27">
-        <v>-1.78502699859393</v>
+        <v>0.90392833158990504</v>
       </c>
       <c r="G27">
-        <v>3.5256883017189198</v>
+        <v>5.4845095777103596</v>
       </c>
       <c r="H27">
-        <v>9.0085451620324495</v>
+        <v>2.2799520500442401</v>
       </c>
       <c r="I27">
-        <v>-14493.481277454401</v>
+        <v>-1.8932744426533099</v>
       </c>
       <c r="J27">
-        <v>14511.4983677784</v>
+        <v>6.4531785427418002</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1832,19 +1835,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>2.2171992835830356</v>
+        <v>1.7801078811843312</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>3.3311714595221891</v>
+        <v>2.3298164356854256</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>1.8506919549665581</v>
+        <v>2.0204916880766985</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1855,19 +1858,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>2.5647880128461495</v>
+        <v>0.24347996602134186</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>3.2015712858686589</v>
+        <v>1.3578685828996697</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>2.3721021079607234</v>
+        <v>0.52190944740643153</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1898,19 +1901,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>1.4347424143861363</v>
+        <v>0.13620269299233864</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>1.7909589773149279</v>
+        <v>0.75959168527407528</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>1.3269539191932287</v>
+        <v>0.29195614487915778</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1936,7 +1939,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J27"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1996,31 +1999,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.42396816454229203</v>
+        <v>0.48757776820231102</v>
       </c>
       <c r="C3">
-        <v>0.25081566769457803</v>
+        <v>0.41419411058235001</v>
       </c>
       <c r="D3">
-        <v>0.59712066139000697</v>
+        <v>0.56096142582227104</v>
       </c>
       <c r="E3">
-        <v>0.23721157050964001</v>
+        <v>0.25077747195707101</v>
       </c>
       <c r="F3">
-        <v>0.14034663984955401</v>
+        <v>0.211587522088098</v>
       </c>
       <c r="G3">
-        <v>0.33407650116972698</v>
+        <v>0.28996742182604501</v>
       </c>
       <c r="H3">
-        <v>0.35381804692218599</v>
+        <v>0.1974778706236</v>
       </c>
       <c r="I3">
-        <v>0.26245237390487802</v>
+        <v>0.17102863578361999</v>
       </c>
       <c r="J3">
-        <v>0.44518371993949402</v>
+        <v>0.22392710546358</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2028,31 +2031,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.30800034003112797</v>
+        <v>0.41860196176548797</v>
       </c>
       <c r="C4">
-        <v>-2.0145725498136601E-2</v>
+        <v>0.38170921329422702</v>
       </c>
       <c r="D4">
-        <v>0.63614640556039304</v>
+        <v>0.45549471023674898</v>
       </c>
       <c r="E4">
-        <v>0.27056598093586398</v>
+        <v>0.28118467713547601</v>
       </c>
       <c r="F4">
-        <v>0.19119073736391901</v>
+        <v>0.26148801490798201</v>
       </c>
       <c r="G4">
-        <v>0.34994122450780801</v>
+        <v>0.30088133936297101</v>
       </c>
       <c r="H4">
-        <v>0.44878763582152698</v>
+        <v>0.27006368913838802</v>
       </c>
       <c r="I4">
-        <v>0.167439269861762</v>
+        <v>0.240754354198425</v>
       </c>
       <c r="J4">
-        <v>0.73013600178129201</v>
+        <v>0.29937302407835198</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2060,31 +2063,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.49759126435881101</v>
+        <v>0.43978613214120099</v>
       </c>
       <c r="C5">
-        <v>0.31531049007390799</v>
+        <v>0.39530065015673799</v>
       </c>
       <c r="D5">
-        <v>0.67987203864371404</v>
+        <v>0.484271614125664</v>
       </c>
       <c r="E5">
-        <v>0.27067086416409097</v>
+        <v>0.24289406919818601</v>
       </c>
       <c r="F5">
-        <v>7.8773552541174005E-2</v>
+        <v>0.22190496236785001</v>
       </c>
       <c r="G5">
-        <v>0.46256817578700699</v>
+        <v>0.26388317602852301</v>
       </c>
       <c r="H5">
-        <v>0.58453894030670595</v>
+        <v>0.2442292814791</v>
       </c>
       <c r="I5">
-        <v>0.42774482152605298</v>
+        <v>0.21757803946555501</v>
       </c>
       <c r="J5">
-        <v>0.74133305908735903</v>
+        <v>0.27088052349264602</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2092,31 +2095,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.43639628215917298</v>
+        <v>0.33333819194873798</v>
       </c>
       <c r="C6">
-        <v>0.24970898853062201</v>
+        <v>0.311523135326427</v>
       </c>
       <c r="D6">
-        <v>0.623083575787723</v>
+        <v>0.35515324857104802</v>
       </c>
       <c r="E6">
-        <v>0.15954882347377899</v>
+        <v>0.17122376443458301</v>
       </c>
       <c r="F6">
-        <v>7.8587740439094403E-2</v>
+        <v>0.13763154289420401</v>
       </c>
       <c r="G6">
-        <v>0.24050990650846399</v>
+        <v>0.20481598597496301</v>
       </c>
       <c r="H6">
-        <v>0.39415798607755997</v>
+        <v>0.34737248334003801</v>
       </c>
       <c r="I6">
-        <v>0.23401100541018399</v>
+        <v>0.295987235133856</v>
       </c>
       <c r="J6">
-        <v>0.55430496674493601</v>
+        <v>0.39875773154622002</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2124,31 +2127,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.92476253277171905</v>
+        <v>0.46782651428543598</v>
       </c>
       <c r="C7">
-        <v>0.134890424611846</v>
+        <v>0.45037985755355597</v>
       </c>
       <c r="D7">
-        <v>1.71463464093159</v>
+        <v>0.48527317101731499</v>
       </c>
       <c r="E7">
-        <v>0.46256010148927001</v>
+        <v>0.25190224969207198</v>
       </c>
       <c r="F7">
-        <v>0.28138036818043299</v>
+        <v>0.23877348152865599</v>
       </c>
       <c r="G7">
-        <v>0.64373983479810704</v>
+        <v>0.26503101785548899</v>
       </c>
       <c r="H7">
-        <v>0.72166540986000904</v>
+        <v>0.25937994120292701</v>
       </c>
       <c r="I7">
-        <v>0.34152736152522301</v>
+        <v>0.234156573912435</v>
       </c>
       <c r="J7">
-        <v>1.10180345819479</v>
+        <v>0.28460330849341903</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2156,31 +2159,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.50465305741895605</v>
+        <v>0.39867188793026898</v>
       </c>
       <c r="C8">
-        <v>0.38774265684120601</v>
+        <v>0.38167378540267999</v>
       </c>
       <c r="D8">
-        <v>0.62156345799670598</v>
+        <v>0.41566999045785902</v>
       </c>
       <c r="E8">
-        <v>0.48530409793183799</v>
+        <v>0.26634866836256599</v>
       </c>
       <c r="F8">
-        <v>0.31058945362752199</v>
+        <v>0.25122999729200501</v>
       </c>
       <c r="G8">
-        <v>0.66001874223615398</v>
+        <v>0.28146733943312702</v>
       </c>
       <c r="H8">
-        <v>0.33075035482222298</v>
+        <v>0.33192006877125502</v>
       </c>
       <c r="I8">
-        <v>0.201839303571788</v>
+        <v>0.28901494847996501</v>
       </c>
       <c r="J8">
-        <v>0.45966140607265898</v>
+        <v>0.37482518906254497</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2188,31 +2191,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.55334774077409299</v>
+        <v>0.39705336392030399</v>
       </c>
       <c r="C9">
-        <v>0.20191882917222001</v>
+        <v>0.38140248173724001</v>
       </c>
       <c r="D9">
-        <v>0.90477665237596505</v>
+        <v>0.41270424610336798</v>
       </c>
       <c r="E9">
-        <v>0.33692021540700101</v>
+        <v>0.33382614995213999</v>
       </c>
       <c r="F9">
-        <v>0.27739492483902101</v>
+        <v>0.28248124688827297</v>
       </c>
       <c r="G9">
-        <v>0.39644550597498002</v>
+        <v>0.38517105301600701</v>
       </c>
       <c r="H9">
-        <v>0.210196867583889</v>
+        <v>0.28359092521831603</v>
       </c>
       <c r="I9">
-        <v>0.107213208494202</v>
+        <v>0.241257330733294</v>
       </c>
       <c r="J9">
-        <v>0.31318052667357699</v>
+        <v>0.32592451970333702</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2220,31 +2223,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.34038043071294199</v>
+        <v>0.38375288470241398</v>
       </c>
       <c r="C10">
-        <v>0.16377658471951501</v>
+        <v>0.35294593238517402</v>
       </c>
       <c r="D10">
-        <v>0.51698427670636904</v>
+        <v>0.41455983701965299</v>
       </c>
       <c r="E10">
-        <v>0.54477741142151703</v>
+        <v>0.36987014634931997</v>
       </c>
       <c r="F10">
-        <v>0.36586054431708898</v>
+        <v>0.32770540729883602</v>
       </c>
       <c r="G10">
-        <v>0.72369427852594503</v>
+        <v>0.41203488539980498</v>
       </c>
       <c r="H10">
-        <v>0.39748667068844201</v>
+        <v>0.31914653287577799</v>
       </c>
       <c r="I10">
-        <v>0.28263111182935902</v>
+        <v>0.290206096503762</v>
       </c>
       <c r="J10">
-        <v>0.51234222954752495</v>
+        <v>0.34808696924779498</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2252,31 +2255,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.35816335130898E-2</v>
+        <v>0.48152361807150001</v>
       </c>
       <c r="C11">
-        <v>-0.23728664433413499</v>
+        <v>0.37657606034283803</v>
       </c>
       <c r="D11">
-        <v>0.38444991136031498</v>
+        <v>0.58647117580016295</v>
       </c>
       <c r="E11">
-        <v>0.222624246547939</v>
+        <v>0.27546896894205197</v>
       </c>
       <c r="F11">
-        <v>7.8156212837429101E-2</v>
+        <v>0.24939836715043601</v>
       </c>
       <c r="G11">
-        <v>0.36709228025844798</v>
+        <v>0.30153957073366899</v>
       </c>
       <c r="H11">
-        <v>-6.14476852907024E-3</v>
+        <v>0.29906599070710699</v>
       </c>
       <c r="I11">
-        <v>-0.32075696195946402</v>
+        <v>0.25226050158788799</v>
       </c>
       <c r="J11">
-        <v>0.30846742490132301</v>
+        <v>0.34587147982632699</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2284,31 +2287,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.34713428141304598</v>
+        <v>0.35324372790379199</v>
       </c>
       <c r="C12">
-        <v>0.21454336619359701</v>
+        <v>0.30602617613671201</v>
       </c>
       <c r="D12">
-        <v>0.47972519663249602</v>
+        <v>0.40046127967087303</v>
       </c>
       <c r="E12">
-        <v>0.43712427247671798</v>
+        <v>0.24886411274193601</v>
       </c>
       <c r="F12">
-        <v>3.2589715418752101E-2</v>
+        <v>0.21344911911440401</v>
       </c>
       <c r="G12">
-        <v>0.84165882953468396</v>
+        <v>0.28427910636946802</v>
       </c>
       <c r="H12">
-        <v>0.329955673353095</v>
+        <v>0.25357673867380598</v>
       </c>
       <c r="I12">
-        <v>0.26709459512059303</v>
+        <v>0.231308817000596</v>
       </c>
       <c r="J12">
-        <v>0.39281675158559698</v>
+        <v>0.27584466034701599</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2316,31 +2319,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.32400649511650298</v>
+        <v>0.52178249172000701</v>
       </c>
       <c r="C13">
-        <v>0.18293508829581201</v>
+        <v>0.47161032528283903</v>
       </c>
       <c r="D13">
-        <v>0.465077901937195</v>
+        <v>0.57195465815717506</v>
       </c>
       <c r="E13">
-        <v>0.291376026831352</v>
+        <v>0.35959706828499499</v>
       </c>
       <c r="F13">
-        <v>0.23237341280598101</v>
+        <v>0.31095356310452699</v>
       </c>
       <c r="G13">
-        <v>0.35037864085672299</v>
+        <v>0.408240573465463</v>
       </c>
       <c r="H13">
-        <v>0.34007875748153998</v>
+        <v>0.28185743065444102</v>
       </c>
       <c r="I13">
-        <v>0.17923783639183299</v>
+        <v>0.24637166365069199</v>
       </c>
       <c r="J13">
-        <v>0.50091967857124697</v>
+        <v>0.31734319765819002</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2348,31 +2351,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.50307195548258199</v>
+        <v>0.36320040149289701</v>
       </c>
       <c r="C14">
-        <v>0.30921174381429001</v>
+        <v>0.33633448583842102</v>
       </c>
       <c r="D14">
-        <v>0.69693216715087403</v>
+        <v>0.390066317147374</v>
       </c>
       <c r="E14">
-        <v>0.51629728143665299</v>
+        <v>0.307270722187166</v>
       </c>
       <c r="F14">
-        <v>0.13764455706241699</v>
+        <v>0.26400740185516303</v>
       </c>
       <c r="G14">
-        <v>0.89495000581089001</v>
+        <v>0.35053404251916898</v>
       </c>
       <c r="H14">
-        <v>0.30897108706561899</v>
+        <v>0.29156778650589099</v>
       </c>
       <c r="I14">
-        <v>4.4797139182355797E-2</v>
+        <v>0.25744744423215599</v>
       </c>
       <c r="J14">
-        <v>0.57314503494888103</v>
+        <v>0.325688128779626</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2380,31 +2383,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.41457313056420098</v>
+        <v>0.503221030677384</v>
       </c>
       <c r="C15">
-        <v>0.30109468565707498</v>
+        <v>0.43128859780918999</v>
       </c>
       <c r="D15">
-        <v>0.52805157547132597</v>
+        <v>0.57515346354557895</v>
       </c>
       <c r="E15">
-        <v>0.322757983349021</v>
+        <v>0.42433419350424401</v>
       </c>
       <c r="F15">
-        <v>0.21496298490693599</v>
+        <v>0.36306310294981697</v>
       </c>
       <c r="G15">
-        <v>0.43055298179110502</v>
+        <v>0.48560528405867098</v>
       </c>
       <c r="H15">
-        <v>0.23135113801680701</v>
+        <v>0.20879865402049</v>
       </c>
       <c r="I15">
-        <v>0.158382113545706</v>
+        <v>0.18127190177805499</v>
       </c>
       <c r="J15">
-        <v>0.304320162487908</v>
+        <v>0.236325406262926</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2412,31 +2415,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.40455886431058702</v>
+        <v>0.263812256248667</v>
       </c>
       <c r="C16">
-        <v>-0.10509754479279899</v>
+        <v>0.22583669535012199</v>
       </c>
       <c r="D16">
-        <v>0.91421527341397402</v>
+        <v>0.30178781714721198</v>
       </c>
       <c r="E16">
-        <v>0.33495201110292699</v>
+        <v>0.36623435404444699</v>
       </c>
       <c r="F16">
-        <v>0.26759667703732698</v>
+        <v>0.30734633819678903</v>
       </c>
       <c r="G16">
-        <v>0.40230734516852701</v>
+        <v>0.425122369892106</v>
       </c>
       <c r="H16">
-        <v>0.15035546352144999</v>
+        <v>0.236426584698954</v>
       </c>
       <c r="I16">
-        <v>2.90137567791421E-2</v>
+        <v>0.21006151945074</v>
       </c>
       <c r="J16">
-        <v>0.271697170263757</v>
+        <v>0.26279164994716803</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2444,31 +2447,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.38283611143360202</v>
+        <v>0.43237090276608098</v>
       </c>
       <c r="C17">
-        <v>0.27586481666007401</v>
+        <v>0.39827414798807997</v>
       </c>
       <c r="D17">
-        <v>0.48980740620712898</v>
+        <v>0.46646765754408098</v>
       </c>
       <c r="E17">
-        <v>0.23406936411038301</v>
+        <v>0.34472975089203101</v>
       </c>
       <c r="F17">
-        <v>0.16831311821838599</v>
+        <v>0.311931660578806</v>
       </c>
       <c r="G17">
-        <v>0.29982561000238001</v>
+        <v>0.37752784120525601</v>
       </c>
       <c r="H17">
-        <v>0.23576291826417101</v>
+        <v>0.29496149034862501</v>
       </c>
       <c r="I17">
-        <v>0.139935166961486</v>
+        <v>0.27645511275397699</v>
       </c>
       <c r="J17">
-        <v>0.33159066956685701</v>
+        <v>0.31346786794327303</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2476,31 +2479,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.391885177247773</v>
+        <v>0.33803807335973701</v>
       </c>
       <c r="C18">
-        <v>0.32595898980856802</v>
+        <v>0.30601861598872399</v>
       </c>
       <c r="D18">
-        <v>0.45781136468697697</v>
+        <v>0.37005753073074998</v>
       </c>
       <c r="E18">
-        <v>0.26194116402069001</v>
+        <v>0.19279122172089999</v>
       </c>
       <c r="F18">
-        <v>0.19538004271934201</v>
+        <v>0.168378186158369</v>
       </c>
       <c r="G18">
-        <v>0.32850228532203901</v>
+        <v>0.21720425728343201</v>
       </c>
       <c r="H18">
-        <v>0.41349274267585301</v>
+        <v>0.23338352424126599</v>
       </c>
       <c r="I18">
-        <v>0.31461038005367098</v>
+        <v>0.20863619579679399</v>
       </c>
       <c r="J18">
-        <v>0.51237510529803498</v>
+        <v>0.25813085268573899</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2508,31 +2511,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.39492225100563899</v>
+        <v>0.41704536556385602</v>
       </c>
       <c r="C19">
-        <v>0.21379124945167599</v>
+        <v>0.40101496219726002</v>
       </c>
       <c r="D19">
-        <v>0.57605325255960205</v>
+        <v>0.43307576893045202</v>
       </c>
       <c r="E19">
-        <v>0.40595739591778501</v>
+        <v>0.27048310072024201</v>
       </c>
       <c r="F19">
-        <v>0.29143368797935698</v>
+        <v>0.246346179614677</v>
       </c>
       <c r="G19">
-        <v>0.52048110385621404</v>
+        <v>0.29462002182580599</v>
       </c>
       <c r="H19">
-        <v>0.384537423047844</v>
+        <v>0.28471152965665603</v>
       </c>
       <c r="I19">
-        <v>0.27012846757523301</v>
+        <v>0.25930526332595299</v>
       </c>
       <c r="J19">
-        <v>0.49894637852045398</v>
+        <v>0.310117795987358</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2540,31 +2543,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.74825972073270397</v>
+        <v>0.44824443284566501</v>
       </c>
       <c r="C20">
-        <v>0.39390774705965498</v>
+        <v>0.42197670965441703</v>
       </c>
       <c r="D20">
-        <v>1.10261169440575</v>
+        <v>0.47451215603691199</v>
       </c>
       <c r="E20">
-        <v>0.34969816310398399</v>
+        <v>0.27586240747219698</v>
       </c>
       <c r="F20">
-        <v>0.22377407639736099</v>
+        <v>0.25751793304524201</v>
       </c>
       <c r="G20">
-        <v>0.47562224981060602</v>
+        <v>0.29420688189915301</v>
       </c>
       <c r="H20">
-        <v>0.30487224638935501</v>
+        <v>0.19961347712042399</v>
       </c>
       <c r="I20">
-        <v>0.15218549189181699</v>
+        <v>0.17400447308380901</v>
       </c>
       <c r="J20">
-        <v>0.457559000886894</v>
+        <v>0.225222481157038</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2572,31 +2575,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.35316440011140199</v>
+        <v>0.50541229932132903</v>
       </c>
       <c r="C21">
-        <v>0.26212541815902002</v>
+        <v>0.45654823891202501</v>
       </c>
       <c r="D21">
-        <v>0.44420338206378401</v>
+        <v>0.55427635973063305</v>
       </c>
       <c r="E21">
-        <v>-3.1551897887832803E-2</v>
+        <v>0.20640612872307601</v>
       </c>
       <c r="F21">
-        <v>-0.281518548838813</v>
+        <v>0.18468464108377999</v>
       </c>
       <c r="G21">
-        <v>0.218414753063147</v>
+        <v>0.228127616362372</v>
       </c>
       <c r="H21">
-        <v>0.30036339030456399</v>
+        <v>0.35206041437416902</v>
       </c>
       <c r="I21">
-        <v>0.19832556278424099</v>
+        <v>0.276160804198749</v>
       </c>
       <c r="J21">
-        <v>0.40240121782488802</v>
+        <v>0.42796002454958998</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2604,31 +2607,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.478970145502985</v>
+        <v>0.40463716769094399</v>
       </c>
       <c r="C22">
-        <v>0.38885060540258298</v>
+        <v>0.347051953724061</v>
       </c>
       <c r="D22">
-        <v>0.56908968560338702</v>
+        <v>0.46222238165782698</v>
       </c>
       <c r="E22">
-        <v>0.19445667929379201</v>
+        <v>0.30068981462824301</v>
       </c>
       <c r="F22">
-        <v>0.12706958994442299</v>
+        <v>0.28369423883216199</v>
       </c>
       <c r="G22">
-        <v>0.26184376864316</v>
+        <v>0.31768539042432398</v>
       </c>
       <c r="H22">
-        <v>0.16860662394971099</v>
+        <v>0.33526644879765499</v>
       </c>
       <c r="I22">
-        <v>6.5726439799258199E-2</v>
+        <v>0.30819275935839002</v>
       </c>
       <c r="J22">
-        <v>0.27148680810016301</v>
+        <v>0.36234013823692002</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2636,31 +2639,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.25312657954758599</v>
+        <v>0.444920304973624</v>
       </c>
       <c r="C23">
-        <v>0.138577523580907</v>
+        <v>0.41804013059928302</v>
       </c>
       <c r="D23">
-        <v>0.36767563551426602</v>
+        <v>0.47180047934796498</v>
       </c>
       <c r="E23">
-        <v>0.43446078317122999</v>
+        <v>0.29052211444992598</v>
       </c>
       <c r="F23">
-        <v>0.30975192227960102</v>
+        <v>0.27065075679478301</v>
       </c>
       <c r="G23">
-        <v>0.55916964406285796</v>
+        <v>0.31039347210506901</v>
       </c>
       <c r="H23">
-        <v>0.25263557877431903</v>
+        <v>0.29846372380505298</v>
       </c>
       <c r="I23">
-        <v>0.16522627827927699</v>
+        <v>0.245298436653342</v>
       </c>
       <c r="J23">
-        <v>0.340044879269361</v>
+        <v>0.35162901095676502</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2668,31 +2671,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.65110421234957505</v>
+        <v>0.46627675419688802</v>
       </c>
       <c r="C24">
-        <v>0.17664284536765301</v>
+        <v>0.442803523486132</v>
       </c>
       <c r="D24">
-        <v>1.1255655793315</v>
+        <v>0.48974998490764499</v>
       </c>
       <c r="E24">
-        <v>0.22110913361536999</v>
+        <v>0.35459979729344199</v>
       </c>
       <c r="F24">
-        <v>0.13759383542818501</v>
+        <v>0.32201675359188198</v>
       </c>
       <c r="G24">
-        <v>0.30462443180255599</v>
+        <v>0.387182840995002</v>
       </c>
       <c r="H24">
-        <v>0.13322509223689699</v>
+        <v>0.19828473963066601</v>
       </c>
       <c r="I24">
-        <v>6.8329199098379201E-3</v>
+        <v>0.17113579556286801</v>
       </c>
       <c r="J24">
-        <v>0.25961726456395601</v>
+        <v>0.225433683698464</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2700,31 +2703,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.50140478619469198</v>
+        <v>0.52668522826317599</v>
       </c>
       <c r="C25">
-        <v>0.200454262135946</v>
+        <v>0.42290194868222097</v>
       </c>
       <c r="D25">
-        <v>0.80235531025343798</v>
+        <v>0.630468507844131</v>
       </c>
       <c r="E25">
-        <v>0.37776580648199298</v>
+        <v>0.25352927352794602</v>
       </c>
       <c r="F25">
-        <v>0.21750876975297301</v>
+        <v>0.19875147814168601</v>
       </c>
       <c r="G25">
-        <v>0.53802284321101301</v>
+        <v>0.30830706891420601</v>
       </c>
       <c r="H25">
-        <v>0.49449291631639097</v>
+        <v>0.31565584217684201</v>
       </c>
       <c r="I25">
-        <v>0.35333106565488298</v>
+        <v>0.30391338707910098</v>
       </c>
       <c r="J25">
-        <v>0.63565476697789802</v>
+        <v>0.32739829727458197</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2732,31 +2735,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.199606240582543</v>
+        <v>0.38310902109550798</v>
       </c>
       <c r="C26">
-        <v>8.6424848063993406E-2</v>
+        <v>0.37325100586890397</v>
       </c>
       <c r="D26">
-        <v>0.31278763310109398</v>
+        <v>0.392967036322112</v>
       </c>
       <c r="E26">
-        <v>0.22469596235480199</v>
+        <v>0.27437764612137799</v>
       </c>
       <c r="F26">
-        <v>0.100204272217937</v>
+        <v>0.24760401008759</v>
       </c>
       <c r="G26">
-        <v>0.349187652491667</v>
+        <v>0.30115128215516601</v>
       </c>
       <c r="H26">
-        <v>0.266253007407253</v>
+        <v>0.180645698955816</v>
       </c>
       <c r="I26">
-        <v>0.220326562556318</v>
+        <v>0.15028109741474999</v>
       </c>
       <c r="J26">
-        <v>0.31217945225818799</v>
+        <v>0.21101030049688199</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2764,31 +2767,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.31768269293095303</v>
+        <v>0.37448348974589801</v>
       </c>
       <c r="C27">
-        <v>9.9022148068388202E-2</v>
+        <v>0.34278939760760202</v>
       </c>
       <c r="D27">
-        <v>0.536343237793518</v>
+        <v>0.40617758188419401</v>
       </c>
       <c r="E27">
-        <v>2.2819864007854299E-2</v>
+        <v>0.36439872944280599</v>
       </c>
       <c r="F27">
-        <v>-0.225461862781932</v>
+        <v>0.33037044870254501</v>
       </c>
       <c r="G27">
-        <v>0.27110159079764001</v>
+        <v>0.39842701018306798</v>
       </c>
       <c r="H27">
-        <v>0.27426574728741998</v>
+        <v>0.40871759278867098</v>
       </c>
       <c r="I27">
-        <v>0.123106048482754</v>
+        <v>0.355094577490076</v>
       </c>
       <c r="J27">
-        <v>0.42542544609208699</v>
+        <v>0.46234060808726501</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2797,19 +2800,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.4291595396323431</v>
+        <v>0.4221846108333247</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.3035245322107063</v>
+        <v>0.29112746407113776</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.32097907798583036</v>
+        <v>0.27704953839223734</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2820,19 +2823,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>0.17199160589547224</v>
+        <v>6.5468549923708333E-2</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>0.14052353023553857</v>
+        <v>6.1419059103592445E-2</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>0.14926447840399812</v>
+        <v>5.6715814662636976E-2</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2863,19 +2866,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>9.6212104337927179E-2</v>
+        <v>3.6623106827322442E-2</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>7.8608862813760283E-2</v>
+        <v>3.4357821662549616E-2</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>8.3498549219196555E-2</v>
+        <v>3.1726826722279125E-2</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2959,821 +2962,146 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.125756222686455</v>
-      </c>
-      <c r="C3">
-        <v>-0.73568913901528699</v>
-      </c>
-      <c r="D3">
-        <v>0.98720158438819705</v>
-      </c>
-      <c r="E3">
-        <v>1.44097171855043</v>
-      </c>
-      <c r="F3">
-        <v>-2.6967111214500901</v>
-      </c>
-      <c r="G3">
-        <v>5.5786545585509399</v>
-      </c>
-      <c r="H3">
-        <v>2.1572060809997602</v>
-      </c>
-      <c r="I3">
-        <v>-2.5986129383389698</v>
-      </c>
-      <c r="J3">
-        <v>6.9130251003385004</v>
-      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.55565290069039697</v>
-      </c>
-      <c r="C4">
-        <v>-0.84683174966028196</v>
-      </c>
-      <c r="D4">
-        <v>1.9581375510410799</v>
-      </c>
-      <c r="E4">
-        <v>0.63454916924546001</v>
-      </c>
-      <c r="F4">
-        <v>4.0477032520015901E-2</v>
-      </c>
-      <c r="G4">
-        <v>1.2286213059708999</v>
-      </c>
-      <c r="H4">
-        <v>0.57716058730379705</v>
-      </c>
-      <c r="I4">
-        <v>1.28109617052585E-2</v>
-      </c>
-      <c r="J4">
-        <v>1.14151021290233</v>
-      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.27207495900220002</v>
-      </c>
-      <c r="C5">
-        <v>-1.09510117814721</v>
-      </c>
-      <c r="D5">
-        <v>1.63925109615161</v>
-      </c>
-      <c r="E5">
-        <v>1.7015345574142899</v>
-      </c>
-      <c r="F5">
-        <v>-1.7189094783497201</v>
-      </c>
-      <c r="G5">
-        <v>5.1219785931783104</v>
-      </c>
-      <c r="H5">
-        <v>0.30590892310029</v>
-      </c>
-      <c r="I5">
-        <v>0.130663029149339</v>
-      </c>
-      <c r="J5">
-        <v>0.48115481705124002</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.28816557199690801</v>
-      </c>
-      <c r="C6">
-        <v>-0.62418654638447002</v>
-      </c>
-      <c r="D6">
-        <v>1.2005176903782899</v>
-      </c>
-      <c r="E6">
-        <v>1.21317335592274</v>
-      </c>
-      <c r="F6">
-        <v>-0.70013524144401296</v>
-      </c>
-      <c r="G6">
-        <v>3.1264819532894901</v>
-      </c>
-      <c r="H6">
-        <v>0.49293633419025601</v>
-      </c>
-      <c r="I6">
-        <v>-0.22258148532028699</v>
-      </c>
-      <c r="J6">
-        <v>1.2084541537008</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.14563947461028801</v>
-      </c>
-      <c r="C7">
-        <v>-0.84909315723481804</v>
-      </c>
-      <c r="D7">
-        <v>1.14037210645539</v>
-      </c>
-      <c r="E7">
-        <v>0.28535308608195697</v>
-      </c>
-      <c r="F7">
-        <v>-3.8883283107527797E-2</v>
-      </c>
-      <c r="G7">
-        <v>0.60958945527144104</v>
-      </c>
-      <c r="H7">
-        <v>0.71460473820872095</v>
-      </c>
-      <c r="I7">
-        <v>-0.18734085322373101</v>
-      </c>
-      <c r="J7">
-        <v>1.6165503296411701</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.19608007368616601</v>
-      </c>
-      <c r="C8">
-        <v>-1.4244747853281901</v>
-      </c>
-      <c r="D8">
-        <v>1.81663493270052</v>
-      </c>
-      <c r="E8">
-        <v>0.41563652811295998</v>
-      </c>
-      <c r="F8">
-        <v>-0.101457305746041</v>
-      </c>
-      <c r="G8">
-        <v>0.93273036197196102</v>
-      </c>
-      <c r="H8">
-        <v>0.297478069176491</v>
-      </c>
-      <c r="I8">
-        <v>-0.17311187132179401</v>
-      </c>
-      <c r="J8">
-        <v>0.76806800967477695</v>
-      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.32412387714003799</v>
-      </c>
-      <c r="C9">
-        <v>-0.60916411973354101</v>
-      </c>
-      <c r="D9">
-        <v>1.25741187401362</v>
-      </c>
-      <c r="E9">
-        <v>0.90306195856775295</v>
-      </c>
-      <c r="F9">
-        <v>-0.78841846973487595</v>
-      </c>
-      <c r="G9">
-        <v>2.5945423868703799</v>
-      </c>
-      <c r="H9">
-        <v>0.40347931167738299</v>
-      </c>
-      <c r="I9">
-        <v>-0.16302234309921501</v>
-      </c>
-      <c r="J9">
-        <v>0.96998096645398102</v>
-      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.47561148827265298</v>
-      </c>
-      <c r="C10">
-        <v>-0.62196892437134499</v>
-      </c>
-      <c r="D10">
-        <v>1.57319190091665</v>
-      </c>
-      <c r="E10">
-        <v>0.48665226662941502</v>
-      </c>
-      <c r="F10">
-        <v>-0.34849427566355501</v>
-      </c>
-      <c r="G10">
-        <v>1.32179880892239</v>
-      </c>
-      <c r="H10">
-        <v>0.54641364719149899</v>
-      </c>
-      <c r="I10">
-        <v>0.155117944959381</v>
-      </c>
-      <c r="J10">
-        <v>0.93770934942361805</v>
-      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.17643995235044499</v>
-      </c>
-      <c r="C11">
-        <v>-1.00328149866889</v>
-      </c>
-      <c r="D11">
-        <v>1.35616140336978</v>
-      </c>
-      <c r="E11">
-        <v>0.28913488149064998</v>
-      </c>
-      <c r="F11">
-        <v>-0.182093709409993</v>
-      </c>
-      <c r="G11">
-        <v>0.76036347239129298</v>
-      </c>
-      <c r="H11">
-        <v>0.35316444684446102</v>
-      </c>
-      <c r="I11">
-        <v>-3.8171373784831701E-2</v>
-      </c>
-      <c r="J11">
-        <v>0.74450026747375397</v>
-      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>-8.5695928888227507E-3</v>
-      </c>
-      <c r="C12">
-        <v>-0.819825628887904</v>
-      </c>
-      <c r="D12">
-        <v>0.80268644311025805</v>
-      </c>
-      <c r="E12">
-        <v>0.47849748329575098</v>
-      </c>
-      <c r="F12">
-        <v>-5.6355666586588603E-2</v>
-      </c>
-      <c r="G12">
-        <v>1.0133506331780899</v>
-      </c>
-      <c r="H12">
-        <v>0.66411152313326105</v>
-      </c>
-      <c r="I12">
-        <v>-0.39497886624820699</v>
-      </c>
-      <c r="J12">
-        <v>1.72320191251473</v>
-      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.66554368737358005</v>
-      </c>
-      <c r="C13">
-        <v>-0.47138112810681099</v>
-      </c>
-      <c r="D13">
-        <v>1.80246850285397</v>
-      </c>
-      <c r="E13">
-        <v>3.1484156383658499</v>
-      </c>
-      <c r="F13">
-        <v>-10.295563769531499</v>
-      </c>
-      <c r="G13">
-        <v>16.592395046263199</v>
-      </c>
-      <c r="H13">
-        <v>0.40446087030836803</v>
-      </c>
-      <c r="I13">
-        <v>-4.2384141437427199E-2</v>
-      </c>
-      <c r="J13">
-        <v>0.85130588205416202</v>
-      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>-0.78541048917252498</v>
-      </c>
-      <c r="C14">
-        <v>-2.9592491473176099</v>
-      </c>
-      <c r="D14">
-        <v>1.3884281689725599</v>
-      </c>
-      <c r="E14">
-        <v>0.20537310114326501</v>
-      </c>
-      <c r="F14">
-        <v>-0.289882352685779</v>
-      </c>
-      <c r="G14">
-        <v>0.70062855497230803</v>
-      </c>
-      <c r="H14">
-        <v>1.0348649958870899</v>
-      </c>
-      <c r="I14">
-        <v>0.31613173701816999</v>
-      </c>
-      <c r="J14">
-        <v>1.7535982547560001</v>
-      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0.274602680551919</v>
-      </c>
-      <c r="C15">
-        <v>-0.60851330150135097</v>
-      </c>
-      <c r="D15">
-        <v>1.1577186626051901</v>
-      </c>
-      <c r="E15">
-        <v>0.51827788056753599</v>
-      </c>
-      <c r="F15">
-        <v>-0.206345999927632</v>
-      </c>
-      <c r="G15">
-        <v>1.2429017610627</v>
-      </c>
-      <c r="H15">
-        <v>0.336118402859379</v>
-      </c>
-      <c r="I15">
-        <v>-1.0969885502778901E-2</v>
-      </c>
-      <c r="J15">
-        <v>0.68320669122153699</v>
-      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0.25507717295611898</v>
-      </c>
-      <c r="C16">
-        <v>-0.73318984583262004</v>
-      </c>
-      <c r="D16">
-        <v>1.24334419174486</v>
-      </c>
-      <c r="E16">
-        <v>0.98048017298120704</v>
-      </c>
-      <c r="F16">
-        <v>-0.35692902381531499</v>
-      </c>
-      <c r="G16">
-        <v>2.3178893697777299</v>
-      </c>
-      <c r="H16">
-        <v>0.37692897585780999</v>
-      </c>
-      <c r="I16">
-        <v>-7.8617814313060003E-2</v>
-      </c>
-      <c r="J16">
-        <v>0.83247576602868001</v>
-      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>-0.13746041263101499</v>
-      </c>
-      <c r="C17">
-        <v>-1.11787220146861</v>
-      </c>
-      <c r="D17">
-        <v>0.84295137620657901</v>
-      </c>
-      <c r="E17">
-        <v>0.53022553701721897</v>
-      </c>
-      <c r="F17">
-        <v>-0.13988808001012401</v>
-      </c>
-      <c r="G17">
-        <v>1.20033915404456</v>
-      </c>
-      <c r="H17">
-        <v>0.37315154074564599</v>
-      </c>
-      <c r="I17">
-        <v>3.7023289092203801E-2</v>
-      </c>
-      <c r="J17">
-        <v>0.709279792399089</v>
-      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>8.8063064612631706E-2</v>
-      </c>
-      <c r="C18">
-        <v>-0.90126951094392804</v>
-      </c>
-      <c r="D18">
-        <v>1.07739564016919</v>
-      </c>
-      <c r="E18">
-        <v>0.37025753957833502</v>
-      </c>
-      <c r="F18">
-        <v>-0.14858822438807301</v>
-      </c>
-      <c r="G18">
-        <v>0.88910330354474298</v>
-      </c>
-      <c r="H18">
-        <v>0.55574177906069999</v>
-      </c>
-      <c r="I18">
-        <v>7.5989816754515396E-2</v>
-      </c>
-      <c r="J18">
-        <v>1.0354937413668801</v>
-      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0.31261353490892602</v>
-      </c>
-      <c r="C19">
-        <v>-0.62184376385181095</v>
-      </c>
-      <c r="D19">
-        <v>1.2470708336696601</v>
-      </c>
-      <c r="E19">
-        <v>0.44877329661260601</v>
-      </c>
-      <c r="F19">
-        <v>-0.35431280835159301</v>
-      </c>
-      <c r="G19">
-        <v>1.2518594015768101</v>
-      </c>
-      <c r="H19">
-        <v>0.117872584201708</v>
-      </c>
-      <c r="I19">
-        <v>-0.20299602041459</v>
-      </c>
-      <c r="J19">
-        <v>0.438741188818005</v>
-      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>7.3233880714059202E-2</v>
-      </c>
-      <c r="C20">
-        <v>-0.833732020837883</v>
-      </c>
-      <c r="D20">
-        <v>0.98019978226600102</v>
-      </c>
-      <c r="E20">
-        <v>0.77309045310612501</v>
-      </c>
-      <c r="F20">
-        <v>-1.9450350878100299E-2</v>
-      </c>
-      <c r="G20">
-        <v>1.5656312570903499</v>
-      </c>
-      <c r="H20">
-        <v>0.64547803495664802</v>
-      </c>
-      <c r="I20">
-        <v>-0.162241937221202</v>
-      </c>
-      <c r="J20">
-        <v>1.4531980071345001</v>
-      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0.35161558849219998</v>
-      </c>
-      <c r="C21">
-        <v>-0.50365589480841799</v>
-      </c>
-      <c r="D21">
-        <v>1.20688707179282</v>
-      </c>
-      <c r="E21">
-        <v>0.28964063105083099</v>
-      </c>
-      <c r="F21">
-        <v>6.5366158543712603E-3</v>
-      </c>
-      <c r="G21">
-        <v>0.57274464624729005</v>
-      </c>
-      <c r="H21">
-        <v>1.3172953366889999</v>
-      </c>
-      <c r="I21">
-        <v>-0.42233601058912301</v>
-      </c>
-      <c r="J21">
-        <v>3.0569266839671299</v>
-      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>-8.0530610046877907E-2</v>
-      </c>
-      <c r="C22">
-        <v>-0.70955400524529399</v>
-      </c>
-      <c r="D22">
-        <v>0.54849278515153799</v>
-      </c>
-      <c r="E22">
-        <v>0.342247261896025</v>
-      </c>
-      <c r="F22">
-        <v>-0.29644699059157398</v>
-      </c>
-      <c r="G22">
-        <v>0.98094151438362398</v>
-      </c>
-      <c r="H22">
-        <v>0.81190021435414195</v>
-      </c>
-      <c r="I22">
-        <v>-0.43002464488665898</v>
-      </c>
-      <c r="J22">
-        <v>2.0538250735949402</v>
-      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0.13385122175216499</v>
-      </c>
-      <c r="C23">
-        <v>-0.58301598215641504</v>
-      </c>
-      <c r="D23">
-        <v>0.85071842566074496</v>
-      </c>
-      <c r="E23">
-        <v>0.65703702468151004</v>
-      </c>
-      <c r="F23">
-        <v>-0.333954196136652</v>
-      </c>
-      <c r="G23">
-        <v>1.64802824549967</v>
-      </c>
-      <c r="H23">
-        <v>0.96052301599615397</v>
-      </c>
-      <c r="I23">
-        <v>-0.53747119573515301</v>
-      </c>
-      <c r="J23">
-        <v>2.4585172277274601</v>
-      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>-0.23779111751125301</v>
-      </c>
-      <c r="C24">
-        <v>-1.31977305323696</v>
-      </c>
-      <c r="D24">
-        <v>0.84419081821445396</v>
-      </c>
-      <c r="E24">
-        <v>0.41448642625627702</v>
-      </c>
-      <c r="F24">
-        <v>6.7667695031544406E-2</v>
-      </c>
-      <c r="G24">
-        <v>0.76130515748101002</v>
-      </c>
-      <c r="H24">
-        <v>0.90775981639621595</v>
-      </c>
-      <c r="I24">
-        <v>3.5962304431502397E-2</v>
-      </c>
-      <c r="J24">
-        <v>1.7795573283609301</v>
-      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0.51662155609996496</v>
-      </c>
-      <c r="C25">
-        <v>-0.58574449116500804</v>
-      </c>
-      <c r="D25">
-        <v>1.61898760336494</v>
-      </c>
-      <c r="E25">
-        <v>0.28128903777104403</v>
-      </c>
-      <c r="F25">
-        <v>-0.115727070255358</v>
-      </c>
-      <c r="G25">
-        <v>0.67830514579744605</v>
-      </c>
-      <c r="H25">
-        <v>0.24138905567148</v>
-      </c>
-      <c r="I25">
-        <v>-0.29197502659574598</v>
-      </c>
-      <c r="J25">
-        <v>0.77475313793870704</v>
-      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>-0.25847433604262998</v>
-      </c>
-      <c r="C26">
-        <v>-1.2910463215202801</v>
-      </c>
-      <c r="D26">
-        <v>0.77409764943501802</v>
-      </c>
-      <c r="E26">
-        <v>0.17576323404390501</v>
-      </c>
-      <c r="F26">
-        <v>-0.32597772921861501</v>
-      </c>
-      <c r="G26">
-        <v>0.67750419730642597</v>
-      </c>
-      <c r="H26">
-        <v>0.40379931720009299</v>
-      </c>
-      <c r="I26">
-        <v>-0.133852174422391</v>
-      </c>
-      <c r="J26">
-        <v>0.94145080882257604</v>
-      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>0.419113283994001</v>
-      </c>
-      <c r="C27">
-        <v>-0.43047688361230202</v>
-      </c>
-      <c r="D27">
-        <v>1.2687034516003</v>
-      </c>
-      <c r="E27">
-        <v>0.38988893053734702</v>
-      </c>
-      <c r="F27">
-        <v>-0.10068513004766701</v>
-      </c>
-      <c r="G27">
-        <v>0.88046299112236104</v>
-      </c>
-      <c r="H27">
-        <v>0.45271249666107699</v>
-      </c>
-      <c r="I27">
-        <v>-9.9724743720361206E-2</v>
-      </c>
-      <c r="J27">
-        <v>1.00514973704251</v>
-      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="e">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.16566574534391973</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1">
+      <c r="E28" s="1" t="e">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.69495244683681945</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1">
+      <c r="H28" s="1" t="e">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.61809840394685711</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3782,21 +3110,21 @@
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="e">
         <f>STDEV(B3:B27)</f>
-        <v>0.306974343843396</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1">
+      <c r="E29" s="1" t="e">
         <f>STDEV(E3:E27)</f>
-        <v>0.64095238270220389</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1">
+      <c r="H29" s="1" t="e">
         <f>STDEV(H3:H27)</f>
-        <v>0.42494746264494931</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3825,21 +3153,21 @@
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="1" t="e">
         <f>B30*B29/5</f>
-        <v>0.17172144794599573</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1">
+      <c r="E31" s="1" t="e">
         <f>E30*E29/5</f>
-        <v>0.35854876288361287</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1">
+      <c r="H31" s="1" t="e">
         <f>H30*H29/5</f>
-        <v>0.23771561060358465</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3923,821 +3251,146 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>9.5173835303322102E-2</v>
-      </c>
-      <c r="C3">
-        <v>-0.221363674097453</v>
-      </c>
-      <c r="D3">
-        <v>0.41171134470409698</v>
-      </c>
-      <c r="E3">
-        <v>6.1486370706844901E-2</v>
-      </c>
-      <c r="F3">
-        <v>-0.145385715130632</v>
-      </c>
-      <c r="G3">
-        <v>0.268358456544321</v>
-      </c>
-      <c r="H3">
-        <v>-8.8665839562175001E-3</v>
-      </c>
-      <c r="I3">
-        <v>-0.46720023730576199</v>
-      </c>
-      <c r="J3">
-        <v>0.44946706939332698</v>
-      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>-0.10974843830615</v>
-      </c>
-      <c r="C4">
-        <v>-0.27179581320062102</v>
-      </c>
-      <c r="D4">
-        <v>5.2298936588321E-2</v>
-      </c>
-      <c r="E4">
-        <v>2.8238496293166999E-2</v>
-      </c>
-      <c r="F4">
-        <v>-0.357715421327093</v>
-      </c>
-      <c r="G4">
-        <v>0.41419241391342698</v>
-      </c>
-      <c r="H4">
-        <v>-1.65055788375504E-2</v>
-      </c>
-      <c r="I4">
-        <v>-0.35366807760866698</v>
-      </c>
-      <c r="J4">
-        <v>0.32065691993356599</v>
-      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>6.7812745797935198E-2</v>
-      </c>
-      <c r="C5">
-        <v>-0.32182325705908499</v>
-      </c>
-      <c r="D5">
-        <v>0.457448748654955</v>
-      </c>
-      <c r="E5">
-        <v>2.6797371007703599E-2</v>
-      </c>
-      <c r="F5">
-        <v>-0.21286683339600099</v>
-      </c>
-      <c r="G5">
-        <v>0.26646157541140802</v>
-      </c>
-      <c r="H5">
-        <v>2.1564559377103699E-2</v>
-      </c>
-      <c r="I5">
-        <v>-0.243006047090191</v>
-      </c>
-      <c r="J5">
-        <v>0.28613516584439802</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>6.9304508183542293E-2</v>
-      </c>
-      <c r="C6">
-        <v>-0.32265339199427301</v>
-      </c>
-      <c r="D6">
-        <v>0.46126240836135801</v>
-      </c>
-      <c r="E6">
-        <v>0.10029241770503999</v>
-      </c>
-      <c r="F6">
-        <v>-0.13051020652958001</v>
-      </c>
-      <c r="G6">
-        <v>0.331095041939659</v>
-      </c>
-      <c r="H6">
-        <v>0.207073066034379</v>
-      </c>
-      <c r="I6">
-        <v>-0.117035191915908</v>
-      </c>
-      <c r="J6">
-        <v>0.531181323984666</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>9.0712047597603408E-3</v>
-      </c>
-      <c r="C7">
-        <v>-0.39909051954665098</v>
-      </c>
-      <c r="D7">
-        <v>0.41723292906617199</v>
-      </c>
-      <c r="E7">
-        <v>0.20527705248796099</v>
-      </c>
-      <c r="F7">
-        <v>-0.32915720125592901</v>
-      </c>
-      <c r="G7">
-        <v>0.73971130623185</v>
-      </c>
-      <c r="H7">
-        <v>7.68979215422948E-2</v>
-      </c>
-      <c r="I7">
-        <v>-0.21143306077228499</v>
-      </c>
-      <c r="J7">
-        <v>0.36522890385687401</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>8.4242923296903693E-2</v>
-      </c>
-      <c r="C8">
-        <v>-0.12575521880881499</v>
-      </c>
-      <c r="D8">
-        <v>0.29424106540262202</v>
-      </c>
-      <c r="E8">
-        <v>-5.43595341550481E-2</v>
-      </c>
-      <c r="F8">
-        <v>-0.40212940514138801</v>
-      </c>
-      <c r="G8">
-        <v>0.29341033683129097</v>
-      </c>
-      <c r="H8">
-        <v>0.218370700724906</v>
-      </c>
-      <c r="I8">
-        <v>-0.10680720266307001</v>
-      </c>
-      <c r="J8">
-        <v>0.54354860411288197</v>
-      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>-1.26661194081342E-2</v>
-      </c>
-      <c r="C9">
-        <v>-0.450991225339616</v>
-      </c>
-      <c r="D9">
-        <v>0.42565898652334699</v>
-      </c>
-      <c r="E9">
-        <v>2.1724002741697598E-2</v>
-      </c>
-      <c r="F9">
-        <v>-0.28548004136958099</v>
-      </c>
-      <c r="G9">
-        <v>0.328928046852977</v>
-      </c>
-      <c r="H9">
-        <v>-1.36158040602823E-2</v>
-      </c>
-      <c r="I9">
-        <v>-0.39972176571920098</v>
-      </c>
-      <c r="J9">
-        <v>0.37249015759863602</v>
-      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>-7.3643710235694201E-2</v>
-      </c>
-      <c r="C10">
-        <v>-0.36528462265006301</v>
-      </c>
-      <c r="D10">
-        <v>0.21799720217867499</v>
-      </c>
-      <c r="E10">
-        <v>-7.85120352615893E-2</v>
-      </c>
-      <c r="F10">
-        <v>-0.40253179661749799</v>
-      </c>
-      <c r="G10">
-        <v>0.24550772609431901</v>
-      </c>
-      <c r="H10">
-        <v>0.114512862615437</v>
-      </c>
-      <c r="I10">
-        <v>-0.149605969645457</v>
-      </c>
-      <c r="J10">
-        <v>0.37863169487633203</v>
-      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>6.7757226867993299E-4</v>
-      </c>
-      <c r="C11">
-        <v>-0.34451281224493102</v>
-      </c>
-      <c r="D11">
-        <v>0.34586795678229099</v>
-      </c>
-      <c r="E11">
-        <v>-3.9445604177559802E-2</v>
-      </c>
-      <c r="F11">
-        <v>-0.27476194045163999</v>
-      </c>
-      <c r="G11">
-        <v>0.19587073209652001</v>
-      </c>
-      <c r="H11">
-        <v>-0.114183127178479</v>
-      </c>
-      <c r="I11">
-        <v>-0.343661835081019</v>
-      </c>
-      <c r="J11">
-        <v>0.11529558072406</v>
-      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>4.9109703348971599E-2</v>
-      </c>
-      <c r="C12">
-        <v>-0.22606083073438599</v>
-      </c>
-      <c r="D12">
-        <v>0.32428023743232898</v>
-      </c>
-      <c r="E12">
-        <v>0.11924072957406399</v>
-      </c>
-      <c r="F12">
-        <v>-8.1254134464523398E-2</v>
-      </c>
-      <c r="G12">
-        <v>0.31973559361265202</v>
-      </c>
-      <c r="H12">
-        <v>-8.4818189140573902E-2</v>
-      </c>
-      <c r="I12">
-        <v>-0.38604200136719502</v>
-      </c>
-      <c r="J12">
-        <v>0.21640562308604799</v>
-      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>-8.8571344300064393E-3</v>
-      </c>
-      <c r="C13">
-        <v>-0.257352055404927</v>
-      </c>
-      <c r="D13">
-        <v>0.23963778654491399</v>
-      </c>
-      <c r="E13">
-        <v>-3.5620597159054197E-2</v>
-      </c>
-      <c r="F13">
-        <v>-0.37293882404356199</v>
-      </c>
-      <c r="G13">
-        <v>0.301697629725454</v>
-      </c>
-      <c r="H13">
-        <v>-6.4071351525790105E-2</v>
-      </c>
-      <c r="I13">
-        <v>-0.36660731272740799</v>
-      </c>
-      <c r="J13">
-        <v>0.238464609675827</v>
-      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>-1.14835259364892E-2</v>
-      </c>
-      <c r="C14">
-        <v>-0.282279140963971</v>
-      </c>
-      <c r="D14">
-        <v>0.25931208909099202</v>
-      </c>
-      <c r="E14">
-        <v>3.2453527817297699E-3</v>
-      </c>
-      <c r="F14">
-        <v>-0.28051847531294399</v>
-      </c>
-      <c r="G14">
-        <v>0.28700918087640298</v>
-      </c>
-      <c r="H14">
-        <v>-0.184807855942349</v>
-      </c>
-      <c r="I14">
-        <v>-0.501727027528164</v>
-      </c>
-      <c r="J14">
-        <v>0.13211131564346501</v>
-      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0.12689515818231401</v>
-      </c>
-      <c r="C15">
-        <v>-0.248370561397106</v>
-      </c>
-      <c r="D15">
-        <v>0.50216087776173401</v>
-      </c>
-      <c r="E15">
-        <v>8.8232435110156701E-2</v>
-      </c>
-      <c r="F15">
-        <v>-0.13539305771033699</v>
-      </c>
-      <c r="G15">
-        <v>0.31185792793064998</v>
-      </c>
-      <c r="H15">
-        <v>-0.37235799945294601</v>
-      </c>
-      <c r="I15">
-        <v>-0.91401485994489795</v>
-      </c>
-      <c r="J15">
-        <v>0.16929886103900599</v>
-      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>8.2278231565014306E-2</v>
-      </c>
-      <c r="C16">
-        <v>-0.319960420494591</v>
-      </c>
-      <c r="D16">
-        <v>0.48451688362461898</v>
-      </c>
-      <c r="E16">
-        <v>5.6882103521759299E-2</v>
-      </c>
-      <c r="F16">
-        <v>-0.28526862609127102</v>
-      </c>
-      <c r="G16">
-        <v>0.39903283313478999</v>
-      </c>
-      <c r="H16">
-        <v>-2.64263850120325E-3</v>
-      </c>
-      <c r="I16">
-        <v>-0.268461997482139</v>
-      </c>
-      <c r="J16">
-        <v>0.26317672047973301</v>
-      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0.164655161196335</v>
-      </c>
-      <c r="C17">
-        <v>-0.19251094296603299</v>
-      </c>
-      <c r="D17">
-        <v>0.52182126535870299</v>
-      </c>
-      <c r="E17">
-        <v>-8.2734189088283297E-2</v>
-      </c>
-      <c r="F17">
-        <v>-0.449350206255199</v>
-      </c>
-      <c r="G17">
-        <v>0.28388182807863199</v>
-      </c>
-      <c r="H17">
-        <v>1.7681980681548599E-2</v>
-      </c>
-      <c r="I17">
-        <v>-0.39268271866519899</v>
-      </c>
-      <c r="J17">
-        <v>0.42804668002829599</v>
-      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0.14191492013486201</v>
-      </c>
-      <c r="C18">
-        <v>-8.9813281359483105E-2</v>
-      </c>
-      <c r="D18">
-        <v>0.37364312162920699</v>
-      </c>
-      <c r="E18">
-        <v>0.233988429761465</v>
-      </c>
-      <c r="F18">
-        <v>-1.9041761038441799E-2</v>
-      </c>
-      <c r="G18">
-        <v>0.48701862056137202</v>
-      </c>
-      <c r="H18">
-        <v>1.4796321684752299E-2</v>
-      </c>
-      <c r="I18">
-        <v>-0.30081083862485802</v>
-      </c>
-      <c r="J18">
-        <v>0.33040348199436298</v>
-      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>8.3252596335120499E-2</v>
-      </c>
-      <c r="C19">
-        <v>-0.227222034586682</v>
-      </c>
-      <c r="D19">
-        <v>0.393727227256923</v>
-      </c>
-      <c r="E19">
-        <v>3.9776078024604103E-2</v>
-      </c>
-      <c r="F19">
-        <v>-0.39364859095892402</v>
-      </c>
-      <c r="G19">
-        <v>0.47320074700813303</v>
-      </c>
-      <c r="H19">
-        <v>-9.0420654219009203E-2</v>
-      </c>
-      <c r="I19">
-        <v>-0.28099976837093998</v>
-      </c>
-      <c r="J19">
-        <v>0.100158459932921</v>
-      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>5.4804170405670398E-3</v>
-      </c>
-      <c r="C20">
-        <v>-0.283962895460458</v>
-      </c>
-      <c r="D20">
-        <v>0.29492372954159202</v>
-      </c>
-      <c r="E20">
-        <v>-0.118942821864752</v>
-      </c>
-      <c r="F20">
-        <v>-0.52751040561447404</v>
-      </c>
-      <c r="G20">
-        <v>0.28962476188497099</v>
-      </c>
-      <c r="H20">
-        <v>8.0467998110613198E-2</v>
-      </c>
-      <c r="I20">
-        <v>-0.28118093673394201</v>
-      </c>
-      <c r="J20">
-        <v>0.44211693295516902</v>
-      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>-8.2529416949766704E-2</v>
-      </c>
-      <c r="C21">
-        <v>-0.42442362318266003</v>
-      </c>
-      <c r="D21">
-        <v>0.25936478928312701</v>
-      </c>
-      <c r="E21">
-        <v>-6.7870407747853106E-2</v>
-      </c>
-      <c r="F21">
-        <v>-0.44270137998442899</v>
-      </c>
-      <c r="G21">
-        <v>0.306960564488723</v>
-      </c>
-      <c r="H21">
-        <v>-3.5799759838568299E-2</v>
-      </c>
-      <c r="I21">
-        <v>-0.29143961207351599</v>
-      </c>
-      <c r="J21">
-        <v>0.219840092396379</v>
-      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>-0.116644444530317</v>
-      </c>
-      <c r="C22">
-        <v>-0.451421484537535</v>
-      </c>
-      <c r="D22">
-        <v>0.218132595476901</v>
-      </c>
-      <c r="E22">
-        <v>-7.4535255142955906E-2</v>
-      </c>
-      <c r="F22">
-        <v>-0.462886690677077</v>
-      </c>
-      <c r="G22">
-        <v>0.31381618039116599</v>
-      </c>
-      <c r="H22">
-        <v>8.3286782836652293E-3</v>
-      </c>
-      <c r="I22">
-        <v>-0.29773572385209401</v>
-      </c>
-      <c r="J22">
-        <v>0.31439308041942499</v>
-      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>-1.09870333279561E-2</v>
-      </c>
-      <c r="C23">
-        <v>-0.42879005165301498</v>
-      </c>
-      <c r="D23">
-        <v>0.40681598499710298</v>
-      </c>
-      <c r="E23">
-        <v>-2.7298464411584102E-2</v>
-      </c>
-      <c r="F23">
-        <v>-0.29677838038472498</v>
-      </c>
-      <c r="G23">
-        <v>0.24218145156155599</v>
-      </c>
-      <c r="H23">
-        <v>-5.9474323048389698E-2</v>
-      </c>
-      <c r="I23">
-        <v>-0.28141345858607197</v>
-      </c>
-      <c r="J23">
-        <v>0.16246481248929201</v>
-      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>-9.9948592481995793E-2</v>
-      </c>
-      <c r="C24">
-        <v>-0.32322133093525202</v>
-      </c>
-      <c r="D24">
-        <v>0.12332414597126</v>
-      </c>
-      <c r="E24">
-        <v>-9.4219084807908596E-2</v>
-      </c>
-      <c r="F24">
-        <v>-0.38345518990643901</v>
-      </c>
-      <c r="G24">
-        <v>0.19501702029062201</v>
-      </c>
-      <c r="H24">
-        <v>3.69880308206589E-2</v>
-      </c>
-      <c r="I24">
-        <v>-0.22053892339044001</v>
-      </c>
-      <c r="J24">
-        <v>0.29451498503175799</v>
-      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>6.8928319199069499E-2</v>
-      </c>
-      <c r="C25">
-        <v>-0.203450080164671</v>
-      </c>
-      <c r="D25">
-        <v>0.34130671856281097</v>
-      </c>
-      <c r="E25">
-        <v>-0.20198001412161501</v>
-      </c>
-      <c r="F25">
-        <v>-0.63690805185773203</v>
-      </c>
-      <c r="G25">
-        <v>0.23294802361450301</v>
-      </c>
-      <c r="H25">
-        <v>-5.9688694388868096E-3</v>
-      </c>
-      <c r="I25">
-        <v>-0.26839937427784699</v>
-      </c>
-      <c r="J25">
-        <v>0.256461635400073</v>
-      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>7.6312356250035004E-2</v>
-      </c>
-      <c r="C26">
-        <v>-0.28672039236393099</v>
-      </c>
-      <c r="D26">
-        <v>0.43934510486400102</v>
-      </c>
-      <c r="E26">
-        <v>-3.7010517365593798E-2</v>
-      </c>
-      <c r="F26">
-        <v>-0.359549367778627</v>
-      </c>
-      <c r="G26">
-        <v>0.28552833304744002</v>
-      </c>
-      <c r="H26">
-        <v>8.3981671883481702E-3</v>
-      </c>
-      <c r="I26">
-        <v>-0.347747627034587</v>
-      </c>
-      <c r="J26">
-        <v>0.36454396141128298</v>
-      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>-5.24868680489518E-2</v>
-      </c>
-      <c r="C27">
-        <v>-0.32242392996496799</v>
-      </c>
-      <c r="D27">
-        <v>0.21745019386706499</v>
-      </c>
-      <c r="E27">
-        <v>-7.7709967295138599E-2</v>
-      </c>
-      <c r="F27">
-        <v>-0.56289906026981495</v>
-      </c>
-      <c r="G27">
-        <v>0.40747912567953798</v>
-      </c>
-      <c r="H27">
-        <v>0.123690423585786</v>
-      </c>
-      <c r="I27">
-        <v>-0.16752759705501399</v>
-      </c>
-      <c r="J27">
-        <v>0.41490844422658602</v>
-      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="e">
         <f>AVERAGE(B3:B27)</f>
-        <v>2.1844574768278845E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1">
+      <c r="E28" s="1" t="e">
         <f>AVERAGE(E3:E27)</f>
-        <v>-2.0230611530971165E-4</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1">
+      <c r="H28" s="1" t="e">
         <f>AVERAGE(H3:H27)</f>
-        <v>-4.9904809796301021E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4746,21 +3399,21 @@
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="e">
         <f>STDEV(B3:B27)</f>
-        <v>8.033825986506371E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1">
+      <c r="E29" s="1" t="e">
         <f>STDEV(E3:E27)</f>
-        <v>0.10009817641962862</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1">
+      <c r="H29" s="1" t="e">
         <f>STDEV(H3:H27)</f>
-        <v>0.11971548952773171</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4789,21 +3442,21 @@
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="1" t="e">
         <f>B30*B29/5</f>
-        <v>4.4941222568516639E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1">
+      <c r="E31" s="1" t="e">
         <f>E30*E29/5</f>
-        <v>5.5994919889140252E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1">
+      <c r="H31" s="1" t="e">
         <f>H30*H29/5</f>
-        <v>6.6968844841813119E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -4829,7 +3482,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4889,31 +3542,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.19751218716331601</v>
+        <v>1.8548906569235499</v>
       </c>
       <c r="C3">
-        <v>-0.408019908924385</v>
+        <v>-0.60905408182971299</v>
       </c>
       <c r="D3">
-        <v>0.80304428325101596</v>
+        <v>4.3188353956768104</v>
       </c>
       <c r="E3">
-        <v>0.126068254819166</v>
+        <v>2.0404308849598798</v>
       </c>
       <c r="F3">
-        <v>-0.38393412383195802</v>
+        <v>0.88365902741369196</v>
       </c>
       <c r="G3">
-        <v>0.63607063347028903</v>
+        <v>3.1972027425060601</v>
       </c>
       <c r="H3">
-        <v>0.92910415225624898</v>
+        <v>1.34918020278109</v>
       </c>
       <c r="I3">
-        <v>-0.99349954238621396</v>
+        <v>1.05347629546404</v>
       </c>
       <c r="J3">
-        <v>2.85170784689871</v>
+        <v>1.6448841100981499</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4921,31 +3574,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.69012999997413904</v>
+        <v>2.9260177767559501</v>
       </c>
       <c r="C4">
-        <v>-1.0877990762438801</v>
+        <v>-5.8550234349360801</v>
       </c>
       <c r="D4">
-        <v>2.4680590761921501</v>
+        <v>11.707058988448001</v>
       </c>
       <c r="E4">
-        <v>0.225483095588044</v>
+        <v>1.64715132913805</v>
       </c>
       <c r="F4">
-        <v>-9.2835206183554106E-2</v>
+        <v>0.97282770283290698</v>
       </c>
       <c r="G4">
-        <v>0.54380139735964195</v>
+        <v>2.3214749554431999</v>
       </c>
       <c r="H4">
-        <v>0.63916549702534597</v>
+        <v>1.4409884757301199</v>
       </c>
       <c r="I4">
-        <v>-5.77294971839383E-2</v>
+        <v>1.09864330773412</v>
       </c>
       <c r="J4">
-        <v>1.3360604912346301</v>
+        <v>1.78333364372611</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4953,31 +3606,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.123405104244868</v>
+        <v>2.1479150171119299</v>
       </c>
       <c r="C5">
-        <v>-0.35646055603829402</v>
+        <v>-0.120549246808038</v>
       </c>
       <c r="D5">
-        <v>0.60327076452802897</v>
+        <v>4.4163792810318903</v>
       </c>
       <c r="E5">
-        <v>0.62690326677692998</v>
+        <v>1.54302655118756</v>
       </c>
       <c r="F5">
-        <v>-9.1059941754544696E-2</v>
+        <v>1.0021002078124199</v>
       </c>
       <c r="G5">
-        <v>1.3448664753084001</v>
+        <v>2.0839528945626902</v>
       </c>
       <c r="H5">
-        <v>0.27915192307855402</v>
+        <v>1.0216784074752501</v>
       </c>
       <c r="I5">
-        <v>-0.12957087945484</v>
+        <v>0.76352251154250095</v>
       </c>
       <c r="J5">
-        <v>0.68787472561194796</v>
+        <v>1.279834303408</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4985,60 +3638,63 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.2368970627205002E-2</v>
+        <v>2.9713624085372001</v>
       </c>
       <c r="C6">
-        <v>-0.361200256584639</v>
+        <v>-0.72767911010949105</v>
       </c>
       <c r="D6">
-        <v>0.44593819783904898</v>
+        <v>6.67040392718389</v>
       </c>
       <c r="E6">
-        <v>0.269253034984065</v>
+        <v>1.4196901415521599</v>
       </c>
       <c r="F6">
-        <v>-0.17793333663663199</v>
+        <v>0.62466653405186501</v>
       </c>
       <c r="G6">
-        <v>0.71643940660476102</v>
+        <v>2.2147137490524602</v>
       </c>
       <c r="H6">
-        <v>0.299258424557103</v>
+        <v>1.5497821607255799</v>
       </c>
       <c r="I6">
-        <v>-0.154211270015775</v>
+        <v>1.18599530054299</v>
       </c>
       <c r="J6">
-        <v>0.75272811912998205</v>
+        <v>1.9135690209081699</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>4.0460766997209303</v>
+      </c>
       <c r="C7">
-        <v>-0.60601348136611899</v>
+        <v>-2.76075608589111</v>
       </c>
       <c r="D7">
-        <v>0.55229681224595195</v>
+        <v>10.852909485333001</v>
       </c>
       <c r="E7">
-        <v>0.22752359323301299</v>
+        <v>1.4046425163082299</v>
       </c>
       <c r="F7">
-        <v>-6.2321161612643602E-2</v>
+        <v>1.0188612819496601</v>
       </c>
       <c r="G7">
-        <v>0.51736834807866905</v>
+        <v>1.7904237506667999</v>
       </c>
       <c r="H7">
-        <v>0.508145647965631</v>
+        <v>1.12409860939668</v>
       </c>
       <c r="I7">
-        <v>-0.16223127309354901</v>
+        <v>0.85425051855693102</v>
       </c>
       <c r="J7">
-        <v>1.17852256902481</v>
+        <v>1.3939467002364401</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5046,31 +3702,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.84537901560509E-2</v>
+        <v>2.2497645832552999</v>
       </c>
       <c r="C8">
-        <v>-0.69884002636947795</v>
+        <v>-1.84641458481167</v>
       </c>
       <c r="D8">
-        <v>0.81574760668157997</v>
+        <v>6.3459437513222596</v>
       </c>
       <c r="E8">
-        <v>0.142579085791466</v>
+        <v>2.0864581941686602</v>
       </c>
       <c r="F8">
-        <v>-0.309901972737057</v>
+        <v>1.04903009137129</v>
       </c>
       <c r="G8">
-        <v>0.59506014431998899</v>
+        <v>3.1238862969660199</v>
       </c>
       <c r="H8">
-        <v>0.314018896419194</v>
+        <v>1.3463405986163699</v>
       </c>
       <c r="I8">
-        <v>-0.28867140224704402</v>
+        <v>1.10918828196536</v>
       </c>
       <c r="J8">
-        <v>0.91670919508543203</v>
+        <v>1.58349291526738</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5078,31 +3734,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.23717492143094901</v>
+        <v>2.0251292861485899</v>
       </c>
       <c r="C9">
-        <v>-0.17319888785485099</v>
+        <v>1.08052723006632</v>
       </c>
       <c r="D9">
-        <v>0.64754873071674801</v>
+        <v>2.9697313422308702</v>
       </c>
       <c r="E9">
-        <v>0.32581507806284499</v>
+        <v>1.7607771438003099</v>
       </c>
       <c r="F9">
-        <v>-0.256398615046662</v>
+        <v>0.83470659812442505</v>
       </c>
       <c r="G9">
-        <v>0.90802877117235203</v>
+        <v>2.6868476894761901</v>
       </c>
       <c r="H9">
-        <v>0.328708548138887</v>
+        <v>1.41379573332249</v>
       </c>
       <c r="I9">
-        <v>-0.18272894516866101</v>
+        <v>1.2291837848378899</v>
       </c>
       <c r="J9">
-        <v>0.84014604144643601</v>
+        <v>1.5984076818071</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5110,28 +3766,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.19021790226945101</v>
+        <v>1.12337470213472</v>
       </c>
       <c r="C10">
-        <v>-0.40139019594498399</v>
+        <v>0.16189062761331499</v>
       </c>
       <c r="D10">
-        <v>0.78182600048388595</v>
+        <v>2.0848587766561302</v>
+      </c>
+      <c r="E10">
+        <v>1.9174031308232999</v>
       </c>
       <c r="F10">
-        <v>-0.36024362603311699</v>
+        <v>1.20571336703615</v>
       </c>
       <c r="G10">
-        <v>0.33674527304070001</v>
+        <v>2.6290928946104599</v>
       </c>
       <c r="H10">
-        <v>0.390374650070478</v>
+        <v>1.19606984684523</v>
       </c>
       <c r="I10">
-        <v>-9.9362841732601404E-2</v>
+        <v>0.75365403120301999</v>
       </c>
       <c r="J10">
-        <v>0.88011214187355802</v>
+        <v>1.63848566248744</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5139,31 +3798,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.12559061877458799</v>
+        <v>1.2893605558999699</v>
       </c>
       <c r="C11">
-        <v>-0.44348056160676702</v>
+        <v>0.111709322371328</v>
       </c>
       <c r="D11">
-        <v>0.69466179915594295</v>
+        <v>2.4670117894286201</v>
       </c>
       <c r="E11">
-        <v>0.25657400524510998</v>
+        <v>1.3652732141186401</v>
       </c>
       <c r="F11">
-        <v>-0.12778806462160799</v>
+        <v>1.02867597074574</v>
       </c>
       <c r="G11">
-        <v>0.64093607511182704</v>
+        <v>1.70187045749154</v>
       </c>
       <c r="H11">
-        <v>0.24799097062915401</v>
+        <v>1.3839919895339601</v>
       </c>
       <c r="I11">
-        <v>-0.1198960456645</v>
+        <v>1.0207102727367401</v>
       </c>
       <c r="J11">
-        <v>0.61587798692280904</v>
+        <v>1.7472737063311701</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5171,31 +3830,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.53075025979536194</v>
+        <v>1.6343903783167899</v>
       </c>
       <c r="C12">
-        <v>-7.4392536454568003E-2</v>
+        <v>-0.49727652072802803</v>
       </c>
       <c r="D12">
-        <v>1.13589305604529</v>
+        <v>3.7660572773616101</v>
       </c>
       <c r="E12">
-        <v>0.13650424876240999</v>
+        <v>1.2250968921805201</v>
       </c>
       <c r="F12">
-        <v>-0.254311576454198</v>
+        <v>0.97705420470717796</v>
       </c>
       <c r="G12">
-        <v>0.52732007397901803</v>
+        <v>1.47313957965386</v>
       </c>
       <c r="H12">
-        <v>0.52341231033916502</v>
+        <v>1.24930856678155</v>
       </c>
       <c r="I12">
-        <v>-0.31195461574951799</v>
+        <v>1.0416079859033001</v>
       </c>
       <c r="J12">
-        <v>1.3587792364278499</v>
+        <v>1.4570091476597999</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5203,31 +3862,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.54905204681962405</v>
+        <v>2.7267587297768801</v>
       </c>
       <c r="C13">
-        <v>0.21960489365595501</v>
+        <v>-2.27617301515494</v>
       </c>
       <c r="D13">
-        <v>0.87849919998329296</v>
+        <v>7.7296904747086996</v>
       </c>
       <c r="E13">
-        <v>0.45070768317639398</v>
+        <v>1.44133657654012</v>
       </c>
       <c r="F13">
-        <v>-0.20099093260355699</v>
+        <v>0.66521474134683001</v>
       </c>
       <c r="G13">
-        <v>1.1024062989563499</v>
+        <v>2.2174584117334102</v>
       </c>
       <c r="H13">
-        <v>1.04813138757756</v>
+        <v>1.43903566290176</v>
       </c>
       <c r="I13">
-        <v>-0.748180588191657</v>
+        <v>0.94266474770920095</v>
       </c>
       <c r="J13">
-        <v>2.8444433633467798</v>
+        <v>1.9354065780943199</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5235,31 +3894,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.1865710558557801E-2</v>
+        <v>2.0219722976540999</v>
       </c>
       <c r="C14">
-        <v>-0.69439099374719404</v>
+        <v>-0.42525424260376998</v>
       </c>
       <c r="D14">
-        <v>0.73812241486430996</v>
+        <v>4.4691988379119696</v>
       </c>
       <c r="E14">
-        <v>0.34292220995644401</v>
+        <v>1.40354885910204</v>
       </c>
       <c r="F14">
-        <v>-0.207006735172717</v>
+        <v>1.1737447349154699</v>
       </c>
       <c r="G14">
-        <v>0.89285115508560597</v>
+        <v>1.6333529832886</v>
       </c>
       <c r="H14">
-        <v>0.58692843090166502</v>
+        <v>1.04068196905225</v>
       </c>
       <c r="I14">
-        <v>-0.12541482749442601</v>
+        <v>0.61134973842909102</v>
       </c>
       <c r="J14">
-        <v>1.29927168929776</v>
+        <v>1.4700141996753999</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5267,31 +3926,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.22256032539984399</v>
+        <v>1.94632683649183</v>
       </c>
       <c r="C15">
-        <v>-0.11715151651087501</v>
+        <v>0.77662570200370595</v>
       </c>
       <c r="D15">
-        <v>0.56227216731056295</v>
+        <v>3.1160279709799501</v>
       </c>
       <c r="E15">
-        <v>0.14116358110968899</v>
+        <v>1.27454749552915</v>
       </c>
       <c r="F15">
-        <v>-0.363504903937859</v>
+        <v>0.968928417532678</v>
       </c>
       <c r="G15">
-        <v>0.64583206615723698</v>
+        <v>1.5801665735256201</v>
       </c>
       <c r="H15">
-        <v>0.48502328195453798</v>
+        <v>1.15695092199399</v>
       </c>
       <c r="I15">
-        <v>-0.34105291047223202</v>
+        <v>0.74018791098523395</v>
       </c>
       <c r="J15">
-        <v>1.31109947438131</v>
+        <v>1.5737139330027401</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5299,31 +3958,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.22754535439638099</v>
+        <v>1.8961251386120099</v>
       </c>
       <c r="C16">
-        <v>-0.31740381802899598</v>
+        <v>-1.70646447657286</v>
       </c>
       <c r="D16">
-        <v>0.77249452682175801</v>
+        <v>5.4987147537968797</v>
       </c>
       <c r="E16">
-        <v>0.47718936664959299</v>
+        <v>1.4525935759287101</v>
       </c>
       <c r="F16">
-        <v>-0.28026367543557401</v>
+        <v>1.0076891007158799</v>
       </c>
       <c r="G16">
-        <v>1.2346424087347601</v>
+        <v>1.89749805114153</v>
       </c>
       <c r="H16">
-        <v>0.296475905039704</v>
+        <v>1.32159017780683</v>
       </c>
       <c r="I16">
-        <v>-9.5937226298594899E-2</v>
+        <v>1.0408457521747101</v>
       </c>
       <c r="J16">
-        <v>0.68888903637800203</v>
+        <v>1.6023346034389501</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5331,60 +3990,63 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.2542434204689202E-2</v>
+        <v>3.6960032853028602</v>
       </c>
       <c r="C17">
-        <v>-0.28882850231194501</v>
+        <v>-1.1640401137151799</v>
       </c>
       <c r="D17">
-        <v>0.39391337072132299</v>
+        <v>8.5560466843209007</v>
       </c>
       <c r="E17">
-        <v>2.1362206898329998</v>
+        <v>1.73381126555028</v>
       </c>
       <c r="F17">
-        <v>-5.2045637760212102</v>
+        <v>1.2727176516351699</v>
       </c>
       <c r="G17">
-        <v>9.4770051556872108</v>
+        <v>2.1949048794653998</v>
       </c>
       <c r="H17">
-        <v>0.46386979188847799</v>
+        <v>1.30518468020217</v>
       </c>
       <c r="I17">
-        <v>0.14021312951787401</v>
+        <v>0.80623867135565896</v>
       </c>
       <c r="J17">
-        <v>0.78752645425908296</v>
+        <v>1.8041306890486699</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.1387801665519399</v>
+      </c>
       <c r="C18">
-        <v>-0.102755214821336</v>
+        <v>0.49905345335377999</v>
       </c>
       <c r="D18">
-        <v>6.3025291305532596E-2</v>
+        <v>1.77850687975011</v>
       </c>
       <c r="E18">
-        <v>0.162935569930862</v>
+        <v>1.4193116456575099</v>
       </c>
       <c r="F18">
-        <v>-0.35385389568728698</v>
+        <v>0.98767729628677903</v>
       </c>
       <c r="G18">
-        <v>0.67972503554901198</v>
+        <v>1.8509459950282401</v>
       </c>
       <c r="H18">
-        <v>0.54656845467333703</v>
+        <v>1.4386143458833101</v>
       </c>
       <c r="I18">
-        <v>-4.1491450053133698E-2</v>
+        <v>0.80870315616353095</v>
       </c>
       <c r="J18">
-        <v>1.1346283593998101</v>
+        <v>2.0685255356030798</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5392,31 +4054,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.8513317023542695E-2</v>
+        <v>2.95532538650053</v>
       </c>
       <c r="C19">
-        <v>-0.27725728245508202</v>
+        <v>-5.29499419563101</v>
       </c>
       <c r="D19">
-        <v>0.43428391650216802</v>
+        <v>11.2056449686321</v>
       </c>
       <c r="E19">
-        <v>0.11117033785048699</v>
+        <v>1.31282370801117</v>
       </c>
       <c r="F19">
-        <v>-0.135092618187998</v>
+        <v>0.55025365936214599</v>
       </c>
       <c r="G19">
-        <v>0.35743329388897099</v>
+        <v>2.0753937566601901</v>
       </c>
       <c r="H19">
-        <v>0.17222586871225701</v>
+        <v>1.51871948548876</v>
       </c>
       <c r="I19">
-        <v>-8.9772202021500103E-2</v>
+        <v>1.2041950538651001</v>
       </c>
       <c r="J19">
-        <v>0.43422393944601401</v>
+        <v>1.83324391711242</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5424,31 +4086,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.16692607672292001</v>
+        <v>2.8644863343190101</v>
       </c>
       <c r="C20">
-        <v>-0.51903365610129903</v>
+        <v>-7.7197474513892397</v>
       </c>
       <c r="D20">
-        <v>0.852885809547139</v>
+        <v>13.4487201200273</v>
       </c>
       <c r="E20">
-        <v>0.456693794864513</v>
+        <v>1.62322645489326</v>
       </c>
       <c r="F20">
-        <v>-8.4794009925450595E-2</v>
+        <v>1.00816702015568</v>
       </c>
       <c r="G20">
-        <v>0.99818159965447695</v>
+        <v>2.2382858896308302</v>
       </c>
       <c r="H20">
-        <v>0.711424776223053</v>
+        <v>1.37670627306906</v>
       </c>
       <c r="I20">
-        <v>-0.201200612784318</v>
+        <v>1.1560566557352601</v>
       </c>
       <c r="J20">
-        <v>1.62405016523042</v>
+        <v>1.59735589040285</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5456,60 +4118,63 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.15215112060506999</v>
+        <v>6.4464405628453001</v>
       </c>
       <c r="C21">
-        <v>-0.35797001630094699</v>
+        <v>-241.333401484451</v>
       </c>
       <c r="D21">
-        <v>0.66227225751108798</v>
+        <v>254.226282610141</v>
       </c>
       <c r="E21">
-        <v>0.258678972458456</v>
+        <v>1.73428249722876</v>
       </c>
       <c r="F21">
-        <v>7.7695077243974703E-2</v>
+        <v>1.2017411155600899</v>
       </c>
       <c r="G21">
-        <v>0.439662867672936</v>
+        <v>2.26682387889743</v>
       </c>
       <c r="H21">
-        <v>1.31404992463242</v>
+        <v>1.4951398834210601</v>
       </c>
       <c r="I21">
-        <v>-1.3603551662038</v>
+        <v>1.14645461989068</v>
       </c>
       <c r="J21">
-        <v>3.98845501546865</v>
+        <v>1.84382514695144</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>2.0935556223113299</v>
+      </c>
       <c r="C22">
-        <v>-0.76328118955546798</v>
+        <v>-0.712395764502602</v>
       </c>
       <c r="D22">
-        <v>0.73588145616221801</v>
+        <v>4.8995070091252702</v>
       </c>
       <c r="E22">
-        <v>0.132429081524404</v>
+        <v>1.3927076600439099</v>
       </c>
       <c r="F22">
-        <v>-0.25322997752080101</v>
+        <v>0.90315513121865398</v>
       </c>
       <c r="G22">
-        <v>0.51808814056960995</v>
+        <v>1.8822601888691599</v>
       </c>
       <c r="H22">
-        <v>0.45491728633518702</v>
+        <v>1.3346769708266999</v>
       </c>
       <c r="I22">
-        <v>-0.177302981079282</v>
+        <v>1.14449757095669</v>
       </c>
       <c r="J22">
-        <v>1.0871375537496599</v>
+        <v>1.52485637069671</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5517,60 +4182,63 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.113963976580491</v>
+        <v>1.33037938628776</v>
       </c>
       <c r="C23">
-        <v>-0.42188617208282903</v>
+        <v>-0.16847333687362501</v>
       </c>
       <c r="D23">
-        <v>0.64981412524381199</v>
+        <v>2.8292321094491499</v>
       </c>
       <c r="E23">
-        <v>0.26756154995188502</v>
+        <v>1.8761879185146899</v>
       </c>
       <c r="F23">
-        <v>-0.114602581098506</v>
+        <v>1.1025390119152401</v>
       </c>
       <c r="G23">
-        <v>0.64972568100227601</v>
+        <v>2.6498368251141402</v>
       </c>
       <c r="H23">
-        <v>0.67628917276193401</v>
+        <v>1.0674840625663899</v>
       </c>
       <c r="I23">
-        <v>-0.19665840089584</v>
+        <v>0.739734355804331</v>
       </c>
       <c r="J23">
-        <v>1.5492367464197101</v>
+        <v>1.39523376932845</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>2.67282855025248</v>
+      </c>
       <c r="C24">
-        <v>-0.77889246883588903</v>
+        <v>-2.2502782647307198</v>
       </c>
       <c r="D24">
-        <v>0.50732681571196203</v>
+        <v>7.5959353652356798</v>
       </c>
       <c r="E24">
-        <v>0.254856954012468</v>
+        <v>1.5377344891317</v>
       </c>
       <c r="F24">
-        <v>-0.16655193856685299</v>
+        <v>0.71003323037413901</v>
       </c>
       <c r="G24">
-        <v>0.67626584659178901</v>
+        <v>2.3654357478892498</v>
       </c>
       <c r="H24">
-        <v>0.83523643977015105</v>
+        <v>1.2521885936258199</v>
       </c>
       <c r="I24">
-        <v>-6.9936700059292894E-2</v>
+        <v>0.96659963120797598</v>
       </c>
       <c r="J24">
-        <v>1.7404095795996</v>
+        <v>1.5377775560436699</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5578,57 +4246,63 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.19121135132233399</v>
+        <v>6.6427417057535498</v>
       </c>
       <c r="C25">
-        <v>-0.50057458627975204</v>
+        <v>-199.04431896890901</v>
       </c>
       <c r="D25">
-        <v>0.88299728892442098</v>
+        <v>212.329802380416</v>
       </c>
       <c r="E25">
-        <v>0.115225148505211</v>
+        <v>2.0098996807193301</v>
       </c>
       <c r="F25">
-        <v>-0.282606627876479</v>
+        <v>0.78401386818734398</v>
       </c>
       <c r="G25">
-        <v>0.51305692488690202</v>
+        <v>3.2357854932513099</v>
       </c>
       <c r="H25">
-        <v>0.193107067809283</v>
+        <v>1.09401361897254</v>
       </c>
       <c r="I25">
-        <v>-0.352320424216362</v>
+        <v>0.66399733684974804</v>
       </c>
       <c r="J25">
-        <v>0.738534559834927</v>
+        <v>1.52402990109533</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
+      <c r="B26">
+        <v>2.1002920559036302</v>
+      </c>
       <c r="C26">
-        <v>-1.1372063760992599</v>
+        <v>-1.5125592068278599</v>
       </c>
       <c r="D26">
-        <v>0.76858776830819397</v>
+        <v>5.7131433186351197</v>
+      </c>
+      <c r="E26">
+        <v>1.73437117970511</v>
       </c>
       <c r="F26">
-        <v>-0.32954512660639501</v>
+        <v>0.99566366649339</v>
       </c>
       <c r="G26">
-        <v>0.28940731738123199</v>
+        <v>2.4730786929168298</v>
       </c>
       <c r="H26">
-        <v>0.33105650543106302</v>
+        <v>1.3099824965934801</v>
       </c>
       <c r="I26">
-        <v>-0.14697117312499899</v>
+        <v>1.03088324010046</v>
       </c>
       <c r="J26">
-        <v>0.80908418398712501</v>
+        <v>1.5890817530865</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5636,31 +4310,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.43051245266558802</v>
+        <v>1.81652815950255</v>
       </c>
       <c r="C27">
-        <v>-0.80339883529844403</v>
+        <v>3.7120388582557999E-2</v>
       </c>
       <c r="D27">
-        <v>1.6644237406296201</v>
+        <v>3.59593593042255</v>
       </c>
       <c r="E27">
-        <v>0.17907465085979599</v>
+        <v>1.50212334531062</v>
       </c>
       <c r="F27">
-        <v>-0.178392950124487</v>
+        <v>0.90534112923294996</v>
       </c>
       <c r="G27">
-        <v>0.536542251844079</v>
+        <v>2.0989055613883001</v>
       </c>
       <c r="H27">
-        <v>0.32921472371952798</v>
+        <v>1.08180510357033</v>
       </c>
       <c r="I27">
-        <v>-0.142349963896022</v>
+        <v>0.65441501590498297</v>
       </c>
       <c r="J27">
-        <v>0.80077941133507902</v>
+        <v>1.50919519123567</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5669,19 +4343,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.22012239603674857</v>
+        <v>2.5846730513148284</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.34015361973679353</v>
+        <v>1.5943382540041466</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.51615400151639657</v>
+        <v>1.2923203534873107</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -5692,19 +4366,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>0.18561897029582081</v>
+        <v>1.4002143961715625</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>0.41447531732279974</v>
+        <v>0.24916514112604263</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>0.28073120868464185</v>
+        <v>0.1572391426802062</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -5735,19 +4409,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>0.10621117480326867</v>
+        <v>0.80120267748936802</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>0.23368118390659448</v>
+        <v>0.14047930656686283</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>0.15704103813818865</v>
+        <v>8.7959576415307356E-2</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
